--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,10 @@
   </si>
   <si>
     <t>注意呼吸/节奏动作继续标准可以适当减少次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单臂垂直引体,力竭,下次注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +485,127 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1121,9 +1245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I647"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H500" sqref="H500"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2392,100 +2516,186 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="9">
+        <v>41955</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="10">
+        <v>20</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
       <c r="G49" s="11"/>
-      <c r="H49" s="11" t="str">
+      <c r="H49" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I49" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="9">
+        <v>41955</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="10">
+        <v>15</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1</v>
+      </c>
       <c r="G50" s="11"/>
-      <c r="H50" s="11" t="str">
+      <c r="H50" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I50" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="9">
+        <v>41955</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="10">
+        <v>45</v>
+      </c>
+      <c r="F51" s="10">
+        <v>3</v>
+      </c>
       <c r="G51" s="11"/>
-      <c r="H51" s="11" t="str">
+      <c r="H51" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I51" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="9">
+        <v>41955</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="10">
+        <v>20</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
       <c r="G52" s="11"/>
-      <c r="H52" s="11" t="str">
+      <c r="H52" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I52" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="A53" s="9">
+        <v>41955</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="10">
+        <v>15</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
       <c r="G53" s="11"/>
-      <c r="H53" s="11" t="str">
+      <c r="H53" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I53" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="A54" s="9">
+        <v>41955</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="10">
+        <v>23</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
       <c r="G54" s="11"/>
-      <c r="H54" s="11" t="str">
+      <c r="H54" s="11">
         <f t="shared" si="6"/>
-        <v/>
+        <v>46</v>
       </c>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="A55" s="9">
+        <v>41955</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="10">
+        <v>40</v>
+      </c>
+      <c r="F55" s="10">
+        <v>2</v>
+      </c>
       <c r="G55" s="11"/>
-      <c r="H55" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H55" s="11">
+        <f t="shared" ref="H55" si="7">IF(WEEKNUM(A55)&gt;0,WEEKNUM(A55),"")</f>
+        <v>46</v>
       </c>
       <c r="I55" s="13"/>
     </row>
@@ -3187,2335 +3397,2335 @@
     </row>
     <row r="112" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H112" s="11" t="str">
-        <f t="shared" ref="H112:H175" si="7">IF(WEEKNUM(A112)&gt;0,WEEKNUM(A112),"")</f>
+        <f t="shared" ref="H112:H175" si="8">IF(WEEKNUM(A112)&gt;0,WEEKNUM(A112),"")</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H113" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H114" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H115" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H116" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H117" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H118" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H119" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H120" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H121" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H122" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H123" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H124" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H125" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H126" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H127" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H128" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H129" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H130" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H131" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H132" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H133" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H134" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H135" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H136" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H137" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H138" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H139" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H140" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
-        <f t="shared" ref="H176:H239" si="8">IF(WEEKNUM(A176)&gt;0,WEEKNUM(A176),"")</f>
+        <f t="shared" ref="H176:H239" si="9">IF(WEEKNUM(A176)&gt;0,WEEKNUM(A176),"")</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
-        <f t="shared" ref="H240:H303" si="9">IF(WEEKNUM(A240)&gt;0,WEEKNUM(A240),"")</f>
+        <f t="shared" ref="H240:H303" si="10">IF(WEEKNUM(A240)&gt;0,WEEKNUM(A240),"")</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
-        <f t="shared" ref="H304:H367" si="10">IF(WEEKNUM(A304)&gt;0,WEEKNUM(A304),"")</f>
+        <f t="shared" ref="H304:H367" si="11">IF(WEEKNUM(A304)&gt;0,WEEKNUM(A304),"")</f>
         <v/>
       </c>
     </row>
     <row r="305" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
-        <f t="shared" ref="H368:H431" si="11">IF(WEEKNUM(A368)&gt;0,WEEKNUM(A368),"")</f>
+        <f t="shared" ref="H368:H431" si="12">IF(WEEKNUM(A368)&gt;0,WEEKNUM(A368),"")</f>
         <v/>
       </c>
     </row>
     <row r="369" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H419" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H420" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H421" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H422" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H423" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H424" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H425" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H426" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H427" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H428" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H429" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H430" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H431" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H432" s="11" t="str">
-        <f t="shared" ref="H432:H495" si="12">IF(WEEKNUM(A432)&gt;0,WEEKNUM(A432),"")</f>
+        <f t="shared" ref="H432:H495" si="13">IF(WEEKNUM(A432)&gt;0,WEEKNUM(A432),"")</f>
         <v/>
       </c>
     </row>
     <row r="433" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H433" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H434" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H435" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H436" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H437" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H438" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H439" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H440" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H441" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H442" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H443" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H444" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H445" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H446" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H447" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H448" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H449" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H450" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H451" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H452" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H453" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H454" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H455" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H456" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H457" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H458" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H459" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H460" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H461" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H462" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H463" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H464" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H465" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H466" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H467" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H468" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H469" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H471" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H472" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H473" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H474" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H475" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H476" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H477" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H478" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H479" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H480" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H481" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H482" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H483" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H484" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H487" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H496" s="11" t="str">
-        <f t="shared" ref="H496:H500" si="13">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
+        <f t="shared" ref="H496:H500" si="14">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
         <v/>
       </c>
     </row>
     <row r="497" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H497" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H498" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H499" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H500" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5974,7 +6184,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -5987,7 +6197,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6000,10 +6210,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D49:D1048576</xm:sqref>
+          <xm:sqref>D1:D19 D56:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6016,7 +6226,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6032,7 +6242,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6045,7 +6255,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6061,7 +6271,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6074,7 +6284,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6090,7 +6300,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6103,7 +6313,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6119,7 +6329,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6132,7 +6342,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6148,7 +6358,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6161,7 +6371,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6177,7 +6387,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6190,7 +6400,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6206,7 +6416,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6219,7 +6429,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6235,7 +6445,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6248,7 +6458,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6264,7 +6474,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6277,7 +6487,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6293,7 +6503,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6306,7 +6516,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6322,7 +6532,7 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6335,7 +6545,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6351,7 +6561,7 @@
           <xm:sqref>D42:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6364,7 +6574,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6380,7 +6590,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6393,7 +6603,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6409,7 +6619,7 @@
           <xm:sqref>D45:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6422,7 +6632,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6436,6 +6646,93 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>D48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D49:D51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D52:D54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="97">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,18 @@
     <t>单臂垂直引体,力竭,下次注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>前半段注意使用小腿力量,后半段注意将髋部上顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落吸气,起呼气有助于提高耐力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -485,7 +497,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -608,6 +640,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -623,6 +665,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1246,14 +1358,15 @@
   <dimension ref="A1:I647"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59:H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="15.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="35.625" style="14" customWidth="1"/>
+    <col min="1" max="6" width="15.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="35.625" style="14" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -1276,13 +1389,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1306,10 +1419,13 @@
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:H29" si="0">IF(WEEKNUM(A2)&gt;0,WEEKNUM(A2),"")</f>
+        <f>IF(E2*F2&gt;0,E2*F2,"")</f>
+        <v>15</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" ref="I2:I29" si="0">IF(WEEKNUM(A2)&gt;0,WEEKNUM(A2),"")</f>
         <v>44</v>
       </c>
-      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
@@ -1332,10 +1448,13 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11">
+        <f t="shared" ref="H3:H66" si="1">IF(E3*F3&gt;0,E3*F3,"")</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
@@ -1358,10 +1477,13 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I4" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
@@ -1384,10 +1506,13 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
@@ -1410,10 +1535,13 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
@@ -1436,10 +1564,13 @@
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
@@ -1462,10 +1593,13 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
@@ -1488,10 +1622,13 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
@@ -1514,10 +1651,13 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="I10" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
@@ -1540,10 +1680,13 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11">
-        <f t="shared" ref="H11:H13" si="1">IF(WEEKNUM(A11)&gt;0,WEEKNUM(A11),"")</f>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" ref="I11:I13" si="2">IF(WEEKNUM(A11)&gt;0,WEEKNUM(A11),"")</f>
         <v>44</v>
       </c>
-      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
@@ -1567,9 +1710,12 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
@@ -1593,9 +1739,12 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
@@ -1618,10 +1767,13 @@
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I14" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
@@ -1644,10 +1796,13 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
@@ -1670,10 +1825,13 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="I16" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
@@ -1696,10 +1854,13 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I17" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
@@ -1722,10 +1883,13 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I18" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
@@ -1748,10 +1912,13 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I19" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
@@ -1774,10 +1941,13 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I20" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
@@ -1800,10 +1970,13 @@
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
@@ -1826,10 +1999,13 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11">
-        <f t="shared" ref="H22" si="2">IF(WEEKNUM(A22)&gt;0,WEEKNUM(A22),"")</f>
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" ref="I22" si="3">IF(WEEKNUM(A22)&gt;0,WEEKNUM(A22),"")</f>
         <v>45</v>
       </c>
-      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
@@ -1852,10 +2028,13 @@
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11">
-        <f t="shared" ref="H23" si="3">IF(WEEKNUM(A23)&gt;0,WEEKNUM(A23),"")</f>
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" ref="I23" si="4">IF(WEEKNUM(A23)&gt;0,WEEKNUM(A23),"")</f>
         <v>45</v>
       </c>
-      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
@@ -1878,10 +2057,13 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I24" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
@@ -1904,10 +2086,13 @@
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I25" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
@@ -1930,10 +2115,13 @@
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="I26" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
@@ -1956,10 +2144,13 @@
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I27" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
@@ -1982,10 +2173,13 @@
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I28" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
@@ -2006,13 +2200,16 @@
       <c r="F29" s="10">
         <v>2</v>
       </c>
-      <c r="G29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="H29" s="11">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="I29" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2036,10 +2233,13 @@
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11">
-        <f t="shared" ref="H30:H41" si="4">IF(WEEKNUM(A30)&gt;0,WEEKNUM(A30),"")</f>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" ref="I30:I41" si="5">IF(WEEKNUM(A30)&gt;0,WEEKNUM(A30),"")</f>
         <v>45</v>
       </c>
-      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
@@ -2062,10 +2262,13 @@
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
@@ -2086,13 +2289,16 @@
       <c r="F32" s="10">
         <v>2</v>
       </c>
-      <c r="G32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="H32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2116,10 +2322,13 @@
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
@@ -2142,10 +2351,13 @@
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
@@ -2166,12 +2378,15 @@
       <c r="F35" s="10">
         <v>3</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
@@ -2192,12 +2407,15 @@
       <c r="F36" s="10">
         <v>1</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
@@ -2218,12 +2436,15 @@
       <c r="F37" s="10">
         <v>1</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
@@ -2244,12 +2465,15 @@
       <c r="F38" s="10">
         <v>3</v>
       </c>
-      <c r="G38" s="11"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
@@ -2270,12 +2494,15 @@
       <c r="F39" s="10">
         <v>1</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
@@ -2296,12 +2523,15 @@
       <c r="F40" s="10">
         <v>1</v>
       </c>
-      <c r="G40" s="11"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
@@ -2322,12 +2552,15 @@
       <c r="F41" s="10">
         <v>3</v>
       </c>
-      <c r="G41" s="11"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
@@ -2348,12 +2581,15 @@
       <c r="F42" s="10">
         <v>1</v>
       </c>
-      <c r="G42" s="11"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="11">
-        <f t="shared" ref="H42:H47" si="5">IF(WEEKNUM(A42)&gt;0,WEEKNUM(A42),"")</f>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" ref="I42:I47" si="6">IF(WEEKNUM(A42)&gt;0,WEEKNUM(A42),"")</f>
         <v>46</v>
       </c>
-      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
@@ -2374,12 +2610,15 @@
       <c r="F43" s="10">
         <v>1</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
@@ -2400,13 +2639,16 @@
       <c r="F44" s="10">
         <v>3</v>
       </c>
-      <c r="G44" s="11"/>
+      <c r="G44" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="H44" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="6"/>
         <v>46</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2428,12 +2670,15 @@
       <c r="F45" s="10">
         <v>1</v>
       </c>
-      <c r="G45" s="11"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
@@ -2454,12 +2699,15 @@
       <c r="F46" s="10">
         <v>1</v>
       </c>
-      <c r="G46" s="11"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
@@ -2480,12 +2728,15 @@
       <c r="F47" s="10">
         <v>1</v>
       </c>
-      <c r="G47" s="11"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
@@ -2506,13 +2757,16 @@
       <c r="F48" s="10">
         <v>2</v>
       </c>
-      <c r="G48" s="11"/>
+      <c r="G48" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="H48" s="11">
-        <f t="shared" ref="H48:H111" si="6">IF(WEEKNUM(A48)&gt;0,WEEKNUM(A48),"")</f>
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I48" s="11">
+        <f>IF(WEEKNUM(A48)&gt;0,WEEKNUM(A48),"")</f>
         <v>46</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2536,10 +2790,13 @@
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I49" s="11">
+        <f>IF(WEEKNUM(A49)&gt;0,WEEKNUM(A49),"")</f>
         <v>46</v>
       </c>
-      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
@@ -2562,10 +2819,13 @@
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I50" s="11">
+        <f>IF(WEEKNUM(A50)&gt;0,WEEKNUM(A50),"")</f>
         <v>46</v>
       </c>
-      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
@@ -2586,13 +2846,16 @@
       <c r="F51" s="10">
         <v>3</v>
       </c>
-      <c r="G51" s="11"/>
+      <c r="G51" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="H51" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="I51" s="11">
+        <f>IF(WEEKNUM(A51)&gt;0,WEEKNUM(A51),"")</f>
         <v>46</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -2616,10 +2879,13 @@
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I52" s="11">
+        <f>IF(WEEKNUM(A52)&gt;0,WEEKNUM(A52),"")</f>
         <v>46</v>
       </c>
-      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
@@ -2642,10 +2908,13 @@
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I53" s="11">
+        <f>IF(WEEKNUM(A53)&gt;0,WEEKNUM(A53),"")</f>
         <v>46</v>
       </c>
-      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
@@ -2666,12 +2935,15 @@
       <c r="F54" s="10">
         <v>1</v>
       </c>
-      <c r="G54" s="11"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I54" s="11">
+        <f>IF(WEEKNUM(A54)&gt;0,WEEKNUM(A54),"")</f>
         <v>46</v>
       </c>
-      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
@@ -2692,110 +2964,222 @@
       <c r="F55" s="10">
         <v>2</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="11">
-        <f t="shared" ref="H55" si="7">IF(WEEKNUM(A55)&gt;0,WEEKNUM(A55),"")</f>
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" ref="I55:I61" si="7">IF(WEEKNUM(A55)&gt;0,WEEKNUM(A55),"")</f>
         <v>46</v>
       </c>
-      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I56" s="13"/>
+      <c r="A56" s="9">
+        <v>41957</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="10">
+        <v>20</v>
+      </c>
+      <c r="F56" s="10">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I57" s="13"/>
+      <c r="A57" s="9">
+        <v>41957</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="10">
+        <v>15</v>
+      </c>
+      <c r="F57" s="10">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I58" s="13"/>
+      <c r="A58" s="9">
+        <v>41957</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="10">
+        <v>35</v>
+      </c>
+      <c r="F58" s="10">
+        <v>3</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I59" s="13"/>
+      <c r="A59" s="9">
+        <v>41957</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="10">
+        <v>25</v>
+      </c>
+      <c r="F59" s="10">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I59" s="11">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I60" s="13"/>
+      <c r="A60" s="9">
+        <v>41957</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="10">
+        <v>20</v>
+      </c>
+      <c r="F60" s="10">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I60" s="11">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I61" s="13"/>
+      <c r="A61" s="9">
+        <v>41957</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="10">
+        <v>35</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I61" s="11">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I62" s="13"/>
+      <c r="A62" s="9">
+        <v>41957</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="10">
+        <v>50</v>
+      </c>
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I62" s="11">
+        <f t="shared" ref="I62" si="8">IF(WEEKNUM(A62)&gt;0,WEEKNUM(A62),"")</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
@@ -2804,12 +3188,15 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="11"/>
+      <c r="G63" s="13"/>
       <c r="H63" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I63" s="13"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I63" s="11" t="str">
+        <f>IF(WEEKNUM(A63)&gt;0,WEEKNUM(A63),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="10"/>
@@ -2818,12 +3205,15 @@
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="11"/>
+      <c r="G64" s="13"/>
       <c r="H64" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I64" s="13"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I64" s="11" t="str">
+        <f>IF(WEEKNUM(A64)&gt;0,WEEKNUM(A64),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
@@ -2832,12 +3222,15 @@
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="11"/>
+      <c r="G65" s="13"/>
       <c r="H65" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I65" s="13"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I65" s="11" t="str">
+        <f>IF(WEEKNUM(A65)&gt;0,WEEKNUM(A65),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
@@ -2846,12 +3239,15 @@
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="11"/>
+      <c r="G66" s="13"/>
       <c r="H66" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I66" s="13"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I66" s="11" t="str">
+        <f>IF(WEEKNUM(A66)&gt;0,WEEKNUM(A66),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
@@ -2860,12 +3256,15 @@
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="11"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I67" s="13"/>
+        <f t="shared" ref="H67:H130" si="9">IF(E67*F67&gt;0,E67*F67,"")</f>
+        <v/>
+      </c>
+      <c r="I67" s="11" t="str">
+        <f>IF(WEEKNUM(A67)&gt;0,WEEKNUM(A67),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
@@ -2874,12 +3273,15 @@
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="11"/>
+      <c r="G68" s="13"/>
       <c r="H68" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I68" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I68" s="11" t="str">
+        <f>IF(WEEKNUM(A68)&gt;0,WEEKNUM(A68),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
@@ -2888,12 +3290,15 @@
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="11"/>
+      <c r="G69" s="13"/>
       <c r="H69" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I69" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I69" s="11" t="str">
+        <f>IF(WEEKNUM(A69)&gt;0,WEEKNUM(A69),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
@@ -2902,12 +3307,15 @@
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="11"/>
+      <c r="G70" s="13"/>
       <c r="H70" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I70" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I70" s="11" t="str">
+        <f>IF(WEEKNUM(A70)&gt;0,WEEKNUM(A70),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
@@ -2916,12 +3324,15 @@
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="11"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I71" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I71" s="11" t="str">
+        <f>IF(WEEKNUM(A71)&gt;0,WEEKNUM(A71),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
@@ -2930,12 +3341,15 @@
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="11"/>
+      <c r="G72" s="13"/>
       <c r="H72" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I72" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I72" s="11" t="str">
+        <f>IF(WEEKNUM(A72)&gt;0,WEEKNUM(A72),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
@@ -2944,12 +3358,15 @@
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="11"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I73" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I73" s="11" t="str">
+        <f>IF(WEEKNUM(A73)&gt;0,WEEKNUM(A73),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
@@ -2958,12 +3375,15 @@
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="11"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I74" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I74" s="11" t="str">
+        <f>IF(WEEKNUM(A74)&gt;0,WEEKNUM(A74),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
@@ -2972,12 +3392,15 @@
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
-      <c r="G75" s="11"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I75" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I75" s="11" t="str">
+        <f>IF(WEEKNUM(A75)&gt;0,WEEKNUM(A75),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
@@ -2986,12 +3409,15 @@
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
-      <c r="G76" s="11"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I76" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I76" s="11" t="str">
+        <f>IF(WEEKNUM(A76)&gt;0,WEEKNUM(A76),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
@@ -3000,12 +3426,15 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
-      <c r="G77" s="11"/>
+      <c r="G77" s="13"/>
       <c r="H77" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I77" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I77" s="11" t="str">
+        <f>IF(WEEKNUM(A77)&gt;0,WEEKNUM(A77),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
@@ -3014,12 +3443,15 @@
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="11"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I78" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I78" s="11" t="str">
+        <f>IF(WEEKNUM(A78)&gt;0,WEEKNUM(A78),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
@@ -3028,12 +3460,15 @@
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="11"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I79" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I79" s="11" t="str">
+        <f>IF(WEEKNUM(A79)&gt;0,WEEKNUM(A79),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
@@ -3042,12 +3477,15 @@
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="11"/>
+      <c r="G80" s="13"/>
       <c r="H80" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I80" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I80" s="11" t="str">
+        <f>IF(WEEKNUM(A80)&gt;0,WEEKNUM(A80),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
@@ -3056,12 +3494,15 @@
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="11"/>
+      <c r="G81" s="13"/>
       <c r="H81" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I81" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I81" s="11" t="str">
+        <f>IF(WEEKNUM(A81)&gt;0,WEEKNUM(A81),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
@@ -3070,12 +3511,15 @@
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="11"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I82" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I82" s="11" t="str">
+        <f>IF(WEEKNUM(A82)&gt;0,WEEKNUM(A82),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
@@ -3084,12 +3528,15 @@
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="11"/>
+      <c r="G83" s="13"/>
       <c r="H83" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I83" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I83" s="11" t="str">
+        <f>IF(WEEKNUM(A83)&gt;0,WEEKNUM(A83),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
@@ -3098,12 +3545,15 @@
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="11"/>
+      <c r="G84" s="13"/>
       <c r="H84" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I84" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I84" s="11" t="str">
+        <f>IF(WEEKNUM(A84)&gt;0,WEEKNUM(A84),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
@@ -3112,12 +3562,15 @@
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="11"/>
+      <c r="G85" s="13"/>
       <c r="H85" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I85" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I85" s="11" t="str">
+        <f>IF(WEEKNUM(A85)&gt;0,WEEKNUM(A85),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
@@ -3126,12 +3579,15 @@
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="11"/>
+      <c r="G86" s="13"/>
       <c r="H86" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I86" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I86" s="11" t="str">
+        <f>IF(WEEKNUM(A86)&gt;0,WEEKNUM(A86),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="10"/>
@@ -3140,12 +3596,15 @@
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
-      <c r="G87" s="11"/>
+      <c r="G87" s="13"/>
       <c r="H87" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I87" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I87" s="11" t="str">
+        <f>IF(WEEKNUM(A87)&gt;0,WEEKNUM(A87),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="10"/>
@@ -3154,12 +3613,15 @@
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
-      <c r="G88" s="11"/>
+      <c r="G88" s="13"/>
       <c r="H88" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I88" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I88" s="11" t="str">
+        <f>IF(WEEKNUM(A88)&gt;0,WEEKNUM(A88),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
@@ -3168,12 +3630,15 @@
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
-      <c r="G89" s="11"/>
+      <c r="G89" s="13"/>
       <c r="H89" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I89" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I89" s="11" t="str">
+        <f>IF(WEEKNUM(A89)&gt;0,WEEKNUM(A89),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
@@ -3182,12 +3647,15 @@
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="11"/>
+      <c r="G90" s="13"/>
       <c r="H90" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I90" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I90" s="11" t="str">
+        <f>IF(WEEKNUM(A90)&gt;0,WEEKNUM(A90),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
@@ -3196,12 +3664,15 @@
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="11"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I91" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I91" s="11" t="str">
+        <f>IF(WEEKNUM(A91)&gt;0,WEEKNUM(A91),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="10"/>
@@ -3210,12 +3681,15 @@
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="11"/>
+      <c r="G92" s="13"/>
       <c r="H92" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I92" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I92" s="11" t="str">
+        <f>IF(WEEKNUM(A92)&gt;0,WEEKNUM(A92),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="10"/>
@@ -3224,12 +3698,15 @@
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="11"/>
+      <c r="G93" s="13"/>
       <c r="H93" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I93" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I93" s="11" t="str">
+        <f>IF(WEEKNUM(A93)&gt;0,WEEKNUM(A93),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="10"/>
@@ -3238,12 +3715,15 @@
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
-      <c r="G94" s="11"/>
+      <c r="G94" s="13"/>
       <c r="H94" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I94" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I94" s="11" t="str">
+        <f>IF(WEEKNUM(A94)&gt;0,WEEKNUM(A94),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="10"/>
@@ -3252,12 +3732,15 @@
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
-      <c r="G95" s="11"/>
+      <c r="G95" s="13"/>
       <c r="H95" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I95" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I95" s="11" t="str">
+        <f>IF(WEEKNUM(A95)&gt;0,WEEKNUM(A95),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
@@ -3266,12 +3749,15 @@
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="11"/>
+      <c r="G96" s="13"/>
       <c r="H96" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I96" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I96" s="11" t="str">
+        <f>IF(WEEKNUM(A96)&gt;0,WEEKNUM(A96),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="10"/>
@@ -3280,12 +3766,15 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="11"/>
+      <c r="G97" s="13"/>
       <c r="H97" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I97" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I97" s="11" t="str">
+        <f>IF(WEEKNUM(A97)&gt;0,WEEKNUM(A97),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="10"/>
@@ -3294,12 +3783,15 @@
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="11"/>
+      <c r="G98" s="13"/>
       <c r="H98" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I98" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I98" s="11" t="str">
+        <f>IF(WEEKNUM(A98)&gt;0,WEEKNUM(A98),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="10"/>
@@ -3308,12 +3800,15 @@
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="11"/>
+      <c r="G99" s="13"/>
       <c r="H99" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I99" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I99" s="11" t="str">
+        <f>IF(WEEKNUM(A99)&gt;0,WEEKNUM(A99),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="10"/>
@@ -3322,2853 +3817,4456 @@
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="11"/>
+      <c r="G100" s="13"/>
       <c r="H100" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I100" s="13"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I100" s="11" t="str">
+        <f>IF(WEEKNUM(A100)&gt;0,WEEKNUM(A100),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H101" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I101" s="11" t="str">
+        <f>IF(WEEKNUM(A101)&gt;0,WEEKNUM(A101),"")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H102" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I102" s="11" t="str">
+        <f>IF(WEEKNUM(A102)&gt;0,WEEKNUM(A102),"")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H103" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I103" s="11" t="str">
+        <f>IF(WEEKNUM(A103)&gt;0,WEEKNUM(A103),"")</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H104" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I104" s="11" t="str">
+        <f>IF(WEEKNUM(A104)&gt;0,WEEKNUM(A104),"")</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H105" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I105" s="11" t="str">
+        <f>IF(WEEKNUM(A105)&gt;0,WEEKNUM(A105),"")</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H106" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I106" s="11" t="str">
+        <f>IF(WEEKNUM(A106)&gt;0,WEEKNUM(A106),"")</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H107" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I107" s="11" t="str">
+        <f>IF(WEEKNUM(A107)&gt;0,WEEKNUM(A107),"")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H108" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I108" s="11" t="str">
+        <f>IF(WEEKNUM(A108)&gt;0,WEEKNUM(A108),"")</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H109" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I109" s="11" t="str">
+        <f>IF(WEEKNUM(A109)&gt;0,WEEKNUM(A109),"")</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H110" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I110" s="11" t="str">
+        <f>IF(WEEKNUM(A110)&gt;0,WEEKNUM(A110),"")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H111" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I111" s="11" t="str">
+        <f>IF(WEEKNUM(A111)&gt;0,WEEKNUM(A111),"")</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H112" s="11" t="str">
-        <f t="shared" ref="H112:H175" si="8">IF(WEEKNUM(A112)&gt;0,WEEKNUM(A112),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I112" s="11" t="str">
+        <f t="shared" ref="I112:I175" si="10">IF(WEEKNUM(A112)&gt;0,WEEKNUM(A112),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H113" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I113" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H114" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I114" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H115" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I115" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H116" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I116" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H117" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I117" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H118" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I118" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H119" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I119" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H120" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I120" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H121" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I121" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H122" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I122" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H123" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I123" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H124" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I124" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H125" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I125" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H126" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I126" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H127" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I127" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H128" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I128" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H129" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I129" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H130" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I130" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H131" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="H131:H194" si="11">IF(E131*F131&gt;0,E131*F131,"")</f>
+        <v/>
+      </c>
+      <c r="I131" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H132" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I132" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H133" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I133" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H134" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I134" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H135" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I135" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H136" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I136" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H137" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I137" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H138" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I138" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H139" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I139" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H140" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I140" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I141" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I142" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I143" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I144" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I145" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I146" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I147" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I148" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I149" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I150" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I151" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I152" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I153" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I154" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I155" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I156" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I157" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I158" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I159" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I160" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I161" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I162" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I163" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I164" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I165" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I166" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I167" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I168" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I169" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I170" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I171" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I172" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I173" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I174" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I175" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
-        <f t="shared" ref="H176:H239" si="9">IF(WEEKNUM(A176)&gt;0,WEEKNUM(A176),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I176" s="11" t="str">
+        <f t="shared" ref="I176:I239" si="12">IF(WEEKNUM(A176)&gt;0,WEEKNUM(A176),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I177" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I178" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I179" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I180" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I181" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I182" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I183" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I184" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I185" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I186" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I187" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I188" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I189" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I190" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I191" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I192" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I193" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I194" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="H195:H258" si="13">IF(E195*F195&gt;0,E195*F195,"")</f>
+        <v/>
+      </c>
+      <c r="I195" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I196" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I197" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I198" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I199" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I200" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I201" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I202" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I203" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I204" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I205" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I206" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I207" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I208" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I209" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I210" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I211" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I212" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I213" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I214" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I215" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I216" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I217" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I218" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I219" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I220" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I221" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I222" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I223" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I224" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I225" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I226" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I227" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I228" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I229" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I230" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I231" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I232" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I233" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I234" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I235" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I236" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I237" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I238" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I239" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
-        <f t="shared" ref="H240:H303" si="10">IF(WEEKNUM(A240)&gt;0,WEEKNUM(A240),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I240" s="11" t="str">
+        <f t="shared" ref="I240:I303" si="14">IF(WEEKNUM(A240)&gt;0,WEEKNUM(A240),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I241" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I242" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I243" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I244" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I245" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I246" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I247" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I248" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I249" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I250" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I251" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I252" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I253" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I254" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I255" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I256" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I257" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I258" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="H259:H322" si="15">IF(E259*F259&gt;0,E259*F259,"")</f>
+        <v/>
+      </c>
+      <c r="I259" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I260" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I261" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I262" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I263" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I264" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I265" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I266" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I267" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I268" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I269" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I270" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I271" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I272" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I273" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I274" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I275" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I276" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I277" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I278" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I279" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I280" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I281" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I282" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I283" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I284" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I285" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I286" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I287" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I288" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I289" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I290" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I291" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I292" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I293" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I294" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I295" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I296" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I297" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I298" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I299" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I300" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I301" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I302" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I303" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
-        <f t="shared" ref="H304:H367" si="11">IF(WEEKNUM(A304)&gt;0,WEEKNUM(A304),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I304" s="11" t="str">
+        <f t="shared" ref="I304:I367" si="16">IF(WEEKNUM(A304)&gt;0,WEEKNUM(A304),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I305" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I306" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I307" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I308" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I309" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I310" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I311" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I312" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I313" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I314" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I315" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I316" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I317" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I318" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I319" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I320" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I321" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I322" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="H323:H386" si="17">IF(E323*F323&gt;0,E323*F323,"")</f>
+        <v/>
+      </c>
+      <c r="I323" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I324" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I325" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I326" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I327" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I328" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I329" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I330" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I331" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I332" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I333" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I334" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I335" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I336" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I337" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I338" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I339" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I340" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I341" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I342" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I343" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I344" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I345" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I346" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I347" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I348" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I349" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I350" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I351" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I352" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I353" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I354" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I355" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I356" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I357" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I358" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I359" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I360" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I361" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I362" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I363" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I364" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I365" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I366" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I367" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
-        <f t="shared" ref="H368:H431" si="12">IF(WEEKNUM(A368)&gt;0,WEEKNUM(A368),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I368" s="11" t="str">
+        <f t="shared" ref="I368:I431" si="18">IF(WEEKNUM(A368)&gt;0,WEEKNUM(A368),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I369" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I370" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I371" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I372" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I373" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I374" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I375" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I376" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I377" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I378" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I379" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I380" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I381" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I382" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I383" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I384" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I385" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I386" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="H387:H450" si="19">IF(E387*F387&gt;0,E387*F387,"")</f>
+        <v/>
+      </c>
+      <c r="I387" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I388" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I389" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I390" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I391" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I392" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I393" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I394" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I395" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I396" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I397" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I398" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I399" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I400" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I401" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I402" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I403" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="405" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I404" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="406" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I405" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="407" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I406" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="408" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I407" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="409" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I408" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="410" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I409" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="411" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I410" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="412" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I411" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="413" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I412" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="414" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I413" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="415" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I414" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="416" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I415" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="417" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I416" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="418" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I417" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="419" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I418" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H419" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="420" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I419" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H420" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="421" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I420" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H421" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="422" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I421" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H422" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="423" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I422" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H423" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="424" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I423" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H424" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I424" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H425" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="426" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I425" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H426" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="427" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I426" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H427" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="428" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I427" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H428" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="429" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I428" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H429" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="430" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I429" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H430" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="431" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I430" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H431" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="432" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I431" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H432" s="11" t="str">
-        <f t="shared" ref="H432:H495" si="13">IF(WEEKNUM(A432)&gt;0,WEEKNUM(A432),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="433" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I432" s="11" t="str">
+        <f t="shared" ref="I432:I495" si="20">IF(WEEKNUM(A432)&gt;0,WEEKNUM(A432),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H433" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="434" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I433" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H434" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="435" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I434" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H435" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="436" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I435" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H436" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="437" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I436" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H437" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="438" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I437" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H438" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="439" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I438" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H439" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="440" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I439" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H440" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="441" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I440" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H441" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="442" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I441" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H442" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="443" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I442" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H443" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="444" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I443" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H444" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="445" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I444" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H445" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="446" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I445" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H446" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="447" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I446" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H447" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="448" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I447" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H448" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="449" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I448" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H449" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="450" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I449" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H450" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="451" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I450" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H451" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="452" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="H451:H500" si="21">IF(E451*F451&gt;0,E451*F451,"")</f>
+        <v/>
+      </c>
+      <c r="I451" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H452" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="453" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I452" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H453" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="454" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I453" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H454" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="455" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I454" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H455" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="456" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I455" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H456" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="457" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I456" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H457" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="458" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I457" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H458" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="459" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I458" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H459" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="460" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I459" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H460" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="461" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I460" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H461" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="462" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I461" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H462" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="463" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I462" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H463" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="464" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I463" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H464" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="465" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I464" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H465" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="466" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I465" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H466" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="467" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I466" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H467" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="468" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I467" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H468" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="469" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I468" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H469" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="470" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I469" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="471" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I470" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H471" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="472" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I471" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H472" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="473" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I472" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H473" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="474" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I473" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H474" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="475" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I474" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H475" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="476" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I475" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H476" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="477" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I476" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H477" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="478" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I477" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H478" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="479" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I478" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H479" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="480" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I479" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H480" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="481" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I480" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H481" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="482" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I481" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H482" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="483" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I482" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H483" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="484" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I483" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H484" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="485" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I484" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="486" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I485" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="487" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I486" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H487" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="488" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I487" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="489" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I488" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I489" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="491" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I490" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="492" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I491" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="493" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I492" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="494" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I493" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="495" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I494" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I495" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H496" s="11" t="str">
-        <f t="shared" ref="H496:H500" si="14">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I496" s="11" t="str">
+        <f t="shared" ref="I496:I500" si="22">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H497" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I497" s="11" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H498" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I498" s="11" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H499" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="500" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I499" s="11" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H500" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="501" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H501" s="11"/>
-    </row>
-    <row r="502" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H502" s="11"/>
-    </row>
-    <row r="503" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H503" s="11"/>
-    </row>
-    <row r="504" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H504" s="11"/>
-    </row>
-    <row r="505" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H505" s="11"/>
-    </row>
-    <row r="506" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H506" s="11"/>
-    </row>
-    <row r="507" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H507" s="11"/>
-    </row>
-    <row r="508" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H508" s="11"/>
-    </row>
-    <row r="509" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H509" s="11"/>
-    </row>
-    <row r="510" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H510" s="11"/>
-    </row>
-    <row r="511" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H511" s="11"/>
-    </row>
-    <row r="512" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H512" s="11"/>
-    </row>
-    <row r="513" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H513" s="11"/>
-    </row>
-    <row r="514" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H514" s="11"/>
-    </row>
-    <row r="515" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H515" s="11"/>
-    </row>
-    <row r="516" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H516" s="11"/>
-    </row>
-    <row r="517" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H517" s="11"/>
-    </row>
-    <row r="518" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H518" s="11"/>
-    </row>
-    <row r="519" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H519" s="11"/>
-    </row>
-    <row r="520" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H520" s="11"/>
-    </row>
-    <row r="521" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H521" s="11"/>
-    </row>
-    <row r="522" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H522" s="11"/>
-    </row>
-    <row r="523" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H523" s="11"/>
-    </row>
-    <row r="524" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H524" s="11"/>
-    </row>
-    <row r="525" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H525" s="11"/>
-    </row>
-    <row r="526" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H526" s="11"/>
-    </row>
-    <row r="527" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H527" s="11"/>
-    </row>
-    <row r="528" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H528" s="11"/>
-    </row>
-    <row r="529" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H529" s="11"/>
-    </row>
-    <row r="530" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H530" s="11"/>
-    </row>
-    <row r="531" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H531" s="11"/>
-    </row>
-    <row r="532" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H532" s="11"/>
-    </row>
-    <row r="533" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H533" s="11"/>
-    </row>
-    <row r="534" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H534" s="11"/>
-    </row>
-    <row r="535" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H535" s="11"/>
-    </row>
-    <row r="536" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H536" s="11"/>
-    </row>
-    <row r="537" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H537" s="11"/>
-    </row>
-    <row r="538" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H538" s="11"/>
-    </row>
-    <row r="539" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H539" s="11"/>
-    </row>
-    <row r="540" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H540" s="11"/>
-    </row>
-    <row r="541" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H541" s="11"/>
-    </row>
-    <row r="542" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H542" s="11"/>
-    </row>
-    <row r="543" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H543" s="11"/>
-    </row>
-    <row r="544" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H544" s="11"/>
-    </row>
-    <row r="545" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H545" s="11"/>
-    </row>
-    <row r="546" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H546" s="11"/>
-    </row>
-    <row r="547" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H547" s="11"/>
-    </row>
-    <row r="548" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H548" s="11"/>
-    </row>
-    <row r="549" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H549" s="11"/>
-    </row>
-    <row r="550" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H550" s="11"/>
-    </row>
-    <row r="551" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H551" s="11"/>
-    </row>
-    <row r="552" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H552" s="11"/>
-    </row>
-    <row r="553" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H553" s="11"/>
-    </row>
-    <row r="554" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H554" s="11"/>
-    </row>
-    <row r="555" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H555" s="11"/>
-    </row>
-    <row r="556" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H556" s="11"/>
-    </row>
-    <row r="557" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H557" s="11"/>
-    </row>
-    <row r="558" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H558" s="11"/>
-    </row>
-    <row r="559" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H559" s="11"/>
-    </row>
-    <row r="560" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H560" s="11"/>
-    </row>
-    <row r="561" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H561" s="11"/>
-    </row>
-    <row r="562" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H562" s="11"/>
-    </row>
-    <row r="563" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H563" s="11"/>
-    </row>
-    <row r="564" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H564" s="11"/>
-    </row>
-    <row r="565" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H565" s="11"/>
-    </row>
-    <row r="566" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H566" s="11"/>
-    </row>
-    <row r="567" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H567" s="11"/>
-    </row>
-    <row r="568" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H568" s="11"/>
-    </row>
-    <row r="569" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H569" s="11"/>
-    </row>
-    <row r="570" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H570" s="11"/>
-    </row>
-    <row r="571" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H571" s="11"/>
-    </row>
-    <row r="572" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H572" s="11"/>
-    </row>
-    <row r="573" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H573" s="11"/>
-    </row>
-    <row r="574" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H574" s="11"/>
-    </row>
-    <row r="575" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H575" s="11"/>
-    </row>
-    <row r="576" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H576" s="11"/>
-    </row>
-    <row r="577" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H577" s="11"/>
-    </row>
-    <row r="578" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H578" s="11"/>
-    </row>
-    <row r="579" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H579" s="11"/>
-    </row>
-    <row r="580" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H580" s="11"/>
-    </row>
-    <row r="581" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H581" s="11"/>
-    </row>
-    <row r="582" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H582" s="11"/>
-    </row>
-    <row r="583" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H583" s="11"/>
-    </row>
-    <row r="584" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H584" s="11"/>
-    </row>
-    <row r="585" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H585" s="11"/>
-    </row>
-    <row r="586" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H586" s="11"/>
-    </row>
-    <row r="587" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H587" s="11"/>
-    </row>
-    <row r="588" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H588" s="11"/>
-    </row>
-    <row r="589" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H589" s="11"/>
-    </row>
-    <row r="590" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H590" s="11"/>
-    </row>
-    <row r="591" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H591" s="11"/>
-    </row>
-    <row r="592" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H592" s="11"/>
-    </row>
-    <row r="593" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H593" s="11"/>
-    </row>
-    <row r="594" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H594" s="11"/>
-    </row>
-    <row r="595" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H595" s="11"/>
-    </row>
-    <row r="596" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H596" s="11"/>
-    </row>
-    <row r="597" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H597" s="11"/>
-    </row>
-    <row r="598" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H598" s="11"/>
-    </row>
-    <row r="599" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H599" s="11"/>
-    </row>
-    <row r="600" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H600" s="11"/>
-    </row>
-    <row r="601" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H601" s="11"/>
-    </row>
-    <row r="602" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H602" s="11"/>
-    </row>
-    <row r="603" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H603" s="11"/>
-    </row>
-    <row r="604" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H604" s="11"/>
-    </row>
-    <row r="605" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H605" s="11"/>
-    </row>
-    <row r="606" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H606" s="11"/>
-    </row>
-    <row r="607" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H607" s="11"/>
-    </row>
-    <row r="608" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H608" s="11"/>
-    </row>
-    <row r="609" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H609" s="11"/>
-    </row>
-    <row r="610" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H610" s="11"/>
-    </row>
-    <row r="611" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H611" s="11"/>
-    </row>
-    <row r="612" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H612" s="11"/>
-    </row>
-    <row r="613" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H613" s="11"/>
-    </row>
-    <row r="614" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H614" s="11"/>
-    </row>
-    <row r="615" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H615" s="11"/>
-    </row>
-    <row r="616" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H616" s="11"/>
-    </row>
-    <row r="617" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H617" s="11"/>
-    </row>
-    <row r="618" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H618" s="11"/>
-    </row>
-    <row r="619" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H619" s="11"/>
-    </row>
-    <row r="620" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H620" s="11"/>
-    </row>
-    <row r="621" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H621" s="11"/>
-    </row>
-    <row r="622" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H622" s="11"/>
-    </row>
-    <row r="623" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H623" s="11"/>
-    </row>
-    <row r="624" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H624" s="11"/>
-    </row>
-    <row r="625" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H625" s="11"/>
-    </row>
-    <row r="626" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H626" s="11"/>
-    </row>
-    <row r="627" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H627" s="11"/>
-    </row>
-    <row r="628" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H628" s="11"/>
-    </row>
-    <row r="629" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H629" s="11"/>
-    </row>
-    <row r="630" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H630" s="11"/>
-    </row>
-    <row r="631" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H631" s="11"/>
-    </row>
-    <row r="632" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H632" s="11"/>
-    </row>
-    <row r="633" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H633" s="11"/>
-    </row>
-    <row r="634" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H634" s="11"/>
-    </row>
-    <row r="635" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H635" s="11"/>
-    </row>
-    <row r="636" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H636" s="11"/>
-    </row>
-    <row r="637" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H637" s="11"/>
-    </row>
-    <row r="638" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H638" s="11"/>
-    </row>
-    <row r="639" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H639" s="11"/>
-    </row>
-    <row r="640" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H640" s="11"/>
-    </row>
-    <row r="641" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H641" s="11"/>
-    </row>
-    <row r="642" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H642" s="11"/>
-    </row>
-    <row r="643" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H643" s="11"/>
-    </row>
-    <row r="644" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H644" s="11"/>
-    </row>
-    <row r="645" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H645" s="11"/>
-    </row>
-    <row r="646" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H646" s="11"/>
-    </row>
-    <row r="647" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H647" s="11"/>
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I500" s="11" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I501" s="11"/>
+    </row>
+    <row r="502" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I502" s="11"/>
+    </row>
+    <row r="503" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I503" s="11"/>
+    </row>
+    <row r="504" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I504" s="11"/>
+    </row>
+    <row r="505" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I505" s="11"/>
+    </row>
+    <row r="506" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I506" s="11"/>
+    </row>
+    <row r="507" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I507" s="11"/>
+    </row>
+    <row r="508" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I508" s="11"/>
+    </row>
+    <row r="509" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I509" s="11"/>
+    </row>
+    <row r="510" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I510" s="11"/>
+    </row>
+    <row r="511" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I511" s="11"/>
+    </row>
+    <row r="512" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I512" s="11"/>
+    </row>
+    <row r="513" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I513" s="11"/>
+    </row>
+    <row r="514" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I514" s="11"/>
+    </row>
+    <row r="515" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I515" s="11"/>
+    </row>
+    <row r="516" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I516" s="11"/>
+    </row>
+    <row r="517" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I517" s="11"/>
+    </row>
+    <row r="518" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I518" s="11"/>
+    </row>
+    <row r="519" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I519" s="11"/>
+    </row>
+    <row r="520" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I520" s="11"/>
+    </row>
+    <row r="521" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I521" s="11"/>
+    </row>
+    <row r="522" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I522" s="11"/>
+    </row>
+    <row r="523" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I523" s="11"/>
+    </row>
+    <row r="524" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I524" s="11"/>
+    </row>
+    <row r="525" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I525" s="11"/>
+    </row>
+    <row r="526" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I526" s="11"/>
+    </row>
+    <row r="527" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I527" s="11"/>
+    </row>
+    <row r="528" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I528" s="11"/>
+    </row>
+    <row r="529" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I529" s="11"/>
+    </row>
+    <row r="530" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I530" s="11"/>
+    </row>
+    <row r="531" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I531" s="11"/>
+    </row>
+    <row r="532" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I532" s="11"/>
+    </row>
+    <row r="533" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I533" s="11"/>
+    </row>
+    <row r="534" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I534" s="11"/>
+    </row>
+    <row r="535" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I535" s="11"/>
+    </row>
+    <row r="536" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I536" s="11"/>
+    </row>
+    <row r="537" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I537" s="11"/>
+    </row>
+    <row r="538" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I538" s="11"/>
+    </row>
+    <row r="539" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I539" s="11"/>
+    </row>
+    <row r="540" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I540" s="11"/>
+    </row>
+    <row r="541" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I541" s="11"/>
+    </row>
+    <row r="542" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I542" s="11"/>
+    </row>
+    <row r="543" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I543" s="11"/>
+    </row>
+    <row r="544" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I544" s="11"/>
+    </row>
+    <row r="545" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I545" s="11"/>
+    </row>
+    <row r="546" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I546" s="11"/>
+    </row>
+    <row r="547" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I547" s="11"/>
+    </row>
+    <row r="548" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I548" s="11"/>
+    </row>
+    <row r="549" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I549" s="11"/>
+    </row>
+    <row r="550" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I550" s="11"/>
+    </row>
+    <row r="551" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I551" s="11"/>
+    </row>
+    <row r="552" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I552" s="11"/>
+    </row>
+    <row r="553" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I553" s="11"/>
+    </row>
+    <row r="554" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I554" s="11"/>
+    </row>
+    <row r="555" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I555" s="11"/>
+    </row>
+    <row r="556" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I556" s="11"/>
+    </row>
+    <row r="557" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I557" s="11"/>
+    </row>
+    <row r="558" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I558" s="11"/>
+    </row>
+    <row r="559" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I559" s="11"/>
+    </row>
+    <row r="560" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I560" s="11"/>
+    </row>
+    <row r="561" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I561" s="11"/>
+    </row>
+    <row r="562" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I562" s="11"/>
+    </row>
+    <row r="563" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I563" s="11"/>
+    </row>
+    <row r="564" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I564" s="11"/>
+    </row>
+    <row r="565" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I565" s="11"/>
+    </row>
+    <row r="566" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I566" s="11"/>
+    </row>
+    <row r="567" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I567" s="11"/>
+    </row>
+    <row r="568" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I568" s="11"/>
+    </row>
+    <row r="569" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I569" s="11"/>
+    </row>
+    <row r="570" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I570" s="11"/>
+    </row>
+    <row r="571" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I571" s="11"/>
+    </row>
+    <row r="572" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I572" s="11"/>
+    </row>
+    <row r="573" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I573" s="11"/>
+    </row>
+    <row r="574" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I574" s="11"/>
+    </row>
+    <row r="575" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I575" s="11"/>
+    </row>
+    <row r="576" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I576" s="11"/>
+    </row>
+    <row r="577" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I577" s="11"/>
+    </row>
+    <row r="578" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I578" s="11"/>
+    </row>
+    <row r="579" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I579" s="11"/>
+    </row>
+    <row r="580" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I580" s="11"/>
+    </row>
+    <row r="581" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I581" s="11"/>
+    </row>
+    <row r="582" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I582" s="11"/>
+    </row>
+    <row r="583" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I583" s="11"/>
+    </row>
+    <row r="584" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I584" s="11"/>
+    </row>
+    <row r="585" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I585" s="11"/>
+    </row>
+    <row r="586" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I586" s="11"/>
+    </row>
+    <row r="587" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I587" s="11"/>
+    </row>
+    <row r="588" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I588" s="11"/>
+    </row>
+    <row r="589" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I589" s="11"/>
+    </row>
+    <row r="590" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I590" s="11"/>
+    </row>
+    <row r="591" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I591" s="11"/>
+    </row>
+    <row r="592" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I592" s="11"/>
+    </row>
+    <row r="593" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I593" s="11"/>
+    </row>
+    <row r="594" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I594" s="11"/>
+    </row>
+    <row r="595" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I595" s="11"/>
+    </row>
+    <row r="596" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I596" s="11"/>
+    </row>
+    <row r="597" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I597" s="11"/>
+    </row>
+    <row r="598" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I598" s="11"/>
+    </row>
+    <row r="599" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I599" s="11"/>
+    </row>
+    <row r="600" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I600" s="11"/>
+    </row>
+    <row r="601" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I601" s="11"/>
+    </row>
+    <row r="602" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I602" s="11"/>
+    </row>
+    <row r="603" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I603" s="11"/>
+    </row>
+    <row r="604" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I604" s="11"/>
+    </row>
+    <row r="605" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I605" s="11"/>
+    </row>
+    <row r="606" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I606" s="11"/>
+    </row>
+    <row r="607" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I607" s="11"/>
+    </row>
+    <row r="608" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I608" s="11"/>
+    </row>
+    <row r="609" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I609" s="11"/>
+    </row>
+    <row r="610" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I610" s="11"/>
+    </row>
+    <row r="611" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I611" s="11"/>
+    </row>
+    <row r="612" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I612" s="11"/>
+    </row>
+    <row r="613" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I613" s="11"/>
+    </row>
+    <row r="614" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I614" s="11"/>
+    </row>
+    <row r="615" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I615" s="11"/>
+    </row>
+    <row r="616" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I616" s="11"/>
+    </row>
+    <row r="617" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I617" s="11"/>
+    </row>
+    <row r="618" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I618" s="11"/>
+    </row>
+    <row r="619" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I619" s="11"/>
+    </row>
+    <row r="620" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I620" s="11"/>
+    </row>
+    <row r="621" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I621" s="11"/>
+    </row>
+    <row r="622" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I622" s="11"/>
+    </row>
+    <row r="623" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I623" s="11"/>
+    </row>
+    <row r="624" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I624" s="11"/>
+    </row>
+    <row r="625" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I625" s="11"/>
+    </row>
+    <row r="626" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I626" s="11"/>
+    </row>
+    <row r="627" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I627" s="11"/>
+    </row>
+    <row r="628" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I628" s="11"/>
+    </row>
+    <row r="629" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I629" s="11"/>
+    </row>
+    <row r="630" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I630" s="11"/>
+    </row>
+    <row r="631" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I631" s="11"/>
+    </row>
+    <row r="632" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I632" s="11"/>
+    </row>
+    <row r="633" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I633" s="11"/>
+    </row>
+    <row r="634" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I634" s="11"/>
+    </row>
+    <row r="635" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I635" s="11"/>
+    </row>
+    <row r="636" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I636" s="11"/>
+    </row>
+    <row r="637" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I637" s="11"/>
+    </row>
+    <row r="638" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I638" s="11"/>
+    </row>
+    <row r="639" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I639" s="11"/>
+    </row>
+    <row r="640" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I640" s="11"/>
+    </row>
+    <row r="641" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I641" s="11"/>
+    </row>
+    <row r="642" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I642" s="11"/>
+    </row>
+    <row r="643" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I643" s="11"/>
+    </row>
+    <row r="644" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I644" s="11"/>
+    </row>
+    <row r="645" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I645" s="11"/>
+    </row>
+    <row r="646" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I646" s="11"/>
+    </row>
+    <row r="647" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I647" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I100"/>
@@ -6184,7 +8282,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6197,7 +8295,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6210,10 +8308,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D56:D1048576</xm:sqref>
+          <xm:sqref>D1:D19 D63:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6226,7 +8324,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6242,7 +8340,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6255,7 +8353,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6271,7 +8369,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6284,7 +8382,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6300,7 +8398,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6313,7 +8411,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6329,7 +8427,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6342,7 +8440,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6358,7 +8456,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6371,7 +8469,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6387,7 +8485,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6400,7 +8498,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6416,7 +8514,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6429,7 +8527,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6445,7 +8543,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6458,7 +8556,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6474,7 +8572,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6487,7 +8585,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6503,7 +8601,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6516,7 +8614,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6532,7 +8630,7 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6545,7 +8643,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6561,7 +8659,7 @@
           <xm:sqref>D42:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6574,7 +8672,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6590,7 +8688,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6603,7 +8701,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6619,7 +8717,7 @@
           <xm:sqref>D45:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6632,7 +8730,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6648,7 +8746,7 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6661,7 +8759,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
+          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6677,7 +8775,7 @@
           <xm:sqref>D49:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6690,7 +8788,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6706,7 +8804,7 @@
           <xm:sqref>D52:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -6719,7 +8817,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -6733,6 +8831,122 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>D55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D56:D58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D59:D60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="99">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,14 @@
     <t>总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>因右腿旧伤,需要在此动作下多停留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手完成,数量已达标,考虑进阶,增强对上肢的刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -497,7 +505,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -505,16 +523,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -595,6 +603,346 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1358,8 +1706,8 @@
   <dimension ref="A1:I647"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59:H62"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2765,7 +3113,7 @@
         <v>60</v>
       </c>
       <c r="I48" s="11">
-        <f>IF(WEEKNUM(A48)&gt;0,WEEKNUM(A48),"")</f>
+        <f t="shared" ref="I48:I54" si="7">IF(WEEKNUM(A48)&gt;0,WEEKNUM(A48),"")</f>
         <v>46</v>
       </c>
     </row>
@@ -2794,7 +3142,7 @@
         <v>20</v>
       </c>
       <c r="I49" s="11">
-        <f>IF(WEEKNUM(A49)&gt;0,WEEKNUM(A49),"")</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
     </row>
@@ -2823,7 +3171,7 @@
         <v>15</v>
       </c>
       <c r="I50" s="11">
-        <f>IF(WEEKNUM(A50)&gt;0,WEEKNUM(A50),"")</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
     </row>
@@ -2854,7 +3202,7 @@
         <v>135</v>
       </c>
       <c r="I51" s="11">
-        <f>IF(WEEKNUM(A51)&gt;0,WEEKNUM(A51),"")</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
     </row>
@@ -2883,7 +3231,7 @@
         <v>20</v>
       </c>
       <c r="I52" s="11">
-        <f>IF(WEEKNUM(A52)&gt;0,WEEKNUM(A52),"")</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
     </row>
@@ -2912,7 +3260,7 @@
         <v>15</v>
       </c>
       <c r="I53" s="11">
-        <f>IF(WEEKNUM(A53)&gt;0,WEEKNUM(A53),"")</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
     </row>
@@ -2941,7 +3289,7 @@
         <v>23</v>
       </c>
       <c r="I54" s="11">
-        <f>IF(WEEKNUM(A54)&gt;0,WEEKNUM(A54),"")</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
     </row>
@@ -2970,7 +3318,7 @@
         <v>80</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" ref="I55:I61" si="7">IF(WEEKNUM(A55)&gt;0,WEEKNUM(A55),"")</f>
+        <f t="shared" ref="I55:I61" si="8">IF(WEEKNUM(A55)&gt;0,WEEKNUM(A55),"")</f>
         <v>46</v>
       </c>
     </row>
@@ -2999,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -3028,7 +3376,7 @@
         <v>15</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -3059,7 +3407,7 @@
         <v>105</v>
       </c>
       <c r="I58" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -3088,7 +3436,7 @@
         <v>25</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -3117,7 +3465,7 @@
         <v>20</v>
       </c>
       <c r="I60" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -3148,7 +3496,7 @@
         <v>35</v>
       </c>
       <c r="I61" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -3177,297 +3525,505 @@
         <v>50</v>
       </c>
       <c r="I62" s="11">
-        <f t="shared" ref="I62" si="8">IF(WEEKNUM(A62)&gt;0,WEEKNUM(A62),"")</f>
+        <f t="shared" ref="I62" si="9">IF(WEEKNUM(A62)&gt;0,WEEKNUM(A62),"")</f>
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="A63" s="9">
+        <v>41960</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="10">
+        <v>20</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1</v>
+      </c>
       <c r="G63" s="13"/>
-      <c r="H63" s="11" t="str">
+      <c r="H63" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I63" s="11" t="str">
-        <f>IF(WEEKNUM(A63)&gt;0,WEEKNUM(A63),"")</f>
-        <v/>
+        <v>20</v>
+      </c>
+      <c r="I63" s="11">
+        <f t="shared" ref="I63:I94" si="10">IF(WEEKNUM(A63)&gt;0,WEEKNUM(A63),"")</f>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="A64" s="9">
+        <v>41960</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="10">
+        <v>15</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1</v>
+      </c>
       <c r="G64" s="13"/>
-      <c r="H64" s="11" t="str">
+      <c r="H64" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I64" s="11" t="str">
-        <f>IF(WEEKNUM(A64)&gt;0,WEEKNUM(A64),"")</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="I64" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="A65" s="9">
+        <v>41960</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="10">
+        <v>45</v>
+      </c>
+      <c r="F65" s="10">
+        <v>1</v>
+      </c>
       <c r="G65" s="13"/>
-      <c r="H65" s="11" t="str">
+      <c r="H65" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I65" s="11" t="str">
-        <f>IF(WEEKNUM(A65)&gt;0,WEEKNUM(A65),"")</f>
-        <v/>
+        <v>45</v>
+      </c>
+      <c r="I65" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="A66" s="9">
+        <v>41960</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="10">
+        <v>50</v>
+      </c>
+      <c r="F66" s="10">
+        <v>2</v>
+      </c>
       <c r="G66" s="13"/>
-      <c r="H66" s="11" t="str">
+      <c r="H66" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I66" s="11" t="str">
-        <f>IF(WEEKNUM(A66)&gt;0,WEEKNUM(A66),"")</f>
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="I66" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="A67" s="9">
+        <v>41960</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="10">
+        <v>20</v>
+      </c>
+      <c r="F67" s="10">
+        <v>1</v>
+      </c>
       <c r="G67" s="13"/>
-      <c r="H67" s="11" t="str">
-        <f t="shared" ref="H67:H130" si="9">IF(E67*F67&gt;0,E67*F67,"")</f>
-        <v/>
-      </c>
-      <c r="I67" s="11" t="str">
-        <f>IF(WEEKNUM(A67)&gt;0,WEEKNUM(A67),"")</f>
-        <v/>
+      <c r="H67" s="11">
+        <f t="shared" ref="H67:H130" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
+        <v>20</v>
+      </c>
+      <c r="I67" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="A68" s="9">
+        <v>41960</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="10">
+        <v>30</v>
+      </c>
+      <c r="F68" s="10">
+        <v>1</v>
+      </c>
       <c r="G68" s="13"/>
-      <c r="H68" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I68" s="11" t="str">
-        <f>IF(WEEKNUM(A68)&gt;0,WEEKNUM(A68),"")</f>
-        <v/>
+      <c r="H68" s="11">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+      <c r="A69" s="9">
+        <v>41960</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="10">
+        <v>35</v>
+      </c>
+      <c r="F69" s="10">
+        <v>1</v>
+      </c>
       <c r="G69" s="13"/>
-      <c r="H69" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I69" s="11" t="str">
-        <f>IF(WEEKNUM(A69)&gt;0,WEEKNUM(A69),"")</f>
-        <v/>
+      <c r="H69" s="11">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="I69" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="A70" s="9">
+        <v>41960</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="10">
+        <v>37</v>
+      </c>
+      <c r="F70" s="10">
+        <v>1</v>
+      </c>
       <c r="G70" s="13"/>
-      <c r="H70" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I70" s="11" t="str">
-        <f>IF(WEEKNUM(A70)&gt;0,WEEKNUM(A70),"")</f>
-        <v/>
+      <c r="H70" s="11">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="I70" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="A71" s="9">
+        <v>41960</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="10">
+        <v>40</v>
+      </c>
+      <c r="F71" s="10">
+        <v>1</v>
+      </c>
       <c r="G71" s="13"/>
-      <c r="H71" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I71" s="11" t="str">
-        <f>IF(WEEKNUM(A71)&gt;0,WEEKNUM(A71),"")</f>
-        <v/>
+      <c r="H71" s="11">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="I71" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="A72" s="9">
+        <v>41963</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="10">
+        <v>20</v>
+      </c>
+      <c r="F72" s="10">
+        <v>1</v>
+      </c>
       <c r="G72" s="13"/>
-      <c r="H72" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I72" s="11" t="str">
-        <f>IF(WEEKNUM(A72)&gt;0,WEEKNUM(A72),"")</f>
-        <v/>
+      <c r="H72" s="11">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="A73" s="9">
+        <v>41963</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="10">
+        <v>20</v>
+      </c>
+      <c r="F73" s="10">
+        <v>1</v>
+      </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I73" s="11" t="str">
-        <f>IF(WEEKNUM(A73)&gt;0,WEEKNUM(A73),"")</f>
-        <v/>
+      <c r="H73" s="11">
+        <f t="shared" ref="H73" si="12">IF(E73*F73&gt;0,E73*F73,"")</f>
+        <v>20</v>
+      </c>
+      <c r="I73" s="11">
+        <f t="shared" ref="I73" si="13">IF(WEEKNUM(A73)&gt;0,WEEKNUM(A73),"")</f>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I74" s="11" t="str">
-        <f>IF(WEEKNUM(A74)&gt;0,WEEKNUM(A74),"")</f>
-        <v/>
+      <c r="A74" s="9">
+        <v>41963</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="10">
+        <v>50</v>
+      </c>
+      <c r="F74" s="10">
+        <v>3</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H74" s="11">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="I74" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I75" s="11" t="str">
-        <f>IF(WEEKNUM(A75)&gt;0,WEEKNUM(A75),"")</f>
-        <v/>
+      <c r="A75" s="9">
+        <v>41963</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="10">
+        <v>20</v>
+      </c>
+      <c r="F75" s="10">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="I75" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I76" s="11" t="str">
-        <f>IF(WEEKNUM(A76)&gt;0,WEEKNUM(A76),"")</f>
-        <v/>
+      <c r="A76" s="9">
+        <v>41963</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="10">
+        <v>25</v>
+      </c>
+      <c r="F76" s="10">
+        <v>1</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="I76" s="11">
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I77" s="11" t="str">
-        <f>IF(WEEKNUM(A77)&gt;0,WEEKNUM(A77),"")</f>
-        <v/>
+      <c r="A77" s="9">
+        <v>41963</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="10">
+        <v>20</v>
+      </c>
+      <c r="F77" s="10">
+        <v>1</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11">
+        <f t="shared" ref="H77:H78" si="14">IF(E77*F77&gt;0,E77*F77,"")</f>
+        <v>20</v>
+      </c>
+      <c r="I77" s="11">
+        <f t="shared" ref="I77:I78" si="15">IF(WEEKNUM(A77)&gt;0,WEEKNUM(A77),"")</f>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I78" s="11" t="str">
-        <f>IF(WEEKNUM(A78)&gt;0,WEEKNUM(A78),"")</f>
-        <v/>
+      <c r="A78" s="9">
+        <v>41963</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="10">
+        <v>40</v>
+      </c>
+      <c r="F78" s="10">
+        <v>1</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="I78" s="11">
+        <f t="shared" si="15"/>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I79" s="11" t="str">
-        <f>IF(WEEKNUM(A79)&gt;0,WEEKNUM(A79),"")</f>
-        <v/>
+      <c r="A79" s="9">
+        <v>41963</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="10">
+        <v>50</v>
+      </c>
+      <c r="F79" s="10">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" s="11">
+        <f t="shared" ref="H79" si="16">IF(E79*F79&gt;0,E79*F79,"")</f>
+        <v>50</v>
+      </c>
+      <c r="I79" s="11">
+        <f t="shared" ref="I79" si="17">IF(WEEKNUM(A79)&gt;0,WEEKNUM(A79),"")</f>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
@@ -3479,11 +4035,11 @@
       <c r="F80" s="10"/>
       <c r="G80" s="13"/>
       <c r="H80" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I80" s="11" t="str">
-        <f>IF(WEEKNUM(A80)&gt;0,WEEKNUM(A80),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3496,11 +4052,11 @@
       <c r="F81" s="10"/>
       <c r="G81" s="13"/>
       <c r="H81" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I81" s="11" t="str">
-        <f>IF(WEEKNUM(A81)&gt;0,WEEKNUM(A81),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3513,11 +4069,11 @@
       <c r="F82" s="10"/>
       <c r="G82" s="13"/>
       <c r="H82" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I82" s="11" t="str">
-        <f>IF(WEEKNUM(A82)&gt;0,WEEKNUM(A82),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3530,11 +4086,11 @@
       <c r="F83" s="10"/>
       <c r="G83" s="13"/>
       <c r="H83" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I83" s="11" t="str">
-        <f>IF(WEEKNUM(A83)&gt;0,WEEKNUM(A83),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3547,11 +4103,11 @@
       <c r="F84" s="10"/>
       <c r="G84" s="13"/>
       <c r="H84" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I84" s="11" t="str">
-        <f>IF(WEEKNUM(A84)&gt;0,WEEKNUM(A84),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3564,11 +4120,11 @@
       <c r="F85" s="10"/>
       <c r="G85" s="13"/>
       <c r="H85" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I85" s="11" t="str">
-        <f>IF(WEEKNUM(A85)&gt;0,WEEKNUM(A85),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3581,11 +4137,11 @@
       <c r="F86" s="10"/>
       <c r="G86" s="13"/>
       <c r="H86" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I86" s="11" t="str">
-        <f>IF(WEEKNUM(A86)&gt;0,WEEKNUM(A86),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3598,11 +4154,11 @@
       <c r="F87" s="10"/>
       <c r="G87" s="13"/>
       <c r="H87" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I87" s="11" t="str">
-        <f>IF(WEEKNUM(A87)&gt;0,WEEKNUM(A87),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3615,11 +4171,11 @@
       <c r="F88" s="10"/>
       <c r="G88" s="13"/>
       <c r="H88" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I88" s="11" t="str">
-        <f>IF(WEEKNUM(A88)&gt;0,WEEKNUM(A88),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3632,11 +4188,11 @@
       <c r="F89" s="10"/>
       <c r="G89" s="13"/>
       <c r="H89" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I89" s="11" t="str">
-        <f>IF(WEEKNUM(A89)&gt;0,WEEKNUM(A89),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3649,11 +4205,11 @@
       <c r="F90" s="10"/>
       <c r="G90" s="13"/>
       <c r="H90" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I90" s="11" t="str">
-        <f>IF(WEEKNUM(A90)&gt;0,WEEKNUM(A90),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3666,11 +4222,11 @@
       <c r="F91" s="10"/>
       <c r="G91" s="13"/>
       <c r="H91" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I91" s="11" t="str">
-        <f>IF(WEEKNUM(A91)&gt;0,WEEKNUM(A91),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3683,11 +4239,11 @@
       <c r="F92" s="10"/>
       <c r="G92" s="13"/>
       <c r="H92" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I92" s="11" t="str">
-        <f>IF(WEEKNUM(A92)&gt;0,WEEKNUM(A92),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3700,11 +4256,11 @@
       <c r="F93" s="10"/>
       <c r="G93" s="13"/>
       <c r="H93" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I93" s="11" t="str">
-        <f>IF(WEEKNUM(A93)&gt;0,WEEKNUM(A93),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3717,11 +4273,11 @@
       <c r="F94" s="10"/>
       <c r="G94" s="13"/>
       <c r="H94" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I94" s="11" t="str">
-        <f>IF(WEEKNUM(A94)&gt;0,WEEKNUM(A94),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3734,11 +4290,11 @@
       <c r="F95" s="10"/>
       <c r="G95" s="13"/>
       <c r="H95" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I95" s="11" t="str">
-        <f>IF(WEEKNUM(A95)&gt;0,WEEKNUM(A95),"")</f>
+        <f t="shared" ref="I95:I111" si="18">IF(WEEKNUM(A95)&gt;0,WEEKNUM(A95),"")</f>
         <v/>
       </c>
     </row>
@@ -3751,11 +4307,11 @@
       <c r="F96" s="10"/>
       <c r="G96" s="13"/>
       <c r="H96" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I96" s="11" t="str">
-        <f>IF(WEEKNUM(A96)&gt;0,WEEKNUM(A96),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3768,11 +4324,11 @@
       <c r="F97" s="10"/>
       <c r="G97" s="13"/>
       <c r="H97" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I97" s="11" t="str">
-        <f>IF(WEEKNUM(A97)&gt;0,WEEKNUM(A97),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3785,11 +4341,11 @@
       <c r="F98" s="10"/>
       <c r="G98" s="13"/>
       <c r="H98" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I98" s="11" t="str">
-        <f>IF(WEEKNUM(A98)&gt;0,WEEKNUM(A98),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3802,11 +4358,11 @@
       <c r="F99" s="10"/>
       <c r="G99" s="13"/>
       <c r="H99" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I99" s="11" t="str">
-        <f>IF(WEEKNUM(A99)&gt;0,WEEKNUM(A99),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3819,4011 +4375,4011 @@
       <c r="F100" s="10"/>
       <c r="G100" s="13"/>
       <c r="H100" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I100" s="11" t="str">
-        <f>IF(WEEKNUM(A100)&gt;0,WEEKNUM(A100),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H101" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I101" s="11" t="str">
-        <f>IF(WEEKNUM(A101)&gt;0,WEEKNUM(A101),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H102" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I102" s="11" t="str">
-        <f>IF(WEEKNUM(A102)&gt;0,WEEKNUM(A102),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H103" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I103" s="11" t="str">
-        <f>IF(WEEKNUM(A103)&gt;0,WEEKNUM(A103),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H104" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I104" s="11" t="str">
-        <f>IF(WEEKNUM(A104)&gt;0,WEEKNUM(A104),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H105" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I105" s="11" t="str">
-        <f>IF(WEEKNUM(A105)&gt;0,WEEKNUM(A105),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H106" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I106" s="11" t="str">
-        <f>IF(WEEKNUM(A106)&gt;0,WEEKNUM(A106),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H107" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I107" s="11" t="str">
-        <f>IF(WEEKNUM(A107)&gt;0,WEEKNUM(A107),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H108" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I108" s="11" t="str">
-        <f>IF(WEEKNUM(A108)&gt;0,WEEKNUM(A108),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H109" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I109" s="11" t="str">
-        <f>IF(WEEKNUM(A109)&gt;0,WEEKNUM(A109),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H110" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I110" s="11" t="str">
-        <f>IF(WEEKNUM(A110)&gt;0,WEEKNUM(A110),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H111" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I111" s="11" t="str">
-        <f>IF(WEEKNUM(A111)&gt;0,WEEKNUM(A111),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H112" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I112" s="11" t="str">
-        <f t="shared" ref="I112:I175" si="10">IF(WEEKNUM(A112)&gt;0,WEEKNUM(A112),"")</f>
+        <f t="shared" ref="I112:I175" si="19">IF(WEEKNUM(A112)&gt;0,WEEKNUM(A112),"")</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H113" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I113" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H114" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I114" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H115" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I115" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H116" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I116" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H117" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I117" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H118" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I118" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H119" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I119" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H120" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I120" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H121" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I121" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H122" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I122" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H123" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I123" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H124" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I124" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H125" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I125" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H126" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I126" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H127" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I127" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H128" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I128" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H129" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I129" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H130" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I130" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H131" s="11" t="str">
-        <f t="shared" ref="H131:H194" si="11">IF(E131*F131&gt;0,E131*F131,"")</f>
+        <f t="shared" ref="H131:H194" si="20">IF(E131*F131&gt;0,E131*F131,"")</f>
         <v/>
       </c>
       <c r="I131" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H132" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I132" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H133" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I133" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H134" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I134" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H135" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I135" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H136" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I136" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H137" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I137" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H138" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I138" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H139" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I139" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H140" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I140" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I141" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I142" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I143" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I144" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I145" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I146" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I147" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I148" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I149" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I150" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I151" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I152" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I153" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I154" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I155" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I156" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I157" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I158" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I159" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I160" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I161" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I162" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I163" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I164" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I165" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I166" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I167" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I168" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I169" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I170" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I171" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I172" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I173" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I174" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I175" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I176" s="11" t="str">
-        <f t="shared" ref="I176:I239" si="12">IF(WEEKNUM(A176)&gt;0,WEEKNUM(A176),"")</f>
+        <f t="shared" ref="I176:I239" si="21">IF(WEEKNUM(A176)&gt;0,WEEKNUM(A176),"")</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I177" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I178" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I180" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I181" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I182" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I183" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I184" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I185" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I186" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I187" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I188" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I189" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I190" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I191" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I192" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I193" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I194" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
-        <f t="shared" ref="H195:H258" si="13">IF(E195*F195&gt;0,E195*F195,"")</f>
+        <f t="shared" ref="H195:H258" si="22">IF(E195*F195&gt;0,E195*F195,"")</f>
         <v/>
       </c>
       <c r="I195" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I196" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I197" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I198" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I199" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I200" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I201" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I203" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I204" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I205" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I206" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I207" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I208" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I209" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I210" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I211" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I212" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I213" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I214" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I215" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I216" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I217" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I218" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I219" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I220" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I221" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I222" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I223" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I224" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I225" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I226" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I227" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I228" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I229" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I230" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I231" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I232" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I233" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I234" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I235" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I236" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I237" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I238" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I239" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I240" s="11" t="str">
-        <f t="shared" ref="I240:I303" si="14">IF(WEEKNUM(A240)&gt;0,WEEKNUM(A240),"")</f>
+        <f t="shared" ref="I240:I303" si="23">IF(WEEKNUM(A240)&gt;0,WEEKNUM(A240),"")</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I241" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I242" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I243" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I244" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I245" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I246" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I247" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I248" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I249" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I250" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I251" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I252" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I253" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I254" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I255" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I256" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I257" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I258" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
-        <f t="shared" ref="H259:H322" si="15">IF(E259*F259&gt;0,E259*F259,"")</f>
+        <f t="shared" ref="H259:H322" si="24">IF(E259*F259&gt;0,E259*F259,"")</f>
         <v/>
       </c>
       <c r="I259" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I260" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I261" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I262" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I263" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I264" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I265" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I266" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I267" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I268" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I269" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I270" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I271" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I272" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I273" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I274" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I275" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I276" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I277" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I278" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I279" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I280" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I281" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I282" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I283" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I284" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I285" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I286" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I287" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I288" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I289" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I290" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I291" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I292" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I293" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I294" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I295" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I296" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I297" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I298" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I299" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I300" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I301" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I302" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I303" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I304" s="11" t="str">
-        <f t="shared" ref="I304:I367" si="16">IF(WEEKNUM(A304)&gt;0,WEEKNUM(A304),"")</f>
+        <f t="shared" ref="I304:I367" si="25">IF(WEEKNUM(A304)&gt;0,WEEKNUM(A304),"")</f>
         <v/>
       </c>
     </row>
     <row r="305" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I305" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I306" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I307" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I308" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I309" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I310" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I311" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I312" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I313" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I314" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I315" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I316" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I317" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I318" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I319" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I320" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I321" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I322" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
-        <f t="shared" ref="H323:H386" si="17">IF(E323*F323&gt;0,E323*F323,"")</f>
+        <f t="shared" ref="H323:H386" si="26">IF(E323*F323&gt;0,E323*F323,"")</f>
         <v/>
       </c>
       <c r="I323" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I324" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I325" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I326" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I327" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I328" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I329" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I330" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I331" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I332" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I333" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I334" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I335" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I336" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I337" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I338" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I339" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I340" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I341" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I342" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I343" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I344" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I345" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I346" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I347" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I348" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I349" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I350" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I351" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I352" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I353" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I354" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I355" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I356" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I357" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I358" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I359" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I360" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I361" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I362" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I363" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I364" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I365" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I366" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I367" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I368" s="11" t="str">
-        <f t="shared" ref="I368:I431" si="18">IF(WEEKNUM(A368)&gt;0,WEEKNUM(A368),"")</f>
+        <f t="shared" ref="I368:I431" si="27">IF(WEEKNUM(A368)&gt;0,WEEKNUM(A368),"")</f>
         <v/>
       </c>
     </row>
     <row r="369" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I369" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I370" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I371" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I372" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I373" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I374" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I375" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I376" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I377" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I378" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I379" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I380" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I381" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I382" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I383" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I384" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I385" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I386" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
-        <f t="shared" ref="H387:H450" si="19">IF(E387*F387&gt;0,E387*F387,"")</f>
+        <f t="shared" ref="H387:H450" si="28">IF(E387*F387&gt;0,E387*F387,"")</f>
         <v/>
       </c>
       <c r="I387" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I388" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I389" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I390" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I391" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I392" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I393" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I394" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I395" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I396" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I397" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I398" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I399" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I400" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I401" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I402" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I403" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I404" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I405" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I406" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I407" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I408" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I409" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I410" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I411" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I412" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I413" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I414" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I415" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I416" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I417" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I418" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H419" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I419" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H420" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I420" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H421" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I421" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H422" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I422" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H423" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I423" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H424" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I424" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H425" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I425" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H426" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I426" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H427" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I427" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H428" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I428" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H429" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I429" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H430" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I430" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H431" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I431" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H432" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I432" s="11" t="str">
-        <f t="shared" ref="I432:I495" si="20">IF(WEEKNUM(A432)&gt;0,WEEKNUM(A432),"")</f>
+        <f t="shared" ref="I432:I495" si="29">IF(WEEKNUM(A432)&gt;0,WEEKNUM(A432),"")</f>
         <v/>
       </c>
     </row>
     <row r="433" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H433" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I433" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H434" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I434" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H435" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I435" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H436" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I436" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H437" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I437" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H438" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I438" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H439" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I439" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H440" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I440" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H441" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I441" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H442" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I442" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H443" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I443" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H444" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I444" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H445" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I445" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H446" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I446" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H447" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I447" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H448" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I448" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H449" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I449" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H450" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I450" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H451" s="11" t="str">
-        <f t="shared" ref="H451:H500" si="21">IF(E451*F451&gt;0,E451*F451,"")</f>
+        <f t="shared" ref="H451:H500" si="30">IF(E451*F451&gt;0,E451*F451,"")</f>
         <v/>
       </c>
       <c r="I451" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H452" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I452" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H453" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I453" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H454" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I454" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H455" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I455" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H456" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I456" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H457" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I457" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H458" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I458" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H459" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I459" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H460" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I460" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H461" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I461" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H462" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I462" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H463" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I463" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H464" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I464" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H465" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I465" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H466" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I466" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H467" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I467" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H468" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I468" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H469" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I469" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I470" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H471" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I471" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H472" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I472" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H473" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I473" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H474" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I474" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H475" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I475" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H476" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I476" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H477" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I477" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H478" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I478" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H479" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I479" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H480" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I480" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H481" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I481" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H482" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I482" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H483" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I483" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H484" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I484" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I485" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I486" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H487" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I487" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I488" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I489" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I490" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I491" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I492" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I493" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I494" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I495" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H496" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I496" s="11" t="str">
-        <f t="shared" ref="I496:I500" si="22">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
+        <f t="shared" ref="I496:I500" si="31">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
         <v/>
       </c>
     </row>
     <row r="497" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H497" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I497" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H498" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I498" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H499" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I499" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H500" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I500" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -8271,7 +8827,7 @@
   </sheetData>
   <autoFilter ref="A1:I100"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C100">
       <formula1>INDIRECT(B2)</formula1>
     </dataValidation>
@@ -8282,7 +8838,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8295,7 +8851,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8308,10 +8864,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D63:D1048576</xm:sqref>
+          <xm:sqref>D1:D19 D72 D80:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8324,7 +8880,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8340,7 +8896,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8353,7 +8909,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8369,7 +8925,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8382,7 +8938,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8398,7 +8954,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8411,7 +8967,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8427,7 +8983,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8440,7 +8996,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8456,7 +9012,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8469,7 +9025,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8485,7 +9041,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8498,7 +9054,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8514,7 +9070,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8527,7 +9083,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8543,7 +9099,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8556,7 +9112,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8572,7 +9128,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8585,7 +9141,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8601,7 +9157,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8614,7 +9170,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8630,7 +9186,7 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8643,7 +9199,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8659,7 +9215,7 @@
           <xm:sqref>D42:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8672,7 +9228,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8688,7 +9244,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8701,7 +9257,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8717,7 +9273,7 @@
           <xm:sqref>D45:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8730,7 +9286,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8746,7 +9302,7 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
+          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8759,7 +9315,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8775,7 +9331,7 @@
           <xm:sqref>D49:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
+          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8788,7 +9344,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
+          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8804,7 +9360,7 @@
           <xm:sqref>D52:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
+          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8817,7 +9373,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8833,7 +9389,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8846,7 +9402,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8862,7 +9418,7 @@
           <xm:sqref>D56:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
+          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8875,7 +9431,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8891,7 +9447,7 @@
           <xm:sqref>D59:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8904,7 +9460,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8920,7 +9476,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8933,7 +9489,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8948,10 +9504,300 @@
           </x14:cfRule>
           <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D63:D64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D67:D69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D73:D74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D75:D76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D77:D78</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D79</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$15:$C$15</xm:f>

--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="数据项" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$500</definedName>
     <definedName name="倒立撑">数据项!$G$2+数据项!$G$4:$G$13</definedName>
     <definedName name="俯卧撑">数据项!$B$4:$B$13</definedName>
     <definedName name="举腿">数据项!$E$4:$E$13</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="99">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,7 +505,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -513,16 +523,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -883,66 +883,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1703,11 +1643,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I647"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I646"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A503" sqref="A503:XFD503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1833,7 +1774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>41939</v>
       </c>
@@ -1862,7 +1803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>41939</v>
       </c>
@@ -1891,7 +1832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>41939</v>
       </c>
@@ -1920,7 +1861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>41941</v>
       </c>
@@ -1949,7 +1890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>41941</v>
       </c>
@@ -1978,7 +1919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>41941</v>
       </c>
@@ -2007,7 +1948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>41941</v>
       </c>
@@ -2036,7 +1977,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>41941</v>
       </c>
@@ -2065,7 +2006,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>41941</v>
       </c>
@@ -2181,7 +2122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>41943</v>
       </c>
@@ -2210,7 +2151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>41943</v>
       </c>
@@ -2239,7 +2180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>41943</v>
       </c>
@@ -2384,7 +2325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>41946</v>
       </c>
@@ -2413,7 +2354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>41946</v>
       </c>
@@ -2442,7 +2383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>41946</v>
       </c>
@@ -2560,7 +2501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>41949</v>
       </c>
@@ -2589,7 +2530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>41949</v>
       </c>
@@ -2618,7 +2559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>41949</v>
       </c>
@@ -2649,7 +2590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>41949</v>
       </c>
@@ -2678,7 +2619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>41949</v>
       </c>
@@ -2707,7 +2648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>41949</v>
       </c>
@@ -2823,7 +2764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>41951</v>
       </c>
@@ -2852,7 +2793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>41951</v>
       </c>
@@ -2881,7 +2822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>41951</v>
       </c>
@@ -2999,7 +2940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>41953</v>
       </c>
@@ -3028,7 +2969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
         <v>41953</v>
       </c>
@@ -3057,7 +2998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
         <v>41953</v>
       </c>
@@ -3086,7 +3027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
         <v>41953</v>
       </c>
@@ -3117,7 +3058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
         <v>41955</v>
       </c>
@@ -3146,7 +3087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
         <v>41955</v>
       </c>
@@ -3175,7 +3116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>41955</v>
       </c>
@@ -3206,7 +3147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>41955</v>
       </c>
@@ -3235,7 +3176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>41955</v>
       </c>
@@ -3264,7 +3205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>41955</v>
       </c>
@@ -3293,7 +3234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>41955</v>
       </c>
@@ -3322,7 +3263,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>41957</v>
       </c>
@@ -3351,7 +3292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>41957</v>
       </c>
@@ -3380,7 +3321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>41957</v>
       </c>
@@ -3645,7 +3586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>41960</v>
       </c>
@@ -3674,7 +3615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
         <v>41960</v>
       </c>
@@ -3703,7 +3644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
         <v>41960</v>
       </c>
@@ -3732,7 +3673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9">
         <v>41960</v>
       </c>
@@ -3761,7 +3702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
         <v>41960</v>
       </c>
@@ -3790,7 +3731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
         <v>41963</v>
       </c>
@@ -3819,7 +3760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="9">
         <v>41963</v>
       </c>
@@ -3848,7 +3789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>41963</v>
       </c>
@@ -3879,7 +3820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9">
         <v>41963</v>
       </c>
@@ -3908,7 +3849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9">
         <v>41963</v>
       </c>
@@ -3937,7 +3878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="9">
         <v>41963</v>
       </c>
@@ -3966,7 +3907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="9">
         <v>41963</v>
       </c>
@@ -3995,7 +3936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9">
         <v>41963</v>
       </c>
@@ -4026,7 +3967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -4043,7 +3984,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4060,7 +4001,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -4077,7 +4018,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -4094,7 +4035,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -4111,7 +4052,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -4128,7 +4069,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4145,7 +4086,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4162,7 +4103,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -4179,7 +4120,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -4196,7 +4137,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4213,7 +4154,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4230,7 +4171,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4247,7 +4188,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4264,7 +4205,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4281,7 +4222,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4298,7 +4239,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4315,7 +4256,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4332,7 +4273,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -4349,7 +4290,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -4366,7 +4307,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -4383,37 +4324,96 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H101" s="11" t="str">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="9">
+        <v>41966</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="10">
+        <v>20</v>
+      </c>
+      <c r="F101" s="10">
+        <v>1</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I101" s="11" t="str">
+        <v>20</v>
+      </c>
+      <c r="I101" s="11">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H102" s="11" t="str">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="9">
+        <v>41966</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="10">
+        <v>25</v>
+      </c>
+      <c r="F102" s="10">
+        <v>1</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I102" s="11" t="str">
+        <v>25</v>
+      </c>
+      <c r="I102" s="11">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H103" s="11" t="str">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="9">
+        <v>41966</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="10">
+        <v>40</v>
+      </c>
+      <c r="F103" s="10">
+        <v>3</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H103" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I103" s="11" t="str">
+        <v>120</v>
+      </c>
+      <c r="I103" s="11">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H104" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4423,7 +4423,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H105" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4433,7 +4433,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H106" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4443,7 +4443,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H107" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4453,7 +4453,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H108" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4463,7 +4463,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H109" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4473,7 +4473,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H110" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4483,7 +4483,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H111" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4493,7 +4493,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H112" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4503,7 +4503,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H113" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4513,7 +4513,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H114" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4523,7 +4523,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H115" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4533,7 +4533,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H116" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4543,7 +4543,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H117" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4553,7 +4553,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H118" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4563,7 +4563,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H119" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4573,7 +4573,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H120" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4583,7 +4583,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H121" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4593,7 +4593,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H122" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4603,7 +4603,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H123" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4613,7 +4613,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H124" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4623,7 +4623,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H125" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4633,7 +4633,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H126" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4643,7 +4643,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H127" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4653,7 +4653,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H128" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4663,7 +4663,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H129" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4673,7 +4673,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H130" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4683,7 +4683,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H131" s="11" t="str">
         <f t="shared" ref="H131:H194" si="20">IF(E131*F131&gt;0,E131*F131,"")</f>
         <v/>
@@ -4693,7 +4693,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H132" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4703,7 +4703,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H133" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4713,7 +4713,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H134" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4723,7 +4723,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H135" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4733,7 +4733,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H136" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4743,7 +4743,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H137" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4753,7 +4753,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H138" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4763,7 +4763,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H139" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4773,7 +4773,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H140" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4783,7 +4783,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4793,7 +4793,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4803,7 +4803,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4813,7 +4813,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4823,7 +4823,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4833,7 +4833,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4843,7 +4843,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4853,7 +4853,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4863,7 +4863,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4873,7 +4873,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4883,7 +4883,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4893,7 +4893,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4903,7 +4903,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4913,7 +4913,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4923,7 +4923,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4933,7 +4933,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4943,7 +4943,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4953,7 +4953,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4963,7 +4963,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4973,7 +4973,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4983,7 +4983,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4993,7 +4993,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5003,7 +5003,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5013,7 +5013,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5023,7 +5023,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5033,7 +5033,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5043,7 +5043,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5053,7 +5053,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5063,7 +5063,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5073,7 +5073,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5083,7 +5083,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5093,7 +5093,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5103,7 +5103,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5113,7 +5113,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5123,7 +5123,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5133,7 +5133,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5143,7 +5143,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5153,7 +5153,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5163,7 +5163,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5173,7 +5173,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5183,7 +5183,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5193,7 +5193,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5203,7 +5203,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5213,7 +5213,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5223,7 +5223,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5233,7 +5233,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5243,7 +5243,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5253,7 +5253,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5263,7 +5263,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5273,7 +5273,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5283,7 +5283,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5293,7 +5293,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5303,7 +5303,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5313,7 +5313,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5323,7 +5323,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
         <f t="shared" ref="H195:H258" si="22">IF(E195*F195&gt;0,E195*F195,"")</f>
         <v/>
@@ -5333,7 +5333,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5343,7 +5343,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5353,7 +5353,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5363,7 +5363,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5373,7 +5373,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5383,7 +5383,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5393,7 +5393,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5403,7 +5403,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5413,7 +5413,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5423,7 +5423,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5433,7 +5433,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5443,7 +5443,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5453,7 +5453,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5463,7 +5463,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5473,7 +5473,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5483,7 +5483,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5493,7 +5493,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5503,7 +5503,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5513,7 +5513,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5523,7 +5523,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5533,7 +5533,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5543,7 +5543,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5553,7 +5553,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5563,7 +5563,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5573,7 +5573,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5583,7 +5583,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5593,7 +5593,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5603,7 +5603,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5613,7 +5613,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5623,7 +5623,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5633,7 +5633,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5643,7 +5643,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5653,7 +5653,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5663,7 +5663,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5673,7 +5673,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5683,7 +5683,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5693,7 +5693,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5703,7 +5703,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5713,7 +5713,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5723,7 +5723,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5733,7 +5733,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5743,7 +5743,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5753,7 +5753,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5763,7 +5763,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5773,7 +5773,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5783,7 +5783,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5793,7 +5793,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5803,7 +5803,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5813,7 +5813,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5823,7 +5823,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5833,7 +5833,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5843,7 +5843,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5853,7 +5853,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5863,7 +5863,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5873,7 +5873,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5883,7 +5883,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5893,7 +5893,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5903,7 +5903,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5913,7 +5913,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5923,7 +5923,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5933,7 +5933,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5943,7 +5943,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5953,7 +5953,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5963,7 +5963,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
         <f t="shared" ref="H259:H322" si="24">IF(E259*F259&gt;0,E259*F259,"")</f>
         <v/>
@@ -5973,7 +5973,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -5983,7 +5983,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -5993,7 +5993,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6003,7 +6003,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6013,7 +6013,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6023,7 +6023,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6033,7 +6033,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6043,7 +6043,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6053,7 +6053,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6063,7 +6063,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6073,7 +6073,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6083,7 +6083,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6093,7 +6093,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6103,7 +6103,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6113,7 +6113,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6123,7 +6123,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6133,7 +6133,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6143,7 +6143,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6153,7 +6153,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6163,7 +6163,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6173,7 +6173,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6183,7 +6183,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6193,7 +6193,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6203,7 +6203,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6213,7 +6213,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6223,7 +6223,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6233,7 +6233,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6243,7 +6243,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6253,7 +6253,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6263,7 +6263,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6273,7 +6273,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6283,7 +6283,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6293,7 +6293,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6303,7 +6303,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6313,7 +6313,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6323,7 +6323,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6333,7 +6333,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6343,7 +6343,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6353,7 +6353,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6363,7 +6363,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6373,7 +6373,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6383,7 +6383,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6393,7 +6393,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6403,7 +6403,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6413,7 +6413,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6423,7 +6423,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6433,7 +6433,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6443,7 +6443,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6453,7 +6453,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6463,7 +6463,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6473,7 +6473,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6493,7 +6493,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6503,7 +6503,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6513,7 +6513,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6523,7 +6523,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6533,7 +6533,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6543,7 +6543,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6553,7 +6553,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6563,7 +6563,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6573,7 +6573,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6583,7 +6583,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6593,7 +6593,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6603,7 +6603,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
         <f t="shared" ref="H323:H386" si="26">IF(E323*F323&gt;0,E323*F323,"")</f>
         <v/>
@@ -6613,7 +6613,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6623,7 +6623,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6633,7 +6633,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6643,7 +6643,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6653,7 +6653,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6663,7 +6663,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6673,7 +6673,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6683,7 +6683,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6693,7 +6693,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6703,7 +6703,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6713,7 +6713,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6723,7 +6723,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6733,7 +6733,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6743,7 +6743,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6753,7 +6753,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6763,7 +6763,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6773,7 +6773,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6783,7 +6783,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6793,7 +6793,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6803,7 +6803,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6813,7 +6813,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6823,7 +6823,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6833,7 +6833,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6843,7 +6843,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6853,7 +6853,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6863,7 +6863,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6873,7 +6873,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6883,7 +6883,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6893,7 +6893,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6903,7 +6903,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6913,7 +6913,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6923,7 +6923,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6933,7 +6933,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6943,7 +6943,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6953,7 +6953,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6963,7 +6963,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6973,7 +6973,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6983,7 +6983,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6993,7 +6993,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7003,7 +7003,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7013,7 +7013,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7023,7 +7023,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7033,7 +7033,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7043,7 +7043,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7053,7 +7053,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7063,7 +7063,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7073,7 +7073,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7083,7 +7083,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7093,7 +7093,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7103,7 +7103,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7113,7 +7113,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7123,7 +7123,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7133,7 +7133,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7143,7 +7143,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7153,7 +7153,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7163,7 +7163,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7173,7 +7173,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7183,7 +7183,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7193,7 +7193,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7203,7 +7203,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7213,7 +7213,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7223,7 +7223,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7233,7 +7233,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7243,7 +7243,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
         <f t="shared" ref="H387:H450" si="28">IF(E387*F387&gt;0,E387*F387,"")</f>
         <v/>
@@ -7253,7 +7253,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7263,7 +7263,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7273,7 +7273,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7283,7 +7283,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7293,7 +7293,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7303,7 +7303,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7313,7 +7313,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7323,7 +7323,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7333,7 +7333,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7343,7 +7343,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7353,7 +7353,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7363,7 +7363,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7373,7 +7373,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7383,7 +7383,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7393,7 +7393,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7403,7 +7403,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7413,7 +7413,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7423,7 +7423,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7433,7 +7433,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7443,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7453,7 +7453,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7463,7 +7463,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7473,7 +7473,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7483,7 +7483,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7493,7 +7493,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7503,7 +7503,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7513,7 +7513,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7523,7 +7523,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7533,7 +7533,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7543,7 +7543,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7553,7 +7553,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7563,7 +7563,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H419" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7573,7 +7573,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H420" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7583,7 +7583,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H421" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7593,7 +7593,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H422" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7603,7 +7603,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H423" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7613,7 +7613,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H424" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7623,7 +7623,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H425" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7633,7 +7633,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H426" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7643,7 +7643,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H427" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7653,7 +7653,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H428" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7663,7 +7663,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H429" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7673,7 +7673,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H430" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7683,7 +7683,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H431" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7693,7 +7693,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H432" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7703,7 +7703,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H433" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7713,7 +7713,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H434" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7723,7 +7723,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H435" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7733,7 +7733,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H436" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7743,7 +7743,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H437" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7753,7 +7753,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H438" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7763,7 +7763,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H439" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7773,7 +7773,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H440" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7783,7 +7783,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H441" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7793,7 +7793,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H442" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7803,7 +7803,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H443" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7813,7 +7813,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H444" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7823,7 +7823,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H445" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7833,7 +7833,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H446" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7843,7 +7843,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H447" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7853,7 +7853,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H448" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7863,7 +7863,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H449" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7873,7 +7873,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H450" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7883,9 +7883,9 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H451" s="11" t="str">
-        <f t="shared" ref="H451:H500" si="30">IF(E451*F451&gt;0,E451*F451,"")</f>
+        <f t="shared" ref="H451:H503" si="30">IF(E451*F451&gt;0,E451*F451,"")</f>
         <v/>
       </c>
       <c r="I451" s="11" t="str">
@@ -7893,7 +7893,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H452" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7903,7 +7903,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H453" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7913,7 +7913,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H454" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7923,7 +7923,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H455" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7933,7 +7933,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H456" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7943,7 +7943,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H457" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7953,7 +7953,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H458" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7963,7 +7963,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H459" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7973,7 +7973,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H460" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7983,7 +7983,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H461" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7993,7 +7993,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H462" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8003,7 +8003,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H463" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8013,7 +8013,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H464" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8023,7 +8023,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H465" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8033,7 +8033,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H466" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8043,7 +8043,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H467" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8053,7 +8053,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H468" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8063,7 +8063,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H469" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8073,7 +8073,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8083,7 +8083,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H471" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8093,7 +8093,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H472" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8103,7 +8103,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H473" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8113,7 +8113,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H474" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8123,7 +8123,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H475" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8133,7 +8133,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H476" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8143,7 +8143,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H477" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8153,7 +8153,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H478" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8163,7 +8163,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H479" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8173,7 +8173,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H480" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8183,7 +8183,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H481" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8193,7 +8193,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H482" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8203,7 +8203,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H483" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8213,7 +8213,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H484" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8223,7 +8223,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8233,7 +8233,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8243,7 +8243,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H487" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8253,7 +8253,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8263,7 +8263,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8273,7 +8273,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8283,7 +8283,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8293,7 +8293,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8303,7 +8303,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8313,7 +8313,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8323,7 +8323,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8333,17 +8333,17 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H496" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I496" s="11" t="str">
-        <f t="shared" ref="I496:I500" si="31">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I496:I503" si="31">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H497" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8353,7 +8353,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H498" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8363,7 +8363,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H499" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8373,7 +8373,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H500" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8383,40 +8383,118 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I501" s="11"/>
-    </row>
-    <row r="502" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I502" s="11"/>
-    </row>
-    <row r="503" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I503" s="11"/>
-    </row>
-    <row r="504" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A501" s="9">
+        <v>41966</v>
+      </c>
+      <c r="B501" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D501" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E501" s="10">
+        <v>20</v>
+      </c>
+      <c r="F501" s="10">
+        <v>1</v>
+      </c>
+      <c r="G501" s="13"/>
+      <c r="H501" s="11">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="I501" s="11">
+        <f t="shared" si="31"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A502" s="9">
+        <v>41966</v>
+      </c>
+      <c r="B502" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C502" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D502" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E502" s="10">
+        <v>25</v>
+      </c>
+      <c r="F502" s="10">
+        <v>1</v>
+      </c>
+      <c r="G502" s="13"/>
+      <c r="H502" s="11">
+        <f t="shared" si="30"/>
+        <v>25</v>
+      </c>
+      <c r="I502" s="11">
+        <f t="shared" si="31"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A503" s="9">
+        <v>41966</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D503" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E503" s="10">
+        <v>50</v>
+      </c>
+      <c r="F503" s="10">
+        <v>2</v>
+      </c>
+      <c r="G503" s="13"/>
+      <c r="H503" s="11">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="I503" s="11">
+        <f t="shared" si="31"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I504" s="11"/>
     </row>
-    <row r="505" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I505" s="11"/>
     </row>
-    <row r="506" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I506" s="11"/>
     </row>
-    <row r="507" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I507" s="11"/>
     </row>
-    <row r="508" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I508" s="11"/>
     </row>
-    <row r="509" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I509" s="11"/>
     </row>
-    <row r="510" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I510" s="11"/>
     </row>
-    <row r="511" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I511" s="11"/>
     </row>
-    <row r="512" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I512" s="11"/>
     </row>
     <row r="513" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8821,14 +8899,17 @@
     <row r="646" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I646" s="11"/>
     </row>
-    <row r="647" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I647" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I100"/>
+  <autoFilter ref="A1:I500">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="俯卧撑"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C103 C501:C503">
       <formula1>INDIRECT(B2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8838,7 +8919,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8851,7 +8932,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8864,10 +8945,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D72 D80:D1048576</xm:sqref>
+          <xm:sqref>D1:D19 D72 D80:D100 D104:D500 D504:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8880,7 +8961,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8896,7 +8977,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8909,7 +8990,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8925,7 +9006,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8938,7 +9019,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8954,7 +9035,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8967,7 +9048,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8983,7 +9064,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8996,7 +9077,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9012,7 +9093,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9025,7 +9106,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9041,7 +9122,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9054,7 +9135,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9070,7 +9151,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9083,7 +9164,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9099,7 +9180,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9112,7 +9193,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9128,7 +9209,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9141,7 +9222,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9157,7 +9238,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9170,7 +9251,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9186,7 +9267,7 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9199,7 +9280,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9215,7 +9296,7 @@
           <xm:sqref>D42:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9228,7 +9309,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9244,7 +9325,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9257,7 +9338,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9273,7 +9354,7 @@
           <xm:sqref>D45:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9286,7 +9367,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9302,7 +9383,7 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
+          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9315,7 +9396,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9331,7 +9412,7 @@
           <xm:sqref>D49:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
+          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9344,7 +9425,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
+          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9360,7 +9441,7 @@
           <xm:sqref>D52:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
+          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9373,7 +9454,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
+          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9389,7 +9470,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9402,7 +9483,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
+          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9418,7 +9499,7 @@
           <xm:sqref>D56:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
+          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9431,7 +9512,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9447,7 +9528,7 @@
           <xm:sqref>D59:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
+          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9460,7 +9541,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
+          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9476,7 +9557,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
+          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9489,7 +9570,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9505,7 +9586,7 @@
           <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9518,7 +9599,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9534,7 +9615,7 @@
           <xm:sqref>D63:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
+          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9547,7 +9628,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9563,7 +9644,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9576,7 +9657,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9592,7 +9673,7 @@
           <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9605,7 +9686,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9621,7 +9702,7 @@
           <xm:sqref>D67:D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
+          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9634,7 +9715,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
+          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9650,7 +9731,7 @@
           <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9663,7 +9744,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9679,7 +9760,7 @@
           <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9692,7 +9773,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9708,7 +9789,7 @@
           <xm:sqref>D73:D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9721,7 +9802,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
+          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9737,7 +9818,7 @@
           <xm:sqref>D75:D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9750,7 +9831,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9766,7 +9847,7 @@
           <xm:sqref>D77:D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9779,7 +9860,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9794,6 +9875,93 @@
           </x14:cfRule>
           <xm:sqref>D79</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D101:D103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D501:D502</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D503</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -9802,13 +9970,13 @@
           <x14:formula1>
             <xm:f>数据项!$B$15:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D100</xm:sqref>
+          <xm:sqref>D2:D103 D501:D503</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$2:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B100</xm:sqref>
+          <xm:sqref>B2:B103 B501:B503</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="数据项" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$502</definedName>
     <definedName name="倒立撑">数据项!$G$2+数据项!$G$4:$G$13</definedName>
     <definedName name="俯卧撑">数据项!$B$4:$B$13</definedName>
     <definedName name="举腿">数据项!$E$4:$E$13</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="104">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,26 @@
     <t>单手完成,数量已达标,考虑进阶,增强对上肢的刺激</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>尤其在落式注意212节奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髋关节陈旧伤,注意落式尽量放慢,避免关节的咯咯声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量用髋的力将腿抬起,而非大腿.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[隐藏式:125cm*1步]进阶标准45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝盖旧伤康复动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -505,7 +525,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="106">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -523,6 +553,216 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1643,12 +1883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I646"/>
+  <dimension ref="A1:I645"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A503" sqref="A503:XFD503"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1774,7 +2013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>41939</v>
       </c>
@@ -1803,7 +2042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>41939</v>
       </c>
@@ -1832,7 +2071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>41939</v>
       </c>
@@ -1861,7 +2100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>41941</v>
       </c>
@@ -1890,7 +2129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>41941</v>
       </c>
@@ -1919,7 +2158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>41941</v>
       </c>
@@ -1948,7 +2187,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>41941</v>
       </c>
@@ -1977,7 +2216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>41941</v>
       </c>
@@ -2006,7 +2245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>41941</v>
       </c>
@@ -2122,7 +2361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>41943</v>
       </c>
@@ -2151,7 +2390,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>41943</v>
       </c>
@@ -2180,7 +2419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>41943</v>
       </c>
@@ -2325,7 +2564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>41946</v>
       </c>
@@ -2354,7 +2593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>41946</v>
       </c>
@@ -2383,7 +2622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>41946</v>
       </c>
@@ -2501,7 +2740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>41949</v>
       </c>
@@ -2530,7 +2769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>41949</v>
       </c>
@@ -2559,7 +2798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>41949</v>
       </c>
@@ -2590,7 +2829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>41949</v>
       </c>
@@ -2619,7 +2858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>41949</v>
       </c>
@@ -2648,7 +2887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>41949</v>
       </c>
@@ -2764,7 +3003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>41951</v>
       </c>
@@ -2793,7 +3032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>41951</v>
       </c>
@@ -2822,7 +3061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>41951</v>
       </c>
@@ -2940,7 +3179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>41953</v>
       </c>
@@ -2969,7 +3208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
         <v>41953</v>
       </c>
@@ -2998,7 +3237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
         <v>41953</v>
       </c>
@@ -3027,7 +3266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
         <v>41953</v>
       </c>
@@ -3058,7 +3297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
         <v>41955</v>
       </c>
@@ -3087,7 +3326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
         <v>41955</v>
       </c>
@@ -3116,7 +3355,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>41955</v>
       </c>
@@ -3147,7 +3386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>41955</v>
       </c>
@@ -3176,7 +3415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>41955</v>
       </c>
@@ -3205,7 +3444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>41955</v>
       </c>
@@ -3234,7 +3473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>41955</v>
       </c>
@@ -3263,7 +3502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>41957</v>
       </c>
@@ -3292,7 +3531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>41957</v>
       </c>
@@ -3321,7 +3560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>41957</v>
       </c>
@@ -3495,7 +3734,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="11">
-        <f t="shared" ref="I63:I94" si="10">IF(WEEKNUM(A63)&gt;0,WEEKNUM(A63),"")</f>
+        <f t="shared" ref="I63:I93" si="10">IF(WEEKNUM(A63)&gt;0,WEEKNUM(A63),"")</f>
         <v>47</v>
       </c>
     </row>
@@ -3586,7 +3825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>41960</v>
       </c>
@@ -3607,7 +3846,7 @@
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H130" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
+        <f t="shared" ref="H67:H129" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
         <v>20</v>
       </c>
       <c r="I67" s="11">
@@ -3615,7 +3854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
         <v>41960</v>
       </c>
@@ -3644,7 +3883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
         <v>41960</v>
       </c>
@@ -3673,7 +3912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="9">
         <v>41960</v>
       </c>
@@ -3702,7 +3941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
         <v>41960</v>
       </c>
@@ -3731,7 +3970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
         <v>41963</v>
       </c>
@@ -3760,7 +3999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="9">
         <v>41963</v>
       </c>
@@ -3789,7 +4028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>41963</v>
       </c>
@@ -3820,7 +4059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="9">
         <v>41963</v>
       </c>
@@ -3849,7 +4088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="9">
         <v>41963</v>
       </c>
@@ -3878,7 +4117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="9">
         <v>41963</v>
       </c>
@@ -3907,7 +4146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="9">
         <v>41963</v>
       </c>
@@ -3936,7 +4175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="9">
         <v>41963</v>
       </c>
@@ -3959,219 +4198,373 @@
         <v>97</v>
       </c>
       <c r="H79" s="11">
-        <f t="shared" ref="H79" si="16">IF(E79*F79&gt;0,E79*F79,"")</f>
+        <f t="shared" ref="H79:H91" si="16">IF(E79*F79&gt;0,E79*F79,"")</f>
         <v>50</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" ref="I79" si="17">IF(WEEKNUM(A79)&gt;0,WEEKNUM(A79),"")</f>
+        <f t="shared" ref="I79:I91" si="17">IF(WEEKNUM(A79)&gt;0,WEEKNUM(A79),"")</f>
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="10">
+        <v>25</v>
+      </c>
+      <c r="F80" s="10">
+        <v>1</v>
+      </c>
       <c r="G80" s="13"/>
-      <c r="H80" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I80" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="H80" s="11">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="I80" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="10">
+        <v>25</v>
+      </c>
+      <c r="F81" s="10">
+        <v>1</v>
+      </c>
       <c r="G81" s="13"/>
-      <c r="H81" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I81" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I82" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="H81" s="11">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="I81" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="10">
+        <v>25</v>
+      </c>
+      <c r="F82" s="10">
+        <v>1</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H82" s="11">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="I82" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="10">
+        <v>30</v>
+      </c>
+      <c r="F83" s="10">
+        <v>2</v>
+      </c>
       <c r="G83" s="13"/>
-      <c r="H83" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I83" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
+      <c r="H83" s="11">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="I83" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="10">
+        <v>25</v>
+      </c>
+      <c r="F84" s="10">
+        <v>1</v>
+      </c>
       <c r="G84" s="13"/>
-      <c r="H84" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I84" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
+      <c r="H84" s="11">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="I84" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="10">
+        <v>25</v>
+      </c>
+      <c r="F85" s="10">
+        <v>1</v>
+      </c>
       <c r="G85" s="13"/>
-      <c r="H85" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I85" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I86" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I87" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
+      <c r="H85" s="11">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="I85" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="10">
+        <v>40</v>
+      </c>
+      <c r="F86" s="10">
+        <v>1</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H86" s="11">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="I86" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="10">
+        <v>45</v>
+      </c>
+      <c r="F87" s="10">
+        <v>2</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" s="11">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="I87" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="9">
+        <v>41969</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="10">
+        <v>25</v>
+      </c>
+      <c r="F88" s="10">
+        <v>2</v>
+      </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I88" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I89" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
+      <c r="H88" s="11">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="I88" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="9">
+        <v>41969</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="10">
+        <v>14</v>
+      </c>
+      <c r="F89" s="10">
+        <v>3</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="16"/>
+        <v>42</v>
+      </c>
+      <c r="I89" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="9">
+        <v>41969</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="10">
+        <v>20</v>
+      </c>
+      <c r="F90" s="10">
+        <v>2</v>
+      </c>
       <c r="G90" s="13"/>
-      <c r="H90" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I90" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I91" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H90" s="11">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="I90" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="9">
+        <v>41969</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="10">
+        <v>25</v>
+      </c>
+      <c r="F91" s="10">
+        <v>2</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H91" s="11">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="I91" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4188,7 +4581,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4205,7 +4598,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4218,11 +4611,11 @@
         <v/>
       </c>
       <c r="I94" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I94:I110" si="18">IF(WEEKNUM(A94)&gt;0,WEEKNUM(A94),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4235,11 +4628,11 @@
         <v/>
       </c>
       <c r="I95" s="11" t="str">
-        <f t="shared" ref="I95:I111" si="18">IF(WEEKNUM(A95)&gt;0,WEEKNUM(A95),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4256,7 +4649,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4273,7 +4666,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -4290,7 +4683,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -4307,24 +4700,36 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="9">
+        <v>41966</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="10">
+        <v>20</v>
+      </c>
+      <c r="F100" s="10">
+        <v>1</v>
+      </c>
       <c r="G100" s="13"/>
-      <c r="H100" s="11" t="str">
+      <c r="H100" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I100" s="11" t="str">
+        <v>20</v>
+      </c>
+      <c r="I100" s="11">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="9">
         <v>41966</v>
       </c>
@@ -4338,7 +4743,7 @@
         <v>21</v>
       </c>
       <c r="E101" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F101" s="10">
         <v>1</v>
@@ -4346,14 +4751,14 @@
       <c r="G101" s="13"/>
       <c r="H101" s="11">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I101" s="11">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="9">
         <v>41966</v>
       </c>
@@ -4364,56 +4769,37 @@
         <v>30</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E102" s="10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F102" s="10">
-        <v>1</v>
-      </c>
-      <c r="G102" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="H102" s="11">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="I102" s="11">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="9">
-        <v>41966</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" s="10">
-        <v>40</v>
-      </c>
-      <c r="F103" s="10">
-        <v>3</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H103" s="11">
+    <row r="103" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H103" s="11" t="str">
         <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="I103" s="11">
+        <v/>
+      </c>
+      <c r="I103" s="11" t="str">
         <f t="shared" si="18"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H104" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4423,7 +4809,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H105" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4433,7 +4819,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H106" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4443,7 +4829,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H107" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4453,7 +4839,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H108" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4463,7 +4849,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H109" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4473,7 +4859,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H110" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4483,27 +4869,27 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H111" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I111" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I111:I174" si="19">IF(WEEKNUM(A111)&gt;0,WEEKNUM(A111),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H112" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I112" s="11" t="str">
-        <f t="shared" ref="I112:I175" si="19">IF(WEEKNUM(A112)&gt;0,WEEKNUM(A112),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H113" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4513,7 +4899,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H114" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4523,7 +4909,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H115" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4533,7 +4919,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H116" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4543,7 +4929,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H117" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4553,7 +4939,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H118" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4563,7 +4949,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H119" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4573,7 +4959,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H120" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4583,7 +4969,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H121" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4593,7 +4979,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H122" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4603,7 +4989,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H123" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4613,7 +4999,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H124" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4623,7 +5009,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H125" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4633,7 +5019,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H126" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4643,7 +5029,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H127" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4653,7 +5039,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H128" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4663,7 +5049,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H129" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4673,9 +5059,9 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H130" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H130:H193" si="20">IF(E130*F130&gt;0,E130*F130,"")</f>
         <v/>
       </c>
       <c r="I130" s="11" t="str">
@@ -4683,9 +5069,9 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H131" s="11" t="str">
-        <f t="shared" ref="H131:H194" si="20">IF(E131*F131&gt;0,E131*F131,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I131" s="11" t="str">
@@ -4693,7 +5079,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H132" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4703,7 +5089,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H133" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4713,7 +5099,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H134" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4723,7 +5109,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H135" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4733,7 +5119,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H136" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4743,7 +5129,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H137" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4753,7 +5139,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H138" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4763,7 +5149,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H139" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4773,7 +5159,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H140" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4783,7 +5169,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4793,7 +5179,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4803,7 +5189,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4813,7 +5199,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4823,7 +5209,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4833,7 +5219,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4843,7 +5229,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4853,7 +5239,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4863,7 +5249,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4873,7 +5259,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4883,7 +5269,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4893,7 +5279,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4903,7 +5289,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4913,7 +5299,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4923,7 +5309,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4933,7 +5319,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4943,7 +5329,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4953,7 +5339,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4963,7 +5349,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4973,7 +5359,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4983,7 +5369,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -4993,7 +5379,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5003,7 +5389,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5013,7 +5399,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5023,7 +5409,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5033,7 +5419,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5043,7 +5429,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5053,7 +5439,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5063,7 +5449,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5073,7 +5459,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5083,7 +5469,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5093,7 +5479,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5103,7 +5489,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5113,7 +5499,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5123,27 +5509,27 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I175" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I175:I238" si="21">IF(WEEKNUM(A175)&gt;0,WEEKNUM(A175),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I176" s="11" t="str">
-        <f t="shared" ref="I176:I239" si="21">IF(WEEKNUM(A176)&gt;0,WEEKNUM(A176),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5153,7 +5539,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5163,7 +5549,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5173,7 +5559,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5183,7 +5569,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5193,7 +5579,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5203,7 +5589,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5213,7 +5599,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5223,7 +5609,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5233,7 +5619,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5243,7 +5629,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5253,7 +5639,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5263,7 +5649,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5273,7 +5659,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5283,7 +5669,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5293,7 +5679,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5303,7 +5689,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -5313,9 +5699,9 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="H194:H257" si="22">IF(E194*F194&gt;0,E194*F194,"")</f>
         <v/>
       </c>
       <c r="I194" s="11" t="str">
@@ -5323,9 +5709,9 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
-        <f t="shared" ref="H195:H258" si="22">IF(E195*F195&gt;0,E195*F195,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I195" s="11" t="str">
@@ -5333,7 +5719,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5343,7 +5729,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5353,7 +5739,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5363,7 +5749,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5373,7 +5759,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5383,7 +5769,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5393,7 +5779,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5403,7 +5789,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5413,7 +5799,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5423,7 +5809,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5433,7 +5819,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5443,7 +5829,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5453,7 +5839,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5463,7 +5849,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5473,7 +5859,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5483,7 +5869,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5493,7 +5879,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5503,7 +5889,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5513,7 +5899,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5523,7 +5909,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5533,7 +5919,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5543,7 +5929,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5553,7 +5939,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5563,7 +5949,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5573,7 +5959,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5583,7 +5969,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5593,7 +5979,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5603,7 +5989,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5613,7 +5999,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5623,7 +6009,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5633,7 +6019,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5643,7 +6029,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5653,7 +6039,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5663,7 +6049,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5673,7 +6059,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5683,7 +6069,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5693,7 +6079,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5703,7 +6089,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5713,7 +6099,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5723,7 +6109,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5733,7 +6119,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5743,7 +6129,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5753,7 +6139,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5763,27 +6149,27 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I239" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I239:I302" si="23">IF(WEEKNUM(A239)&gt;0,WEEKNUM(A239),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I240" s="11" t="str">
-        <f t="shared" ref="I240:I303" si="23">IF(WEEKNUM(A240)&gt;0,WEEKNUM(A240),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5793,7 +6179,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5803,7 +6189,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5813,7 +6199,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5823,7 +6209,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5833,7 +6219,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5843,7 +6229,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5853,7 +6239,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5863,7 +6249,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5873,7 +6259,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5883,7 +6269,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5893,7 +6279,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5903,7 +6289,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5913,7 +6299,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5923,7 +6309,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5933,7 +6319,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5943,7 +6329,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -5953,9 +6339,9 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="H258:H321" si="24">IF(E258*F258&gt;0,E258*F258,"")</f>
         <v/>
       </c>
       <c r="I258" s="11" t="str">
@@ -5963,9 +6349,9 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
-        <f t="shared" ref="H259:H322" si="24">IF(E259*F259&gt;0,E259*F259,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I259" s="11" t="str">
@@ -5973,7 +6359,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -5983,7 +6369,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -5993,7 +6379,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6003,7 +6389,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6013,7 +6399,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6023,7 +6409,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6033,7 +6419,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6043,7 +6429,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6053,7 +6439,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6063,7 +6449,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6073,7 +6459,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6083,7 +6469,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6093,7 +6479,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6103,7 +6489,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6113,7 +6499,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6123,7 +6509,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6133,7 +6519,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6143,7 +6529,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6153,7 +6539,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6163,7 +6549,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6173,7 +6559,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6183,7 +6569,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6193,7 +6579,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6203,7 +6589,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6213,7 +6599,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6223,7 +6609,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6233,7 +6619,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6243,7 +6629,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6253,7 +6639,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6263,7 +6649,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6273,7 +6659,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6283,7 +6669,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6293,7 +6679,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6303,7 +6689,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6313,7 +6699,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6323,7 +6709,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6333,7 +6719,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6343,7 +6729,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6353,7 +6739,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6363,7 +6749,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6373,7 +6759,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6383,7 +6769,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6393,7 +6779,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6403,27 +6789,27 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I303" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I303:I366" si="25">IF(WEEKNUM(A303)&gt;0,WEEKNUM(A303),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I304" s="11" t="str">
-        <f t="shared" ref="I304:I367" si="25">IF(WEEKNUM(A304)&gt;0,WEEKNUM(A304),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6433,7 +6819,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6443,7 +6829,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6453,7 +6839,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6463,7 +6849,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6473,7 +6859,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6483,7 +6869,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6493,7 +6879,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6503,7 +6889,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6513,7 +6899,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6523,7 +6909,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6533,7 +6919,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6543,7 +6929,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6553,7 +6939,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6563,7 +6949,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6573,7 +6959,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6583,7 +6969,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -6593,9 +6979,9 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H322:H385" si="26">IF(E322*F322&gt;0,E322*F322,"")</f>
         <v/>
       </c>
       <c r="I322" s="11" t="str">
@@ -6603,9 +6989,9 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
-        <f t="shared" ref="H323:H386" si="26">IF(E323*F323&gt;0,E323*F323,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I323" s="11" t="str">
@@ -6613,7 +6999,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6623,7 +7009,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6633,7 +7019,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6643,7 +7029,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6653,7 +7039,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6663,7 +7049,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6673,7 +7059,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6683,7 +7069,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6693,7 +7079,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6703,7 +7089,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6713,7 +7099,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6723,7 +7109,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6733,7 +7119,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6743,7 +7129,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6753,7 +7139,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6763,7 +7149,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6773,7 +7159,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6783,7 +7169,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6793,7 +7179,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6803,7 +7189,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6813,7 +7199,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6823,7 +7209,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6833,7 +7219,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6843,7 +7229,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6853,7 +7239,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6863,7 +7249,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6873,7 +7259,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6883,7 +7269,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6893,7 +7279,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6903,7 +7289,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6913,7 +7299,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6923,7 +7309,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6933,7 +7319,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6943,7 +7329,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6953,7 +7339,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6963,7 +7349,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6973,7 +7359,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6983,7 +7369,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -6993,7 +7379,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7003,7 +7389,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7013,7 +7399,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7023,7 +7409,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7033,7 +7419,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7043,27 +7429,27 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I367" s="11" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I367:I430" si="27">IF(WEEKNUM(A367)&gt;0,WEEKNUM(A367),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I368" s="11" t="str">
-        <f t="shared" ref="I368:I431" si="27">IF(WEEKNUM(A368)&gt;0,WEEKNUM(A368),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7073,7 +7459,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7083,7 +7469,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7093,7 +7479,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7103,7 +7489,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7113,7 +7499,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7123,7 +7509,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7133,7 +7519,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7143,7 +7529,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7153,7 +7539,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7163,7 +7549,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7173,7 +7559,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7183,7 +7569,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7193,7 +7579,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7203,7 +7589,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7213,7 +7599,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7223,7 +7609,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -7233,9 +7619,9 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H386:H449" si="28">IF(E386*F386&gt;0,E386*F386,"")</f>
         <v/>
       </c>
       <c r="I386" s="11" t="str">
@@ -7243,9 +7629,9 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
-        <f t="shared" ref="H387:H450" si="28">IF(E387*F387&gt;0,E387*F387,"")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I387" s="11" t="str">
@@ -7253,7 +7639,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7263,7 +7649,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7273,7 +7659,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7283,7 +7669,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7293,7 +7679,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7303,7 +7689,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7313,7 +7699,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7323,7 +7709,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7333,7 +7719,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7343,7 +7729,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7353,7 +7739,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7363,7 +7749,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7373,7 +7759,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7383,7 +7769,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7393,7 +7779,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7403,7 +7789,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7413,7 +7799,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7423,7 +7809,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7433,7 +7819,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7443,7 +7829,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7453,7 +7839,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7463,7 +7849,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7473,7 +7859,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7483,7 +7869,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7493,7 +7879,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7503,7 +7889,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7513,7 +7899,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7523,7 +7909,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7533,7 +7919,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7543,7 +7929,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7553,7 +7939,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7563,7 +7949,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H419" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7573,7 +7959,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H420" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7583,7 +7969,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H421" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7593,7 +7979,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H422" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7603,7 +7989,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H423" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7613,7 +7999,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H424" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7623,7 +8009,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H425" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7633,7 +8019,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H426" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7643,7 +8029,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H427" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7653,7 +8039,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H428" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7663,7 +8049,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H429" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7673,7 +8059,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H430" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7683,27 +8069,27 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H431" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I431" s="11" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="432" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I431:I494" si="29">IF(WEEKNUM(A431)&gt;0,WEEKNUM(A431),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H432" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I432" s="11" t="str">
-        <f t="shared" ref="I432:I495" si="29">IF(WEEKNUM(A432)&gt;0,WEEKNUM(A432),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="433" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H433" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7713,7 +8099,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H434" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7723,7 +8109,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H435" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7733,7 +8119,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H436" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7743,7 +8129,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H437" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7753,7 +8139,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H438" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7763,7 +8149,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H439" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7773,7 +8159,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H440" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7783,7 +8169,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H441" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7793,7 +8179,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H442" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7803,7 +8189,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H443" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7813,7 +8199,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H444" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7823,7 +8209,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H445" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7833,7 +8219,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H446" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7843,7 +8229,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H447" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7853,7 +8239,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H448" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7863,7 +8249,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H449" s="11" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -7873,9 +8259,9 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H450" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="H450:H502" si="30">IF(E450*F450&gt;0,E450*F450,"")</f>
         <v/>
       </c>
       <c r="I450" s="11" t="str">
@@ -7883,9 +8269,9 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H451" s="11" t="str">
-        <f t="shared" ref="H451:H503" si="30">IF(E451*F451&gt;0,E451*F451,"")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I451" s="11" t="str">
@@ -7893,7 +8279,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H452" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7903,7 +8289,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H453" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7913,7 +8299,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H454" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7923,7 +8309,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H455" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7933,7 +8319,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H456" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7943,7 +8329,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H457" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7953,7 +8339,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H458" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7963,7 +8349,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H459" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7973,7 +8359,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H460" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7983,7 +8369,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H461" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -7993,7 +8379,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H462" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8003,7 +8389,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H463" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8013,7 +8399,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H464" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8023,7 +8409,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H465" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8033,7 +8419,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H466" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8043,7 +8429,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H467" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8053,7 +8439,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H468" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8063,7 +8449,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H469" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8073,7 +8459,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8083,7 +8469,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H471" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8093,7 +8479,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H472" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8103,7 +8489,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H473" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8113,7 +8499,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H474" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8123,7 +8509,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H475" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8133,7 +8519,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H476" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8143,7 +8529,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H477" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8153,7 +8539,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H478" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8163,7 +8549,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H479" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8173,7 +8559,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H480" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8183,7 +8569,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H481" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8193,7 +8579,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H482" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8203,7 +8589,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H483" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8213,7 +8599,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H484" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8223,7 +8609,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8233,7 +8619,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8243,7 +8629,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H487" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8253,7 +8639,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8263,7 +8649,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8273,7 +8659,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8283,7 +8669,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8293,7 +8679,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8303,7 +8689,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8313,7 +8699,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8323,27 +8709,27 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I495" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="8:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I495:I502" si="31">IF(WEEKNUM(A495)&gt;0,WEEKNUM(A495),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H496" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I496" s="11" t="str">
-        <f t="shared" ref="I496:I503" si="31">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H497" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8353,7 +8739,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H498" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8363,7 +8749,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H499" s="11" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -8373,14 +8759,33 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H500" s="11" t="str">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A500" s="9">
+        <v>41966</v>
+      </c>
+      <c r="B500" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C500" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D500" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E500" s="10">
+        <v>20</v>
+      </c>
+      <c r="F500" s="10">
+        <v>1</v>
+      </c>
+      <c r="G500" s="13"/>
+      <c r="H500" s="11">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="I500" s="11" t="str">
+        <v>20</v>
+      </c>
+      <c r="I500" s="11">
         <f t="shared" si="31"/>
-        <v/>
+        <v>48</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.15">
@@ -8397,7 +8802,7 @@
         <v>21</v>
       </c>
       <c r="E501" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F501" s="10">
         <v>1</v>
@@ -8405,7 +8810,7 @@
       <c r="G501" s="13"/>
       <c r="H501" s="11">
         <f t="shared" si="30"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I501" s="11">
         <f t="shared" si="31"/>
@@ -8423,52 +8828,26 @@
         <v>26</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E502" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F502" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G502" s="13"/>
       <c r="H502" s="11">
         <f t="shared" si="30"/>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I502" s="11">
         <f t="shared" si="31"/>
         <v>48</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A503" s="9">
-        <v>41966</v>
-      </c>
-      <c r="B503" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C503" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D503" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E503" s="10">
-        <v>50</v>
-      </c>
-      <c r="F503" s="10">
-        <v>2</v>
-      </c>
-      <c r="G503" s="13"/>
-      <c r="H503" s="11">
-        <f t="shared" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="I503" s="11">
-        <f t="shared" si="31"/>
-        <v>48</v>
-      </c>
+    <row r="503" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I503" s="11"/>
     </row>
     <row r="504" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I504" s="11"/>
@@ -8896,20 +9275,11 @@
     <row r="645" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I645" s="11"/>
     </row>
-    <row r="646" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I646" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I500">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="俯卧撑"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I502"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C103 C501:C503">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C500:C502 C2:C102">
       <formula1>INDIRECT(B2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8919,7 +9289,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8932,7 +9302,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8945,10 +9315,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D72 D80:D100 D104:D500 D504:D1048576</xm:sqref>
+          <xm:sqref>D1:D19 D72 D103:D499 D503:D1048576 D89 D92:D99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8961,7 +9331,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="92" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -8977,7 +9347,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -8990,7 +9360,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="90" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9006,7 +9376,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9019,7 +9389,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9035,7 +9405,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9048,7 +9418,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9064,7 +9434,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9077,7 +9447,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9093,7 +9463,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9106,7 +9476,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9122,7 +9492,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9135,7 +9505,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="78" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9151,7 +9521,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9164,7 +9534,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9180,7 +9550,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9193,7 +9563,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9209,7 +9579,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9222,7 +9592,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9238,7 +9608,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9251,7 +9621,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9267,7 +9637,7 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9280,7 +9650,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9296,7 +9666,7 @@
           <xm:sqref>D42:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9309,7 +9679,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9325,7 +9695,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9338,7 +9708,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9354,7 +9724,7 @@
           <xm:sqref>D45:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9367,7 +9737,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9383,7 +9753,7 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
+          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9396,7 +9766,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
+          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9412,7 +9782,7 @@
           <xm:sqref>D49:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
+          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9425,7 +9795,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
+          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9441,7 +9811,7 @@
           <xm:sqref>D52:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
+          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9454,7 +9824,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
+          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9470,7 +9840,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
+          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9483,7 +9853,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
+          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9499,7 +9869,7 @@
           <xm:sqref>D56:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
+          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9512,7 +9882,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
+          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9528,7 +9898,7 @@
           <xm:sqref>D59:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
+          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9541,7 +9911,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
+          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9557,7 +9927,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
+          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9570,7 +9940,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
+          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9586,7 +9956,7 @@
           <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
+          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9599,7 +9969,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9615,7 +9985,7 @@
           <xm:sqref>D63:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
+          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9628,7 +9998,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
+          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9644,7 +10014,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
+          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9657,7 +10027,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9673,7 +10043,7 @@
           <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
+          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9686,7 +10056,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
+          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9702,7 +10072,7 @@
           <xm:sqref>D67:D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
+          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9715,7 +10085,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
+          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9731,7 +10101,7 @@
           <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9744,7 +10114,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
+          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9760,7 +10130,7 @@
           <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
+          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9773,7 +10143,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9789,7 +10159,7 @@
           <xm:sqref>D73:D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
+          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9802,7 +10172,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
+          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9818,7 +10188,7 @@
           <xm:sqref>D75:D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
+          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9831,7 +10201,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9847,7 +10217,7 @@
           <xm:sqref>D77:D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9860,7 +10230,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9876,7 +10246,7 @@
           <xm:sqref>D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
+          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9889,7 +10259,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9902,10 +10272,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D101:D103</xm:sqref>
+          <xm:sqref>D100:D102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9918,7 +10288,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9931,10 +10301,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D501:D502</xm:sqref>
+          <xm:sqref>D500:D501</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
+          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9947,7 +10317,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
+          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9960,23 +10330,226 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D503</xm:sqref>
+          <xm:sqref>D502</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{86CD94BF-6C84-472A-A9FE-61F117A6A97C}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{9BCDAF4E-9B05-452F-AAD4-E55C1DE222E8}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D80:D81</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{BC9E8D25-C466-4FEB-BF11-F046E3B42BC6}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{04D7F966-80DD-4B18-9651-0FD5A80C0A64}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{366E5125-3D4D-465E-BF3F-8DD214BD8B89}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{CF49C0E4-3118-4924-B043-D847AF46AFEF}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{19B18609-9029-42BF-A2B6-14B6F1D810E0}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{55BDB94E-1508-44C6-9350-C27F5DB2C797}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D84:D86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{B9E6181C-68F8-4D8A-81F1-0B6AA77EC2E6}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{CC037CDA-1BF0-42ED-B51C-96DE251C92B6}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D87</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{8A6B1556-9FDF-482E-AAFD-16F64D0576D3}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{7E80D14E-E389-4F4B-A7E9-99F92ECD34CA}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{8DC611AC-A16E-4BC8-B43E-BDAE3D1C24B3}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{DA46BBCF-11DD-49D0-947E-C3882234C23B}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D90:D91</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$15:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D103 D501:D503</xm:sqref>
+          <xm:sqref>D500:D502 D2:D102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$2:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B103 B501:B503</xm:sqref>
+          <xm:sqref>B500:B502 B2:B102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="数据项" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$502</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$501</definedName>
     <definedName name="倒立撑">数据项!$G$2+数据项!$G$4:$G$13</definedName>
     <definedName name="俯卧撑">数据项!$B$4:$B$13</definedName>
     <definedName name="举腿">数据项!$E$4:$E$13</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="105">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,10 @@
   </si>
   <si>
     <t>膝盖旧伤康复动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[隐藏式:124cm*1步]进阶标准45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1883,11 +1887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I645"/>
+  <dimension ref="A1:I644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90:A91"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3734,7 +3738,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="11">
-        <f t="shared" ref="I63:I93" si="10">IF(WEEKNUM(A63)&gt;0,WEEKNUM(A63),"")</f>
+        <f t="shared" ref="I63:I76" si="10">IF(WEEKNUM(A63)&gt;0,WEEKNUM(A63),"")</f>
         <v>47</v>
       </c>
     </row>
@@ -3846,7 +3850,7 @@
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H129" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
+        <f t="shared" ref="H67:H131" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
         <v>20</v>
       </c>
       <c r="I67" s="11">
@@ -4198,52 +4202,52 @@
         <v>97</v>
       </c>
       <c r="H79" s="11">
-        <f t="shared" ref="H79:H91" si="16">IF(E79*F79&gt;0,E79*F79,"")</f>
+        <f t="shared" ref="H79:H97" si="16">IF(E79*F79&gt;0,E79*F79,"")</f>
         <v>50</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" ref="I79:I91" si="17">IF(WEEKNUM(A79)&gt;0,WEEKNUM(A79),"")</f>
+        <f t="shared" ref="I79:I97" si="17">IF(WEEKNUM(A79)&gt;0,WEEKNUM(A79),"")</f>
         <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="9">
-        <v>41967</v>
+        <v>41966</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F80" s="10">
         <v>1</v>
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="11">
-        <f t="shared" si="16"/>
-        <v>25</v>
+        <f>IF(E80*F80&gt;0,E80*F80,"")</f>
+        <v>20</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="17"/>
+        <f>IF(WEEKNUM(A80)&gt;0,WEEKNUM(A80),"")</f>
         <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="9">
-        <v>41967</v>
+        <v>41966</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>21</v>
@@ -4256,83 +4260,83 @@
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="11">
-        <f t="shared" si="16"/>
+        <f>IF(E81*F81&gt;0,E81*F81,"")</f>
         <v>25</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="17"/>
+        <f>IF(WEEKNUM(A81)&gt;0,WEEKNUM(A81),"")</f>
         <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="9">
-        <v>41967</v>
+        <v>41966</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F82" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H82" s="11">
-        <f t="shared" si="16"/>
-        <v>25</v>
+        <f>IF(E82*F82&gt;0,E82*F82,"")</f>
+        <v>120</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="17"/>
+        <f>IF(WEEKNUM(A82)&gt;0,WEEKNUM(A82),"")</f>
         <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="9">
-        <v>41967</v>
+        <v>41966</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83" s="10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F83" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="11">
-        <f t="shared" si="16"/>
-        <v>60</v>
+        <f>IF(E83*F83&gt;0,E83*F83,"")</f>
+        <v>20</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="17"/>
+        <f>IF(WEEKNUM(A83)&gt;0,WEEKNUM(A83),"")</f>
         <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="9">
-        <v>41967</v>
+        <v>41966</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>21</v>
@@ -4345,40 +4349,40 @@
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="11">
-        <f t="shared" si="16"/>
+        <f>IF(E84*F84&gt;0,E84*F84,"")</f>
         <v>25</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="17"/>
+        <f>IF(WEEKNUM(A84)&gt;0,WEEKNUM(A84),"")</f>
         <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="9">
-        <v>41967</v>
+        <v>41966</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E85" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F85" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="11">
-        <f t="shared" si="16"/>
-        <v>25</v>
+        <f>IF(E85*F85&gt;0,E85*F85,"")</f>
+        <v>100</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="17"/>
+        <f>IF(WEEKNUM(A85)&gt;0,WEEKNUM(A85),"")</f>
         <v>48</v>
       </c>
     </row>
@@ -4387,26 +4391,24 @@
         <v>41967</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E86" s="10">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F86" s="10">
         <v>1</v>
       </c>
-      <c r="G86" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="G86" s="13"/>
       <c r="H86" s="11">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I86" s="11">
         <f t="shared" si="17"/>
@@ -4418,26 +4420,24 @@
         <v>41967</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E87" s="10">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F87" s="10">
-        <v>2</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G87" s="13"/>
       <c r="H87" s="11">
         <f t="shared" si="16"/>
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I87" s="11">
         <f t="shared" si="17"/>
@@ -4446,27 +4446,29 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="9">
-        <v>41969</v>
+        <v>41967</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E88" s="10">
         <v>25</v>
       </c>
       <c r="F88" s="10">
-        <v>2</v>
-      </c>
-      <c r="G88" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="H88" s="11">
         <f t="shared" si="16"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I88" s="11">
         <f t="shared" si="17"/>
@@ -4475,29 +4477,27 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="9">
-        <v>41969</v>
+        <v>41967</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E89" s="10">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F89" s="10">
-        <v>3</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>102</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G89" s="13"/>
       <c r="H89" s="11">
         <f t="shared" si="16"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I89" s="11">
         <f t="shared" si="17"/>
@@ -4506,27 +4506,27 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="9">
-        <v>41969</v>
+        <v>41967</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E90" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F90" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="11">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I90" s="11">
         <f t="shared" si="17"/>
@@ -4535,29 +4535,27 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
-        <v>41969</v>
+        <v>41967</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E91" s="10">
         <v>25</v>
       </c>
       <c r="F91" s="10">
-        <v>2</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G91" s="13"/>
       <c r="H91" s="11">
         <f t="shared" si="16"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I91" s="11">
         <f t="shared" si="17"/>
@@ -4565,173 +4563,281 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I92" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="A92" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="10">
+        <v>40</v>
+      </c>
+      <c r="F92" s="10">
+        <v>1</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="I92" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I93" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="A93" s="9">
+        <v>41967</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="10">
+        <v>45</v>
+      </c>
+      <c r="F93" s="10">
+        <v>2</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" s="11">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="I93" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
+      <c r="A94" s="9">
+        <v>41969</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="10">
+        <v>25</v>
+      </c>
+      <c r="F94" s="10">
+        <v>2</v>
+      </c>
       <c r="G94" s="13"/>
-      <c r="H94" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I94" s="11" t="str">
-        <f t="shared" ref="I94:I110" si="18">IF(WEEKNUM(A94)&gt;0,WEEKNUM(A94),"")</f>
-        <v/>
+      <c r="H94" s="11">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="I94" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I95" s="11" t="str">
+      <c r="A95" s="9">
+        <v>41969</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="10">
+        <v>14</v>
+      </c>
+      <c r="F95" s="10">
+        <v>3</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="16"/>
+        <v>42</v>
+      </c>
+      <c r="I95" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="9">
+        <v>41969</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="10">
+        <v>20</v>
+      </c>
+      <c r="F96" s="10">
+        <v>2</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="11">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="I96" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="9">
+        <v>41969</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="10">
+        <v>25</v>
+      </c>
+      <c r="F97" s="10">
+        <v>2</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="I97" s="11">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="9">
+        <v>41972</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="10">
+        <v>20</v>
+      </c>
+      <c r="F98" s="10">
+        <v>2</v>
+      </c>
+      <c r="G98" s="13"/>
+      <c r="H98" s="11">
+        <f t="shared" ref="H98:H99" si="18">IF(E98*F98&gt;0,E98*F98,"")</f>
+        <v>40</v>
+      </c>
+      <c r="I98" s="11">
+        <f t="shared" ref="I98:I99" si="19">IF(WEEKNUM(A98)&gt;0,WEEKNUM(A98),"")</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="9">
+        <v>41972</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="10">
+        <v>13</v>
+      </c>
+      <c r="F99" s="10">
+        <v>1</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99" s="11">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I96" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I97" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I98" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I99" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="I99" s="11">
+        <f t="shared" si="19"/>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="9">
-        <v>41966</v>
+        <v>41972</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E100" s="10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F100" s="10">
         <v>1</v>
       </c>
-      <c r="G100" s="13"/>
+      <c r="G100" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="H100" s="11">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" ref="H100" si="20">IF(E100*F100&gt;0,E100*F100,"")</f>
+        <v>14</v>
       </c>
       <c r="I100" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="I100" si="21">IF(WEEKNUM(A100)&gt;0,WEEKNUM(A100),"")</f>
         <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="9">
-        <v>41966</v>
+        <v>41972</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>87</v>
@@ -4743,24 +4849,24 @@
         <v>21</v>
       </c>
       <c r="E101" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F101" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="11">
-        <f t="shared" si="11"/>
-        <v>25</v>
+        <f>IF(E101*F101&gt;0,E101*F101,"")</f>
+        <v>40</v>
       </c>
       <c r="I101" s="11">
-        <f t="shared" si="18"/>
+        <f>IF(WEEKNUM(A101)&gt;0,WEEKNUM(A101),"")</f>
         <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="9">
-        <v>41966</v>
+        <v>41972</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>87</v>
@@ -4772,40 +4878,64 @@
         <v>22</v>
       </c>
       <c r="E102" s="10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F102" s="10">
-        <v>3</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>94</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G102" s="13"/>
       <c r="H102" s="11">
-        <f t="shared" si="11"/>
-        <v>120</v>
+        <f>IF(E102*F102&gt;0,E102*F102,"")</f>
+        <v>90</v>
       </c>
       <c r="I102" s="11">
-        <f t="shared" si="18"/>
+        <f>IF(WEEKNUM(A102)&gt;0,WEEKNUM(A102),"")</f>
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H103" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I103" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="9">
+        <v>41972</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="10">
+        <v>50</v>
+      </c>
+      <c r="F103" s="10">
+        <v>1</v>
+      </c>
+      <c r="G103" s="13"/>
+      <c r="H103" s="11">
+        <f>IF(E103*F103&gt;0,E103*F103,"")</f>
+        <v>50</v>
+      </c>
+      <c r="I103" s="11">
+        <f>IF(WEEKNUM(A103)&gt;0,WEEKNUM(A103),"")</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="13"/>
       <c r="H104" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I104" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="I103:I112" si="22">IF(WEEKNUM(A104)&gt;0,WEEKNUM(A104),"")</f>
         <v/>
       </c>
     </row>
@@ -4815,7 +4945,7 @@
         <v/>
       </c>
       <c r="I105" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4825,7 +4955,7 @@
         <v/>
       </c>
       <c r="I106" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4835,7 +4965,7 @@
         <v/>
       </c>
       <c r="I107" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4845,7 +4975,7 @@
         <v/>
       </c>
       <c r="I108" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4855,7 +4985,7 @@
         <v/>
       </c>
       <c r="I109" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4865,7 +4995,7 @@
         <v/>
       </c>
       <c r="I110" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4875,7 +5005,7 @@
         <v/>
       </c>
       <c r="I111" s="11" t="str">
-        <f t="shared" ref="I111:I174" si="19">IF(WEEKNUM(A111)&gt;0,WEEKNUM(A111),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4885,7 +5015,7 @@
         <v/>
       </c>
       <c r="I112" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4895,7 +5025,7 @@
         <v/>
       </c>
       <c r="I113" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I113:I176" si="23">IF(WEEKNUM(A113)&gt;0,WEEKNUM(A113),"")</f>
         <v/>
       </c>
     </row>
@@ -4905,7 +5035,7 @@
         <v/>
       </c>
       <c r="I114" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -4915,7 +5045,7 @@
         <v/>
       </c>
       <c r="I115" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -4925,7 +5055,7 @@
         <v/>
       </c>
       <c r="I116" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -4935,7 +5065,7 @@
         <v/>
       </c>
       <c r="I117" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -4945,7 +5075,7 @@
         <v/>
       </c>
       <c r="I118" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -4955,7 +5085,7 @@
         <v/>
       </c>
       <c r="I119" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -4965,7 +5095,7 @@
         <v/>
       </c>
       <c r="I120" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -4975,7 +5105,7 @@
         <v/>
       </c>
       <c r="I121" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -4985,7 +5115,7 @@
         <v/>
       </c>
       <c r="I122" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -4995,7 +5125,7 @@
         <v/>
       </c>
       <c r="I123" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -5005,7 +5135,7 @@
         <v/>
       </c>
       <c r="I124" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -5015,7 +5145,7 @@
         <v/>
       </c>
       <c r="I125" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -5025,7 +5155,7 @@
         <v/>
       </c>
       <c r="I126" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -5035,7 +5165,7 @@
         <v/>
       </c>
       <c r="I127" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -5045,7 +5175,7 @@
         <v/>
       </c>
       <c r="I128" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -5055,3825 +5185,3761 @@
         <v/>
       </c>
       <c r="I129" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H130" s="11" t="str">
-        <f t="shared" ref="H130:H193" si="20">IF(E130*F130&gt;0,E130*F130,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I130" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H131" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I131" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H132" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="H132:H195" si="24">IF(E132*F132&gt;0,E132*F132,"")</f>
         <v/>
       </c>
       <c r="I132" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H133" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I133" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H134" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I134" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H135" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I135" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H136" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I136" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H137" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I137" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H138" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I138" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H139" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I139" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H140" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I140" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I141" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I142" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I143" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I144" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I145" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I146" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I147" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I148" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I149" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I150" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I151" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I152" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I153" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I154" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I155" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I156" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I157" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I158" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I159" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I160" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I161" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I162" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I163" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I164" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I165" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I166" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I167" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I168" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I169" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I170" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I171" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I172" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I173" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I174" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I175" s="11" t="str">
-        <f t="shared" ref="I175:I238" si="21">IF(WEEKNUM(A175)&gt;0,WEEKNUM(A175),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I176" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I177" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I177:I240" si="25">IF(WEEKNUM(A177)&gt;0,WEEKNUM(A177),"")</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I178" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I180" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I181" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I182" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I183" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I184" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I185" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I186" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I187" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I188" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I189" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I190" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I191" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I192" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I193" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
-        <f t="shared" ref="H194:H257" si="22">IF(E194*F194&gt;0,E194*F194,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I194" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I195" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="H196:H259" si="26">IF(E196*F196&gt;0,E196*F196,"")</f>
         <v/>
       </c>
       <c r="I196" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I197" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I198" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I199" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I200" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I201" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I203" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I204" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I205" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I206" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I207" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I208" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I209" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I210" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I211" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I212" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I213" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I214" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I215" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I216" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I217" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I218" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I219" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I220" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I221" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I222" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I223" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I224" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I225" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I226" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I227" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I228" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I229" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I230" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I231" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I232" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I233" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I234" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I235" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I236" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I237" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I238" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I239" s="11" t="str">
-        <f t="shared" ref="I239:I302" si="23">IF(WEEKNUM(A239)&gt;0,WEEKNUM(A239),"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I240" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I241" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="I241:I304" si="27">IF(WEEKNUM(A241)&gt;0,WEEKNUM(A241),"")</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I242" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I243" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I244" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I245" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I246" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I247" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I248" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I249" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I250" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I251" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I252" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I253" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I254" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I255" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I256" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I257" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
-        <f t="shared" ref="H258:H321" si="24">IF(E258*F258&gt;0,E258*F258,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I258" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I259" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H260:H323" si="28">IF(E260*F260&gt;0,E260*F260,"")</f>
         <v/>
       </c>
       <c r="I260" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I261" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I262" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I263" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I264" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I265" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I266" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I267" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I268" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I269" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I270" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I271" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I272" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I273" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I274" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I275" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I276" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I277" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I278" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I279" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I280" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I281" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I282" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I283" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I284" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I285" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I286" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I287" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I288" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I289" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I290" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I291" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I292" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I293" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I294" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I295" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I296" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I297" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I298" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I299" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I300" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I301" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I302" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I303" s="11" t="str">
-        <f t="shared" ref="I303:I366" si="25">IF(WEEKNUM(A303)&gt;0,WEEKNUM(A303),"")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I304" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I305" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I305:I368" si="29">IF(WEEKNUM(A305)&gt;0,WEEKNUM(A305),"")</f>
         <v/>
       </c>
     </row>
     <row r="306" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I306" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I307" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I308" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I309" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I310" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I311" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I312" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I313" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I314" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I315" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I316" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I317" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I318" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I319" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I320" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I321" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
-        <f t="shared" ref="H322:H385" si="26">IF(E322*F322&gt;0,E322*F322,"")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I322" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I323" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H324:H387" si="30">IF(E324*F324&gt;0,E324*F324,"")</f>
         <v/>
       </c>
       <c r="I324" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I325" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I326" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I327" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I328" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I329" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I330" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I331" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I332" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I333" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I334" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I335" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I336" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I337" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I338" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I339" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I340" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I341" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I342" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I343" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I344" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I345" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I346" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I347" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I348" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I349" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I350" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I351" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I352" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I353" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I354" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I355" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I356" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I357" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I358" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I359" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I360" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I361" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I362" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I363" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I364" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I365" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I366" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I367" s="11" t="str">
-        <f t="shared" ref="I367:I430" si="27">IF(WEEKNUM(A367)&gt;0,WEEKNUM(A367),"")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I368" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I369" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="I369:I432" si="31">IF(WEEKNUM(A369)&gt;0,WEEKNUM(A369),"")</f>
         <v/>
       </c>
     </row>
     <row r="370" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I370" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I371" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I372" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I373" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I374" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I375" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I376" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I377" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I378" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I379" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I380" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I381" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I382" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I383" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I384" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I385" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
-        <f t="shared" ref="H386:H449" si="28">IF(E386*F386&gt;0,E386*F386,"")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I386" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I387" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="H388:H451" si="32">IF(E388*F388&gt;0,E388*F388,"")</f>
         <v/>
       </c>
       <c r="I388" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I389" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I390" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I391" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I392" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I393" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I394" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I395" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I396" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I397" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I398" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I399" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I400" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I401" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I402" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I403" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I404" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I405" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I406" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I407" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I408" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I409" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I410" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I411" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I412" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I413" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I414" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I415" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I416" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I417" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I418" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H419" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I419" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H420" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I420" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H421" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I421" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H422" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I422" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H423" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I423" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H424" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I424" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H425" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I425" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H426" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I426" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H427" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I427" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H428" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I428" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H429" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I429" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H430" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I430" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H431" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I431" s="11" t="str">
-        <f t="shared" ref="I431:I494" si="29">IF(WEEKNUM(A431)&gt;0,WEEKNUM(A431),"")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H432" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I432" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H433" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I433" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="I433:I496" si="33">IF(WEEKNUM(A433)&gt;0,WEEKNUM(A433),"")</f>
         <v/>
       </c>
     </row>
     <row r="434" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H434" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I434" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H435" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I435" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H436" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I436" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H437" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I437" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H438" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I438" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H439" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I439" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H440" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I440" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H441" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I441" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H442" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I442" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H443" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I443" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H444" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I444" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H445" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I445" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H446" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I446" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H447" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I447" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H448" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I448" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H449" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I449" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H450" s="11" t="str">
-        <f t="shared" ref="H450:H502" si="30">IF(E450*F450&gt;0,E450*F450,"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I450" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H451" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I451" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H452" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="H452:H501" si="34">IF(E452*F452&gt;0,E452*F452,"")</f>
         <v/>
       </c>
       <c r="I452" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H453" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I453" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H454" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I454" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H455" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I455" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H456" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I456" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H457" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I457" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H458" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I458" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H459" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I459" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H460" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I460" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H461" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I461" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H462" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I462" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H463" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I463" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H464" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I464" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H465" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I465" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H466" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I466" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H467" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I467" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H468" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I468" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H469" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I469" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I470" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H471" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I471" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H472" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I472" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H473" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I473" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H474" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I474" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H475" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I475" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H476" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I476" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H477" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I477" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H478" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I478" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H479" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I479" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H480" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I480" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H481" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I481" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H482" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I482" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H483" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I483" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H484" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I484" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I485" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I486" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H487" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I487" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I488" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I489" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I490" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I491" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I492" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I493" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I494" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I495" s="11" t="str">
-        <f t="shared" ref="I495:I502" si="31">IF(WEEKNUM(A495)&gt;0,WEEKNUM(A495),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H496" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I496" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H497" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I497" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I497:I501" si="35">IF(WEEKNUM(A497)&gt;0,WEEKNUM(A497),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H498" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I498" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H499" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I499" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A500" s="9">
-        <v>41966</v>
-      </c>
-      <c r="B500" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C500" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D500" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E500" s="10">
-        <v>20</v>
-      </c>
-      <c r="F500" s="10">
-        <v>1</v>
-      </c>
-      <c r="G500" s="13"/>
-      <c r="H500" s="11">
-        <f t="shared" si="30"/>
-        <v>20</v>
-      </c>
-      <c r="I500" s="11">
-        <f t="shared" si="31"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A501" s="9">
-        <v>41966</v>
-      </c>
-      <c r="B501" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C501" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D501" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E501" s="10">
-        <v>25</v>
-      </c>
-      <c r="F501" s="10">
-        <v>1</v>
-      </c>
-      <c r="G501" s="13"/>
-      <c r="H501" s="11">
-        <f t="shared" si="30"/>
-        <v>25</v>
-      </c>
-      <c r="I501" s="11">
-        <f t="shared" si="31"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A502" s="9">
-        <v>41966</v>
-      </c>
-      <c r="B502" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C502" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D502" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E502" s="10">
-        <v>50</v>
-      </c>
-      <c r="F502" s="10">
-        <v>2</v>
-      </c>
-      <c r="G502" s="13"/>
-      <c r="H502" s="11">
-        <f t="shared" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="I502" s="11">
-        <f t="shared" si="31"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H500" s="11" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I500" s="11" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H501" s="11" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I501" s="11" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I502" s="11"/>
+    </row>
+    <row r="503" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I503" s="11"/>
     </row>
-    <row r="504" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I504" s="11"/>
     </row>
-    <row r="505" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I505" s="11"/>
     </row>
-    <row r="506" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I506" s="11"/>
     </row>
-    <row r="507" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I507" s="11"/>
     </row>
-    <row r="508" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I508" s="11"/>
     </row>
-    <row r="509" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I509" s="11"/>
     </row>
-    <row r="510" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I510" s="11"/>
     </row>
-    <row r="511" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I511" s="11"/>
     </row>
-    <row r="512" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I512" s="11"/>
     </row>
     <row r="513" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9272,14 +9338,11 @@
     <row r="644" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I644" s="11"/>
     </row>
-    <row r="645" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I645" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I502"/>
+  <autoFilter ref="A1:I501"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C500:C502 C2:C102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C104">
       <formula1>INDIRECT(B2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -9289,7 +9352,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9302,7 +9365,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="104" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9315,10 +9378,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D72 D103:D499 D503:D1048576 D89 D92:D99</xm:sqref>
+          <xm:sqref>D1:D19 D72 D95 D101:D102 D104:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9331,7 +9394,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="92" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="102" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9347,7 +9410,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9360,7 +9423,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="90" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="100" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9376,7 +9439,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9389,7 +9452,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="98" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9405,7 +9468,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9418,7 +9481,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="96" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9434,7 +9497,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9447,7 +9510,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9463,7 +9526,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9476,7 +9539,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="92" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9492,7 +9555,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9505,7 +9568,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="78" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9521,7 +9584,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9534,7 +9597,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9550,7 +9613,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9563,7 +9626,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9579,7 +9642,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9592,7 +9655,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9608,7 +9671,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9621,7 +9684,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="80" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9637,7 +9700,7 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9650,7 +9713,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+          <x14:cfRule type="cellIs" priority="78" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9666,7 +9729,7 @@
           <xm:sqref>D42:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9679,7 +9742,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9695,7 +9758,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9708,7 +9771,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9724,7 +9787,7 @@
           <xm:sqref>D45:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9737,7 +9800,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9753,7 +9816,7 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
+          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9766,7 +9829,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
+          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9782,7 +9845,7 @@
           <xm:sqref>D49:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
+          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9795,7 +9858,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
+          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9811,7 +9874,7 @@
           <xm:sqref>D52:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
+          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9824,7 +9887,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
+          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9840,7 +9903,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
+          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9853,7 +9916,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
+          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9869,7 +9932,7 @@
           <xm:sqref>D56:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
+          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9882,7 +9945,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
+          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9898,7 +9961,7 @@
           <xm:sqref>D59:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
+          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9911,7 +9974,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
+          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9927,7 +9990,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
+          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9940,7 +10003,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
+          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9956,7 +10019,7 @@
           <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
+          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9969,7 +10032,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
+          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9985,7 +10048,7 @@
           <xm:sqref>D63:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
+          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9998,7 +10061,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
+          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10014,7 +10077,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
+          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10027,7 +10090,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
+          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10043,7 +10106,7 @@
           <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
+          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10056,7 +10119,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
+          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10072,7 +10135,7 @@
           <xm:sqref>D67:D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
+          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10085,7 +10148,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
+          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10101,7 +10164,7 @@
           <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
+          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10114,7 +10177,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10130,7 +10193,7 @@
           <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
+          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10143,7 +10206,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
+          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10159,7 +10222,7 @@
           <xm:sqref>D73:D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
+          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10172,7 +10235,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10188,7 +10251,7 @@
           <xm:sqref>D75:D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
+          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10201,7 +10264,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
+          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10217,7 +10280,7 @@
           <xm:sqref>D77:D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
+          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10230,7 +10293,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
+          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10246,7 +10309,7 @@
           <xm:sqref>D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10259,7 +10322,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
+          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10272,10 +10335,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D100:D102</xm:sqref>
+          <xm:sqref>D80:D82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
+          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10288,7 +10351,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10301,10 +10364,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D500:D501</xm:sqref>
+          <xm:sqref>D83:D84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
+          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10317,7 +10380,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10330,10 +10393,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D502</xm:sqref>
+          <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{86CD94BF-6C84-472A-A9FE-61F117A6A97C}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{86CD94BF-6C84-472A-A9FE-61F117A6A97C}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10346,7 +10409,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{9BCDAF4E-9B05-452F-AAD4-E55C1DE222E8}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{9BCDAF4E-9B05-452F-AAD4-E55C1DE222E8}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10359,10 +10422,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D80:D81</xm:sqref>
+          <xm:sqref>D86:D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{BC9E8D25-C466-4FEB-BF11-F046E3B42BC6}">
+          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{BC9E8D25-C466-4FEB-BF11-F046E3B42BC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10375,123 +10438,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{04D7F966-80DD-4B18-9651-0FD5A80C0A64}">
-            <xm:f>数据项!$B$15</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{366E5125-3D4D-465E-BF3F-8DD214BD8B89}">
-            <xm:f>数据项!$C$15</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{CF49C0E4-3118-4924-B043-D847AF46AFEF}">
-            <xm:f>数据项!$B$15</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{19B18609-9029-42BF-A2B6-14B6F1D810E0}">
-            <xm:f>数据项!$C$15</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{55BDB94E-1508-44C6-9350-C27F5DB2C797}">
-            <xm:f>数据项!$B$15</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D84:D86</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{B9E6181C-68F8-4D8A-81F1-0B6AA77EC2E6}">
-            <xm:f>数据项!$C$15</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{CC037CDA-1BF0-42ED-B51C-96DE251C92B6}">
-            <xm:f>数据项!$B$15</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D87</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{8A6B1556-9FDF-482E-AAFD-16F64D0576D3}">
-            <xm:f>数据项!$C$15</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{7E80D14E-E389-4F4B-A7E9-99F92ECD34CA}">
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{04D7F966-80DD-4B18-9651-0FD5A80C0A64}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10507,7 +10454,7 @@
           <xm:sqref>D88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{8DC611AC-A16E-4BC8-B43E-BDAE3D1C24B3}">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{366E5125-3D4D-465E-BF3F-8DD214BD8B89}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10520,7 +10467,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{DA46BBCF-11DD-49D0-947E-C3882234C23B}">
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{CF49C0E4-3118-4924-B043-D847AF46AFEF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10533,7 +10480,239 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D90:D91</xm:sqref>
+          <xm:sqref>D89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{19B18609-9029-42BF-A2B6-14B6F1D810E0}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{55BDB94E-1508-44C6-9350-C27F5DB2C797}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D90:D92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{B9E6181C-68F8-4D8A-81F1-0B6AA77EC2E6}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{CC037CDA-1BF0-42ED-B51C-96DE251C92B6}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D93</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{8A6B1556-9FDF-482E-AAFD-16F64D0576D3}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{7E80D14E-E389-4F4B-A7E9-99F92ECD34CA}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D94</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{8DC611AC-A16E-4BC8-B43E-BDAE3D1C24B3}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{DA46BBCF-11DD-49D0-947E-C3882234C23B}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D96:D97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{DB5EBB9E-5208-46D7-83D8-7CF0B0F674EB}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{A50CEC56-2FAC-4975-8891-F7B2B17A9149}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D99</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{60656A51-7C24-4AD8-949D-4FE7FE0F58D7}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{1CB165DD-9E5D-438A-8268-642FB6F1308B}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{0F794C4E-3DEB-4662-AA8F-03FAA42F3E7A}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{11FEB00F-DD32-40FE-8B2A-806A7DEE7DBF}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{DC9AD19F-D8F1-496B-B4C5-10EB18840734}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{6C79F05A-131F-45CE-816E-79C70A4B3356}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10543,13 +10722,13 @@
           <x14:formula1>
             <xm:f>数据项!$B$15:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D500:D502 D2:D102</xm:sqref>
+          <xm:sqref>D2:D104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$2:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B500:B502 B2:B102</xm:sqref>
+          <xm:sqref>B2:B104</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="数据项" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$498</definedName>
     <definedName name="倒立撑">数据项!$G$2+数据项!$G$4:$G$13</definedName>
     <definedName name="俯卧撑">数据项!$B$4:$B$13</definedName>
     <definedName name="举腿">数据项!$E$4:$E$13</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="105">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,7 +529,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="122">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -587,6 +587,166 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1887,16 +2047,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I644"/>
+  <dimension ref="A1:I641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99:A103"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112:A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="15.625" style="14" customWidth="1"/>
+    <col min="1" max="2" width="15.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="14" customWidth="1"/>
+    <col min="4" max="6" width="15.625" style="14" customWidth="1"/>
     <col min="7" max="7" width="35.625" style="14" customWidth="1"/>
     <col min="8" max="9" width="15.625" style="14" customWidth="1"/>
   </cols>
@@ -3850,7 +4012,7 @@
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H131" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
+        <f t="shared" ref="H67:H128" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
         <v>20</v>
       </c>
       <c r="I67" s="11">
@@ -4231,11 +4393,11 @@
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="11">
-        <f>IF(E80*F80&gt;0,E80*F80,"")</f>
+        <f t="shared" ref="H80:H85" si="18">IF(E80*F80&gt;0,E80*F80,"")</f>
         <v>20</v>
       </c>
       <c r="I80" s="11">
-        <f>IF(WEEKNUM(A80)&gt;0,WEEKNUM(A80),"")</f>
+        <f t="shared" ref="I80:I85" si="19">IF(WEEKNUM(A80)&gt;0,WEEKNUM(A80),"")</f>
         <v>48</v>
       </c>
     </row>
@@ -4260,11 +4422,11 @@
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="11">
-        <f>IF(E81*F81&gt;0,E81*F81,"")</f>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="I81" s="11">
-        <f>IF(WEEKNUM(A81)&gt;0,WEEKNUM(A81),"")</f>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
     </row>
@@ -4291,11 +4453,11 @@
         <v>94</v>
       </c>
       <c r="H82" s="11">
-        <f>IF(E82*F82&gt;0,E82*F82,"")</f>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="I82" s="11">
-        <f>IF(WEEKNUM(A82)&gt;0,WEEKNUM(A82),"")</f>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
     </row>
@@ -4320,11 +4482,11 @@
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="11">
-        <f>IF(E83*F83&gt;0,E83*F83,"")</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="I83" s="11">
-        <f>IF(WEEKNUM(A83)&gt;0,WEEKNUM(A83),"")</f>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
     </row>
@@ -4349,11 +4511,11 @@
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="11">
-        <f>IF(E84*F84&gt;0,E84*F84,"")</f>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="I84" s="11">
-        <f>IF(WEEKNUM(A84)&gt;0,WEEKNUM(A84),"")</f>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
     </row>
@@ -4378,11 +4540,11 @@
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="11">
-        <f>IF(E85*F85&gt;0,E85*F85,"")</f>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I85" s="11">
-        <f>IF(WEEKNUM(A85)&gt;0,WEEKNUM(A85),"")</f>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
     </row>
@@ -4765,11 +4927,11 @@
       </c>
       <c r="G98" s="13"/>
       <c r="H98" s="11">
-        <f t="shared" ref="H98:H99" si="18">IF(E98*F98&gt;0,E98*F98,"")</f>
+        <f t="shared" ref="H98:H99" si="20">IF(E98*F98&gt;0,E98*F98,"")</f>
         <v>40</v>
       </c>
       <c r="I98" s="11">
-        <f t="shared" ref="I98:I99" si="19">IF(WEEKNUM(A98)&gt;0,WEEKNUM(A98),"")</f>
+        <f t="shared" ref="I98:I99" si="21">IF(WEEKNUM(A98)&gt;0,WEEKNUM(A98),"")</f>
         <v>48</v>
       </c>
     </row>
@@ -4796,11 +4958,11 @@
         <v>104</v>
       </c>
       <c r="H99" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="I99" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
     </row>
@@ -4827,11 +4989,11 @@
         <v>104</v>
       </c>
       <c r="H100" s="11">
-        <f t="shared" ref="H100" si="20">IF(E100*F100&gt;0,E100*F100,"")</f>
+        <f t="shared" ref="H100" si="22">IF(E100*F100&gt;0,E100*F100,"")</f>
         <v>14</v>
       </c>
       <c r="I100" s="11">
-        <f t="shared" ref="I100" si="21">IF(WEEKNUM(A100)&gt;0,WEEKNUM(A100),"")</f>
+        <f t="shared" ref="I100" si="23">IF(WEEKNUM(A100)&gt;0,WEEKNUM(A100),"")</f>
         <v>48</v>
       </c>
     </row>
@@ -4923,3991 +5085,4176 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
+      <c r="A104" s="9">
+        <v>41974</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="10">
+        <v>20</v>
+      </c>
+      <c r="F104" s="10">
+        <v>2</v>
+      </c>
       <c r="G104" s="13"/>
-      <c r="H104" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I104" s="11" t="str">
-        <f t="shared" ref="I103:I112" si="22">IF(WEEKNUM(A104)&gt;0,WEEKNUM(A104),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H105" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I105" s="11" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H106" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I106" s="11" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H107" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I107" s="11" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H108" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I108" s="11" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H109" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I109" s="11" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H110" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I110" s="11" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H111" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I111" s="11" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H112" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I112" s="11" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H113" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I113" s="11" t="str">
-        <f t="shared" ref="I113:I176" si="23">IF(WEEKNUM(A113)&gt;0,WEEKNUM(A113),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H114" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I114" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H104" s="11">
+        <f t="shared" ref="H104:H109" si="24">IF(E104*F104&gt;0,E104*F104,"")</f>
+        <v>40</v>
+      </c>
+      <c r="I104" s="11">
+        <f t="shared" ref="I104:I109" si="25">IF(WEEKNUM(A104)&gt;0,WEEKNUM(A104),"")</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="9">
+        <v>41974</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="10">
+        <v>33</v>
+      </c>
+      <c r="F105" s="10">
+        <v>2</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="H105" s="11">
+        <f t="shared" si="24"/>
+        <v>66</v>
+      </c>
+      <c r="I105" s="11">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="9">
+        <v>41974</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="10">
+        <v>30</v>
+      </c>
+      <c r="F106" s="10">
+        <v>1</v>
+      </c>
+      <c r="G106" s="13"/>
+      <c r="H106" s="11">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="I106" s="11">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="9">
+        <v>41974</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="10">
+        <v>20</v>
+      </c>
+      <c r="F107" s="10">
+        <v>2</v>
+      </c>
+      <c r="G107" s="13"/>
+      <c r="H107" s="11">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="I107" s="11">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="9">
+        <v>41974</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="10">
+        <v>45</v>
+      </c>
+      <c r="F108" s="10">
+        <v>1</v>
+      </c>
+      <c r="G108" s="13"/>
+      <c r="H108" s="11">
+        <f t="shared" si="24"/>
+        <v>45</v>
+      </c>
+      <c r="I108" s="11">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="9">
+        <v>41974</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="10">
+        <v>50</v>
+      </c>
+      <c r="F109" s="10">
+        <v>1</v>
+      </c>
+      <c r="G109" s="13"/>
+      <c r="H109" s="11">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="I109" s="11">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="9">
+        <v>41974</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="10">
+        <v>40</v>
+      </c>
+      <c r="F110" s="10">
+        <v>1</v>
+      </c>
+      <c r="G110" s="13"/>
+      <c r="H110" s="11">
+        <f t="shared" ref="H110:H114" si="26">IF(E110*F110&gt;0,E110*F110,"")</f>
+        <v>40</v>
+      </c>
+      <c r="I110" s="11">
+        <f t="shared" ref="I110:I114" si="27">IF(WEEKNUM(A110)&gt;0,WEEKNUM(A110),"")</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="9">
+        <v>41976</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" s="10">
+        <v>20</v>
+      </c>
+      <c r="F111" s="10">
+        <v>2</v>
+      </c>
+      <c r="G111" s="13"/>
+      <c r="H111" s="11">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="I111" s="11">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="9">
+        <v>41976</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="10">
+        <v>15</v>
+      </c>
+      <c r="F112" s="10">
+        <v>2</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H112" s="11">
+        <f t="shared" si="26"/>
+        <v>30</v>
+      </c>
+      <c r="I112" s="11">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="9">
+        <v>41976</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="10">
+        <v>20</v>
+      </c>
+      <c r="F113" s="10">
+        <v>2</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="11">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="I113" s="11">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="9">
+        <v>41976</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="10">
+        <v>20</v>
+      </c>
+      <c r="F114" s="10">
+        <v>2</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H114" s="11">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="I114" s="11">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H115" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I115" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I113:I173" si="28">IF(WEEKNUM(A115)&gt;0,WEEKNUM(A115),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H116" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I116" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H117" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I117" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H118" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I118" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H119" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I119" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H120" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I120" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H121" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I121" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H122" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I122" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H123" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I123" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H124" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I124" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H125" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I125" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H126" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I126" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H127" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I127" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H128" s="11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I128" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H129" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H129:H192" si="29">IF(E129*F129&gt;0,E129*F129,"")</f>
         <v/>
       </c>
       <c r="I129" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H130" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I130" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H131" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I131" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H132" s="11" t="str">
-        <f t="shared" ref="H132:H195" si="24">IF(E132*F132&gt;0,E132*F132,"")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I132" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H133" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I133" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H134" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I134" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H135" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I135" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H136" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I136" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H137" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I137" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H138" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I138" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H139" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I139" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H140" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I140" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I141" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I142" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I143" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I144" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I145" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I146" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I147" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I148" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I149" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I150" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I151" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I152" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I153" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I154" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I155" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I156" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I157" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I158" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I159" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I160" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I161" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I162" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I163" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I164" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I165" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I166" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I167" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I168" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I169" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I170" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I171" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I172" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I173" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I174" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="I174:I237" si="30">IF(WEEKNUM(A174)&gt;0,WEEKNUM(A174),"")</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I175" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I176" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I177" s="11" t="str">
-        <f t="shared" ref="I177:I240" si="25">IF(WEEKNUM(A177)&gt;0,WEEKNUM(A177),"")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I178" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I180" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I181" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I182" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I183" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I184" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I185" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I186" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I187" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I188" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I189" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I190" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I191" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I192" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H193:H256" si="31">IF(E193*F193&gt;0,E193*F193,"")</f>
         <v/>
       </c>
       <c r="I193" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I194" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I195" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
-        <f t="shared" ref="H196:H259" si="26">IF(E196*F196&gt;0,E196*F196,"")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I196" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I197" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I198" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I199" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I200" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I201" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I203" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I204" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I205" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I206" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I207" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I208" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I209" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I210" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I211" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I212" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I213" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I214" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I215" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I216" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I217" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I218" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I219" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I220" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I221" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I222" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I223" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I224" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I225" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I226" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I227" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I228" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I229" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I230" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I231" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I232" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I233" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I234" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I235" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I236" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I237" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I238" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I238:I301" si="32">IF(WEEKNUM(A238)&gt;0,WEEKNUM(A238),"")</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I239" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I240" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I241" s="11" t="str">
-        <f t="shared" ref="I241:I304" si="27">IF(WEEKNUM(A241)&gt;0,WEEKNUM(A241),"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I242" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I243" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I244" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I245" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I246" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I247" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I248" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I249" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I250" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I251" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I252" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I253" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I254" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I255" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I256" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H257:H320" si="33">IF(E257*F257&gt;0,E257*F257,"")</f>
         <v/>
       </c>
       <c r="I257" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I258" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I259" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
-        <f t="shared" ref="H260:H323" si="28">IF(E260*F260&gt;0,E260*F260,"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I260" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I261" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I262" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I263" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I264" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I265" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I266" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I267" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I268" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I269" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I270" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I271" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I272" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I273" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I274" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I275" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I276" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I277" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I278" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I279" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I280" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I281" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I282" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I283" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I284" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I285" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I286" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I287" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I288" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I289" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I290" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I291" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I292" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I293" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I294" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I295" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I296" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I297" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I298" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I299" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I300" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I301" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I302" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="I302:I365" si="34">IF(WEEKNUM(A302)&gt;0,WEEKNUM(A302),"")</f>
         <v/>
       </c>
     </row>
     <row r="303" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I303" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I304" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I305" s="11" t="str">
-        <f t="shared" ref="I305:I368" si="29">IF(WEEKNUM(A305)&gt;0,WEEKNUM(A305),"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I306" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I307" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I308" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I309" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I310" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I311" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I312" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I313" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I314" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I315" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I316" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I317" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I318" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I319" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I320" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="H321:H384" si="35">IF(E321*F321&gt;0,E321*F321,"")</f>
         <v/>
       </c>
       <c r="I321" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I322" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I323" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
-        <f t="shared" ref="H324:H387" si="30">IF(E324*F324&gt;0,E324*F324,"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I324" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I325" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I326" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I327" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I328" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I329" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I330" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I331" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I332" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I333" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I334" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I335" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I336" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I337" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I338" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I339" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I340" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I341" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I342" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I343" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I344" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I345" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I346" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I347" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I348" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I349" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I350" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I351" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I352" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I353" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I354" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I355" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I356" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I357" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I358" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I359" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I360" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I361" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I362" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I363" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I364" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I365" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I366" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="I366:I429" si="36">IF(WEEKNUM(A366)&gt;0,WEEKNUM(A366),"")</f>
         <v/>
       </c>
     </row>
     <row r="367" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I367" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I368" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I369" s="11" t="str">
-        <f t="shared" ref="I369:I432" si="31">IF(WEEKNUM(A369)&gt;0,WEEKNUM(A369),"")</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I370" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I371" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I372" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I373" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I374" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I375" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I376" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I377" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I378" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I379" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I380" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I381" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I382" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I383" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I384" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="H385:H448" si="37">IF(E385*F385&gt;0,E385*F385,"")</f>
         <v/>
       </c>
       <c r="I385" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I386" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I387" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
-        <f t="shared" ref="H388:H451" si="32">IF(E388*F388&gt;0,E388*F388,"")</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I388" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I389" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I390" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I391" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I392" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I393" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I394" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I395" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I396" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I397" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I398" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I399" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I400" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I401" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I402" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I403" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I404" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I405" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I406" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I407" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I408" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I409" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I410" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I411" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I412" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I413" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I414" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I415" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I416" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I417" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I418" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H419" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I419" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H420" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I420" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H421" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I421" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H422" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I422" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H423" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I423" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H424" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I424" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H425" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I425" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H426" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I426" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H427" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I427" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H428" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I428" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H429" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I429" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H430" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I430" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="I430:I493" si="38">IF(WEEKNUM(A430)&gt;0,WEEKNUM(A430),"")</f>
         <v/>
       </c>
     </row>
     <row r="431" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H431" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I431" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H432" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I432" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H433" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I433" s="11" t="str">
-        <f t="shared" ref="I433:I496" si="33">IF(WEEKNUM(A433)&gt;0,WEEKNUM(A433),"")</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H434" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I434" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H435" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I435" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H436" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I436" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H437" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I437" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H438" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I438" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H439" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I439" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H440" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I440" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H441" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I441" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H442" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I442" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H443" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I443" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H444" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I444" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H445" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I445" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H446" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I446" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H447" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I447" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H448" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I448" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H449" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="H449:H498" si="39">IF(E449*F449&gt;0,E449*F449,"")</f>
         <v/>
       </c>
       <c r="I449" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H450" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I450" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H451" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I451" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H452" s="11" t="str">
-        <f t="shared" ref="H452:H501" si="34">IF(E452*F452&gt;0,E452*F452,"")</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I452" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H453" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I453" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H454" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I454" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H455" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I455" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H456" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I456" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H457" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I457" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H458" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I458" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H459" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I459" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H460" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I460" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H461" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I461" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H462" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I462" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H463" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I463" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H464" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I464" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H465" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I465" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H466" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I466" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H467" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I467" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H468" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I468" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H469" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I469" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I470" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H471" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I471" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H472" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I472" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H473" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I473" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H474" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I474" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H475" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I475" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H476" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I476" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H477" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I477" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H478" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I478" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H479" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I479" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H480" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I480" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H481" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I481" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H482" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I482" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H483" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I483" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H484" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I484" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I485" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I486" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H487" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I487" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I488" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I489" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I490" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I491" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I492" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I493" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I494" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="I494:I498" si="40">IF(WEEKNUM(A494)&gt;0,WEEKNUM(A494),"")</f>
         <v/>
       </c>
     </row>
     <row r="495" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I495" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H496" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I496" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H497" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I497" s="11" t="str">
-        <f t="shared" ref="I497:I501" si="35">IF(WEEKNUM(A497)&gt;0,WEEKNUM(A497),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H498" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I498" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H499" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I499" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
+      <c r="I499" s="11"/>
     </row>
     <row r="500" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H500" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I500" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
+      <c r="I500" s="11"/>
     </row>
     <row r="501" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H501" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I501" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
+      <c r="I501" s="11"/>
     </row>
     <row r="502" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I502" s="11"/>
@@ -9329,20 +9676,11 @@
     <row r="641" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I641" s="11"/>
     </row>
-    <row r="642" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I642" s="11"/>
-    </row>
-    <row r="643" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I643" s="11"/>
-    </row>
-    <row r="644" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I644" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I501"/>
+  <autoFilter ref="A1:I498"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C114">
       <formula1>INDIRECT(B2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -9352,7 +9690,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9365,7 +9703,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="104" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="124" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9378,10 +9716,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D72 D95 D101:D102 D104:D1048576</xm:sqref>
+          <xm:sqref>D1:D19 D72 D95 D101:D102 D115:D1048576 D107:D108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9394,7 +9732,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="102" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="122" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9410,7 +9748,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9423,7 +9761,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="100" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="120" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9439,7 +9777,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9452,7 +9790,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="98" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="118" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9468,7 +9806,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9481,7 +9819,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="96" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="116" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9497,7 +9835,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9510,7 +9848,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="114" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9526,7 +9864,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9539,7 +9877,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="92" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="112" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9555,7 +9893,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9568,7 +9906,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="108" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9584,7 +9922,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9597,7 +9935,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="106" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9613,7 +9951,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9626,7 +9964,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="104" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9642,7 +9980,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9655,7 +9993,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="102" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9671,7 +10009,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9684,7 +10022,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="80" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="100" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9700,7 +10038,7 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+          <x14:cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9713,7 +10051,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="78" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+          <x14:cfRule type="cellIs" priority="98" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9729,7 +10067,7 @@
           <xm:sqref>D42:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+          <x14:cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9742,7 +10080,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+          <x14:cfRule type="cellIs" priority="96" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9758,7 +10096,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9771,7 +10109,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+          <x14:cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9787,7 +10125,7 @@
           <xm:sqref>D45:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9800,7 +10138,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+          <x14:cfRule type="cellIs" priority="92" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9816,7 +10154,7 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
+          <x14:cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9829,7 +10167,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
+          <x14:cfRule type="cellIs" priority="90" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9845,7 +10183,7 @@
           <xm:sqref>D49:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
+          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9858,7 +10196,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
+          <x14:cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9874,7 +10212,7 @@
           <xm:sqref>D52:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
+          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9887,7 +10225,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
+          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9903,7 +10241,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
+          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9916,7 +10254,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
+          <x14:cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9932,7 +10270,7 @@
           <xm:sqref>D56:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
+          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9945,7 +10283,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
+          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9961,7 +10299,7 @@
           <xm:sqref>D59:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
+          <x14:cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9974,7 +10312,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
+          <x14:cfRule type="cellIs" priority="80" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9990,7 +10328,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
+          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10003,7 +10341,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
+          <x14:cfRule type="cellIs" priority="78" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10019,7 +10357,7 @@
           <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
+          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10032,7 +10370,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
+          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10048,7 +10386,7 @@
           <xm:sqref>D63:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
+          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10061,7 +10399,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
+          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10077,7 +10415,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
+          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10090,7 +10428,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
+          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10106,7 +10444,7 @@
           <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
+          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10119,7 +10457,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
+          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10135,7 +10473,7 @@
           <xm:sqref>D67:D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
+          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10148,7 +10486,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
+          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10164,7 +10502,7 @@
           <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
+          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10177,7 +10515,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
+          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10193,7 +10531,7 @@
           <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
+          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10206,7 +10544,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
+          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10222,7 +10560,7 @@
           <xm:sqref>D73:D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
+          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10235,7 +10573,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
+          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10251,7 +10589,7 @@
           <xm:sqref>D75:D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
+          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10264,7 +10602,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
+          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10280,7 +10618,7 @@
           <xm:sqref>D77:D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
+          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10293,7 +10631,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
+          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10309,7 +10647,7 @@
           <xm:sqref>D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
+          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10322,7 +10660,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
+          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10338,7 +10676,7 @@
           <xm:sqref>D80:D82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
+          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10351,7 +10689,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
+          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10367,7 +10705,7 @@
           <xm:sqref>D83:D84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
+          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10380,7 +10718,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
+          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10396,7 +10734,7 @@
           <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{86CD94BF-6C84-472A-A9FE-61F117A6A97C}">
+          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{86CD94BF-6C84-472A-A9FE-61F117A6A97C}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10409,7 +10747,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{9BCDAF4E-9B05-452F-AAD4-E55C1DE222E8}">
+          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{9BCDAF4E-9B05-452F-AAD4-E55C1DE222E8}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10425,7 +10763,7 @@
           <xm:sqref>D86:D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{BC9E8D25-C466-4FEB-BF11-F046E3B42BC6}">
+          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{BC9E8D25-C466-4FEB-BF11-F046E3B42BC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10438,7 +10776,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{04D7F966-80DD-4B18-9651-0FD5A80C0A64}">
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{04D7F966-80DD-4B18-9651-0FD5A80C0A64}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10454,7 +10792,7 @@
           <xm:sqref>D88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{366E5125-3D4D-465E-BF3F-8DD214BD8B89}">
+          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{366E5125-3D4D-465E-BF3F-8DD214BD8B89}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10467,7 +10805,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{CF49C0E4-3118-4924-B043-D847AF46AFEF}">
+          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{CF49C0E4-3118-4924-B043-D847AF46AFEF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10483,7 +10821,7 @@
           <xm:sqref>D89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{19B18609-9029-42BF-A2B6-14B6F1D810E0}">
+          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{19B18609-9029-42BF-A2B6-14B6F1D810E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10496,7 +10834,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{55BDB94E-1508-44C6-9350-C27F5DB2C797}">
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{55BDB94E-1508-44C6-9350-C27F5DB2C797}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10512,7 +10850,7 @@
           <xm:sqref>D90:D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{B9E6181C-68F8-4D8A-81F1-0B6AA77EC2E6}">
+          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{B9E6181C-68F8-4D8A-81F1-0B6AA77EC2E6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10525,7 +10863,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{CC037CDA-1BF0-42ED-B51C-96DE251C92B6}">
+          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{CC037CDA-1BF0-42ED-B51C-96DE251C92B6}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10541,7 +10879,7 @@
           <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{8A6B1556-9FDF-482E-AAFD-16F64D0576D3}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{8A6B1556-9FDF-482E-AAFD-16F64D0576D3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10554,7 +10892,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{7E80D14E-E389-4F4B-A7E9-99F92ECD34CA}">
+          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{7E80D14E-E389-4F4B-A7E9-99F92ECD34CA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10570,7 +10908,7 @@
           <xm:sqref>D94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{8DC611AC-A16E-4BC8-B43E-BDAE3D1C24B3}">
+          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{8DC611AC-A16E-4BC8-B43E-BDAE3D1C24B3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10583,7 +10921,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{DA46BBCF-11DD-49D0-947E-C3882234C23B}">
+          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{DA46BBCF-11DD-49D0-947E-C3882234C23B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10599,7 +10937,7 @@
           <xm:sqref>D96:D97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{DB5EBB9E-5208-46D7-83D8-7CF0B0F674EB}">
+          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{DB5EBB9E-5208-46D7-83D8-7CF0B0F674EB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10612,7 +10950,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{A50CEC56-2FAC-4975-8891-F7B2B17A9149}">
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{A50CEC56-2FAC-4975-8891-F7B2B17A9149}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10628,7 +10966,7 @@
           <xm:sqref>D99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{60656A51-7C24-4AD8-949D-4FE7FE0F58D7}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{60656A51-7C24-4AD8-949D-4FE7FE0F58D7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10641,7 +10979,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{1CB165DD-9E5D-438A-8268-642FB6F1308B}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{1CB165DD-9E5D-438A-8268-642FB6F1308B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10657,7 +10995,7 @@
           <xm:sqref>D98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{0F794C4E-3DEB-4662-AA8F-03FAA42F3E7A}">
+          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{0F794C4E-3DEB-4662-AA8F-03FAA42F3E7A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10670,7 +11008,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{11FEB00F-DD32-40FE-8B2A-806A7DEE7DBF}">
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{11FEB00F-DD32-40FE-8B2A-806A7DEE7DBF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10686,7 +11024,7 @@
           <xm:sqref>D100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{DC9AD19F-D8F1-496B-B4C5-10EB18840734}">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{DC9AD19F-D8F1-496B-B4C5-10EB18840734}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10699,7 +11037,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{6C79F05A-131F-45CE-816E-79C70A4B3356}">
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{6C79F05A-131F-45CE-816E-79C70A4B3356}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10714,6 +11052,238 @@
           </x14:cfRule>
           <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{ABA7766A-A1F2-4FEB-9C17-1C366FE284D1}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{B6BEA9C5-E0F5-412A-AC7B-ACEDA0E42249}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{FCC7DB0A-C437-4146-9DF9-D496EFE07667}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{B15EF4BA-D036-4341-B4B0-C304CE3D4E55}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{D917A167-75CE-449D-9044-CF34D97E4FA8}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{BE18D215-D9F4-4EC9-94AF-839481CD8F1B}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{DB52687D-63A0-4412-A75B-5BCEE1552629}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{2EA1F822-998F-4D27-AA9D-E2BA517D6120}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D109</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{40FD8FC1-690F-4863-8E0A-6FF27B9B25EA}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{C775CD9D-A86C-402A-92C1-37BA2AE53642}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{5B8086AC-EC4C-4FEF-BBE6-A24F6E984642}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{1885A59A-4AF5-44F1-940D-293347795F84}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D112</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{5323166C-7BDA-4341-871D-67A52FE352B8}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{4741F49C-1156-4441-A663-C9B9D2950007}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D111</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{0B912FCD-6227-4F52-BB42-8BEB988D94BC}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{23870631-FA9A-4ECB-9F08-9751ED285DE9}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D113:D114</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -10722,13 +11292,13 @@
           <x14:formula1>
             <xm:f>数据项!$B$15:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D104</xm:sqref>
+          <xm:sqref>D2:D114</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$2:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B104</xm:sqref>
+          <xm:sqref>B2:B114</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="数据项" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$498</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$495</definedName>
     <definedName name="倒立撑">数据项!$G$2+数据项!$G$4:$G$13</definedName>
     <definedName name="俯卧撑">数据项!$B$4:$B$13</definedName>
     <definedName name="举腿">数据项!$E$4:$E$13</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="106">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,10 @@
     <t>[隐藏式:124cm*1步]进阶标准45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[隐藏式:窄距拇指相触]进阶标准45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -529,7 +533,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="122">
+  <dxfs count="144">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -542,6 +556,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -572,6 +596,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -587,6 +621,196 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2047,11 +2271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I641"/>
+  <dimension ref="A1:I638"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112:A114"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4012,7 +4236,7 @@
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H128" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
+        <f t="shared" ref="H67:H125" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
         <v>20</v>
       </c>
       <c r="I67" s="11">
@@ -5407,64 +5631,182 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H115" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I115" s="11" t="str">
-        <f t="shared" ref="I113:I173" si="28">IF(WEEKNUM(A115)&gt;0,WEEKNUM(A115),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H116" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I116" s="11" t="str">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="9">
+        <v>41978</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="10">
+        <v>25</v>
+      </c>
+      <c r="F115" s="10">
+        <v>2</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="11">
+        <f>IF(E115*F115&gt;0,E115*F115,"")</f>
+        <v>50</v>
+      </c>
+      <c r="I115" s="11">
+        <f>IF(WEEKNUM(A115)&gt;0,WEEKNUM(A115),"")</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" s="9">
+        <v>41978</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="10">
+        <v>50</v>
+      </c>
+      <c r="F116" s="10">
+        <v>3</v>
+      </c>
+      <c r="G116" s="13"/>
+      <c r="H116" s="11">
+        <f>IF(E116*F116&gt;0,E116*F116,"")</f>
+        <v>150</v>
+      </c>
+      <c r="I116" s="11">
+        <f>IF(WEEKNUM(A116)&gt;0,WEEKNUM(A116),"")</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="9">
+        <v>41978</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="10">
+        <v>20</v>
+      </c>
+      <c r="F117" s="10">
+        <v>2</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="11">
+        <f t="shared" ref="H117:H120" si="28">IF(E117*F117&gt;0,E117*F117,"")</f>
+        <v>40</v>
+      </c>
+      <c r="I117" s="11">
+        <f t="shared" ref="I117:I120" si="29">IF(WEEKNUM(A117)&gt;0,WEEKNUM(A117),"")</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="9">
+        <v>41978</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="10">
+        <v>15</v>
+      </c>
+      <c r="F118" s="10">
+        <v>2</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H118" s="11">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H117" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I117" s="11" t="str">
+        <v>30</v>
+      </c>
+      <c r="I118" s="11">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="9">
+        <v>41978</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="10">
+        <v>20</v>
+      </c>
+      <c r="F119" s="10">
+        <v>1</v>
+      </c>
+      <c r="G119" s="13"/>
+      <c r="H119" s="11">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H118" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I118" s="11" t="str">
+        <v>20</v>
+      </c>
+      <c r="I119" s="11">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="9">
+        <v>41978</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="10">
+        <v>10</v>
+      </c>
+      <c r="F120" s="10">
+        <v>2</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H120" s="11">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H119" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I119" s="11" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H120" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I120" s="11" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+        <v>20</v>
+      </c>
+      <c r="I120" s="11">
+        <f t="shared" si="29"/>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5473,7 +5815,7 @@
         <v/>
       </c>
       <c r="I121" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I121:I170" si="30">IF(WEEKNUM(A121)&gt;0,WEEKNUM(A121),"")</f>
         <v/>
       </c>
     </row>
@@ -5483,7 +5825,7 @@
         <v/>
       </c>
       <c r="I122" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -5493,7 +5835,7 @@
         <v/>
       </c>
       <c r="I123" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -5503,7 +5845,7 @@
         <v/>
       </c>
       <c r="I124" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -5513,3780 +5855,3759 @@
         <v/>
       </c>
       <c r="I125" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H126" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H126:H189" si="31">IF(E126*F126&gt;0,E126*F126,"")</f>
         <v/>
       </c>
       <c r="I126" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H127" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I127" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H128" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I128" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H129" s="11" t="str">
-        <f t="shared" ref="H129:H192" si="29">IF(E129*F129&gt;0,E129*F129,"")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I129" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H130" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I130" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H131" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I131" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H132" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I132" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H133" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I133" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H134" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I134" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H135" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I135" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H136" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I136" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H137" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I137" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H138" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I138" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H139" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I139" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H140" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I140" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I141" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I142" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I143" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I144" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I145" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I146" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I147" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I148" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I149" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I150" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I151" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I152" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I153" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I154" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I155" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I156" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I157" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I158" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I159" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I160" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I161" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I162" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I163" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I164" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I165" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I166" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I167" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I168" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I169" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I170" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I171" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I171:I234" si="32">IF(WEEKNUM(A171)&gt;0,WEEKNUM(A171),"")</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I172" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I173" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I174" s="11" t="str">
-        <f t="shared" ref="I174:I237" si="30">IF(WEEKNUM(A174)&gt;0,WEEKNUM(A174),"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I175" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I176" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I177" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I178" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I180" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I181" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I182" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I183" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I184" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I185" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I186" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I187" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I188" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I189" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="H190:H253" si="33">IF(E190*F190&gt;0,E190*F190,"")</f>
         <v/>
       </c>
       <c r="I190" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I191" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I192" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
-        <f t="shared" ref="H193:H256" si="31">IF(E193*F193&gt;0,E193*F193,"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I193" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I194" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I195" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I196" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I197" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I198" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I199" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I200" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I201" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I203" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I204" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I205" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I206" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I207" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I208" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I209" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I210" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I211" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I212" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I213" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I214" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I215" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I216" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I217" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I218" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I219" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I220" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I221" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I222" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I223" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I224" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I225" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I226" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I227" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I228" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I229" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I230" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I231" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I232" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I233" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I234" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I235" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="I235:I298" si="34">IF(WEEKNUM(A235)&gt;0,WEEKNUM(A235),"")</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I236" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I237" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I238" s="11" t="str">
-        <f t="shared" ref="I238:I301" si="32">IF(WEEKNUM(A238)&gt;0,WEEKNUM(A238),"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I239" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I240" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I241" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I242" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I243" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I244" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I245" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I246" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I247" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I248" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I249" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I250" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I251" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I252" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I253" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="H254:H317" si="35">IF(E254*F254&gt;0,E254*F254,"")</f>
         <v/>
       </c>
       <c r="I254" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I255" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I256" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
-        <f t="shared" ref="H257:H320" si="33">IF(E257*F257&gt;0,E257*F257,"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I257" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I258" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I259" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I260" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I261" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I262" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I263" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I264" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I265" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I266" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I267" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I268" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I269" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I270" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I271" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I272" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I273" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I274" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I275" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I276" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I277" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I278" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I279" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I280" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I281" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I282" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I283" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I284" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I285" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I286" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I287" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I288" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I289" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I290" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I291" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I292" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I293" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I294" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I295" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I296" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I297" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I298" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I299" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="I299:I362" si="36">IF(WEEKNUM(A299)&gt;0,WEEKNUM(A299),"")</f>
         <v/>
       </c>
     </row>
     <row r="300" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I300" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I301" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I302" s="11" t="str">
-        <f t="shared" ref="I302:I365" si="34">IF(WEEKNUM(A302)&gt;0,WEEKNUM(A302),"")</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I303" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I304" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I305" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I306" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I307" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I308" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I309" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I310" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I311" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I312" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I313" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I314" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I315" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I316" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I317" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H318:H381" si="37">IF(E318*F318&gt;0,E318*F318,"")</f>
         <v/>
       </c>
       <c r="I318" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I319" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I320" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
-        <f t="shared" ref="H321:H384" si="35">IF(E321*F321&gt;0,E321*F321,"")</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I321" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I322" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I323" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I324" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I325" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I326" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I327" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I328" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I329" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I330" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I331" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I332" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I333" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I334" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I335" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I336" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I337" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I338" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I339" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I340" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I341" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I342" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I343" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I344" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I345" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I346" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I347" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I348" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I349" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I350" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I351" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I352" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I353" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I354" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I355" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I356" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I357" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I358" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I359" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I360" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I361" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I362" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I363" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="I363:I426" si="38">IF(WEEKNUM(A363)&gt;0,WEEKNUM(A363),"")</f>
         <v/>
       </c>
     </row>
     <row r="364" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I364" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I365" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I366" s="11" t="str">
-        <f t="shared" ref="I366:I429" si="36">IF(WEEKNUM(A366)&gt;0,WEEKNUM(A366),"")</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I367" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I368" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I369" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I370" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I371" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I372" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I373" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I374" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I375" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I376" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I377" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I378" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I379" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I380" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I381" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="H382:H445" si="39">IF(E382*F382&gt;0,E382*F382,"")</f>
         <v/>
       </c>
       <c r="I382" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I383" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I384" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
-        <f t="shared" ref="H385:H448" si="37">IF(E385*F385&gt;0,E385*F385,"")</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I385" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I386" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I387" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I388" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I389" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I390" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I391" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I392" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I393" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I394" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I395" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I396" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I397" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I398" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I399" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I400" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I401" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I402" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I403" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I404" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I405" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I406" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I407" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I408" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I409" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I410" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I411" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I412" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I413" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I414" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I415" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I416" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I417" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I418" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H419" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I419" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H420" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I420" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H421" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I421" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H422" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I422" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H423" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I423" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H424" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I424" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H425" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I425" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H426" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I426" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H427" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I427" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I427:I490" si="40">IF(WEEKNUM(A427)&gt;0,WEEKNUM(A427),"")</f>
         <v/>
       </c>
     </row>
     <row r="428" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H428" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I428" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H429" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I429" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H430" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I430" s="11" t="str">
-        <f t="shared" ref="I430:I493" si="38">IF(WEEKNUM(A430)&gt;0,WEEKNUM(A430),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H431" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I431" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H432" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I432" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H433" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I433" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H434" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I434" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H435" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I435" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H436" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I436" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H437" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I437" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H438" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I438" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H439" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I439" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H440" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I440" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H441" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I441" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H442" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I442" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H443" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I443" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H444" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I444" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H445" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I445" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H446" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="H446:H495" si="41">IF(E446*F446&gt;0,E446*F446,"")</f>
         <v/>
       </c>
       <c r="I446" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H447" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I447" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H448" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I448" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H449" s="11" t="str">
-        <f t="shared" ref="H449:H498" si="39">IF(E449*F449&gt;0,E449*F449,"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I449" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H450" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I450" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H451" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I451" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H452" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I452" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H453" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I453" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H454" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I454" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H455" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I455" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H456" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I456" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H457" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I457" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H458" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I458" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H459" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I459" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H460" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I460" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H461" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I461" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H462" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I462" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H463" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I463" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H464" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I464" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H465" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I465" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H466" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I466" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H467" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I467" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H468" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I468" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H469" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I469" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I470" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H471" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I471" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H472" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I472" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H473" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I473" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H474" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I474" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H475" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I475" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H476" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I476" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H477" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I477" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H478" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I478" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H479" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I479" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H480" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I480" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H481" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I481" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H482" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I482" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H483" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I483" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H484" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I484" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I485" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I486" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H487" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I487" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I488" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I489" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I490" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I491" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="I491:I495" si="42">IF(WEEKNUM(A491)&gt;0,WEEKNUM(A491),"")</f>
         <v/>
       </c>
     </row>
     <row r="492" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I492" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I493" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I494" s="11" t="str">
-        <f t="shared" ref="I494:I498" si="40">IF(WEEKNUM(A494)&gt;0,WEEKNUM(A494),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I495" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H496" s="11" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I496" s="11" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H497" s="11" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I497" s="11" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H498" s="11" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I498" s="11" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I496" s="11"/>
+    </row>
+    <row r="497" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I497" s="11"/>
+    </row>
+    <row r="498" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I498" s="11"/>
+    </row>
+    <row r="499" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I499" s="11"/>
     </row>
-    <row r="500" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I500" s="11"/>
     </row>
-    <row r="501" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I501" s="11"/>
     </row>
-    <row r="502" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I502" s="11"/>
     </row>
-    <row r="503" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I503" s="11"/>
     </row>
-    <row r="504" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I504" s="11"/>
     </row>
-    <row r="505" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I505" s="11"/>
     </row>
-    <row r="506" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I506" s="11"/>
     </row>
-    <row r="507" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I507" s="11"/>
     </row>
-    <row r="508" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I508" s="11"/>
     </row>
-    <row r="509" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I509" s="11"/>
     </row>
-    <row r="510" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I510" s="11"/>
     </row>
-    <row r="511" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I511" s="11"/>
     </row>
-    <row r="512" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I512" s="11"/>
     </row>
     <row r="513" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9667,20 +9988,11 @@
     <row r="638" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I638" s="11"/>
     </row>
-    <row r="639" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I639" s="11"/>
-    </row>
-    <row r="640" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I640" s="11"/>
-    </row>
-    <row r="641" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I641" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I498"/>
+  <autoFilter ref="A1:I495"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C114">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C120">
       <formula1>INDIRECT(B2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -9690,7 +10002,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9703,7 +10015,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="124" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="140" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9716,10 +10028,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D72 D95 D101:D102 D115:D1048576 D107:D108</xm:sqref>
+          <xm:sqref>D1:D19 D72 D95 D101:D102 D121:D1048576 D107:D108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9732,7 +10044,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="122" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="138" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9748,7 +10060,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9761,7 +10073,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="120" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="136" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9777,7 +10089,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9790,7 +10102,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="118" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="134" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9806,7 +10118,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9819,7 +10131,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="116" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="132" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9835,7 +10147,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9848,7 +10160,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="114" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="130" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9864,7 +10176,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9877,7 +10189,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="112" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="128" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9893,7 +10205,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9906,7 +10218,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="108" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="124" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9922,7 +10234,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9935,7 +10247,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="106" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="122" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9951,7 +10263,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9964,7 +10276,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="104" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="120" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -9980,7 +10292,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -9993,7 +10305,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="102" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="118" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10009,7 +10321,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10022,7 +10334,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="100" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="116" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10038,7 +10350,7 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+          <x14:cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10051,7 +10363,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="98" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+          <x14:cfRule type="cellIs" priority="114" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10067,7 +10379,7 @@
           <xm:sqref>D42:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+          <x14:cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10080,7 +10392,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="96" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+          <x14:cfRule type="cellIs" priority="112" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10096,7 +10408,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+          <x14:cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10109,7 +10421,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+          <x14:cfRule type="cellIs" priority="110" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10125,7 +10437,7 @@
           <xm:sqref>D45:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+          <x14:cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10138,7 +10450,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="92" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+          <x14:cfRule type="cellIs" priority="108" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10154,7 +10466,7 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
+          <x14:cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10167,7 +10479,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="90" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
+          <x14:cfRule type="cellIs" priority="106" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10183,7 +10495,7 @@
           <xm:sqref>D49:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
+          <x14:cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10196,7 +10508,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
+          <x14:cfRule type="cellIs" priority="104" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10212,7 +10524,7 @@
           <xm:sqref>D52:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
+          <x14:cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10225,7 +10537,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
+          <x14:cfRule type="cellIs" priority="102" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10241,7 +10553,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
+          <x14:cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10254,7 +10566,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
+          <x14:cfRule type="cellIs" priority="100" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10270,7 +10582,7 @@
           <xm:sqref>D56:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
+          <x14:cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10283,7 +10595,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
+          <x14:cfRule type="cellIs" priority="98" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10299,7 +10611,7 @@
           <xm:sqref>D59:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
+          <x14:cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10312,7 +10624,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="80" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
+          <x14:cfRule type="cellIs" priority="96" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10328,7 +10640,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
+          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10341,7 +10653,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="78" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
+          <x14:cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10357,7 +10669,7 @@
           <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
+          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10370,7 +10682,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
+          <x14:cfRule type="cellIs" priority="92" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10386,7 +10698,7 @@
           <xm:sqref>D63:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
+          <x14:cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10399,7 +10711,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
+          <x14:cfRule type="cellIs" priority="90" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10415,7 +10727,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
+          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10428,7 +10740,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
+          <x14:cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10444,7 +10756,7 @@
           <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
+          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10457,7 +10769,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
+          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10473,7 +10785,7 @@
           <xm:sqref>D67:D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
+          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10486,7 +10798,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
+          <x14:cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10502,7 +10814,7 @@
           <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
+          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10515,7 +10827,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
+          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10531,7 +10843,7 @@
           <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
+          <x14:cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10544,7 +10856,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
+          <x14:cfRule type="cellIs" priority="80" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10560,7 +10872,7 @@
           <xm:sqref>D73:D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
+          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10573,7 +10885,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
+          <x14:cfRule type="cellIs" priority="78" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10589,7 +10901,7 @@
           <xm:sqref>D75:D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
+          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10602,7 +10914,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
+          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10618,7 +10930,7 @@
           <xm:sqref>D77:D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
+          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10631,7 +10943,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
+          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10647,7 +10959,7 @@
           <xm:sqref>D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
+          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10660,7 +10972,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
+          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10676,7 +10988,7 @@
           <xm:sqref>D80:D82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
+          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10689,7 +11001,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
+          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10705,7 +11017,7 @@
           <xm:sqref>D83:D84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
+          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10718,7 +11030,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
+          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10734,7 +11046,7 @@
           <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{86CD94BF-6C84-472A-A9FE-61F117A6A97C}">
+          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{86CD94BF-6C84-472A-A9FE-61F117A6A97C}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10747,7 +11059,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{9BCDAF4E-9B05-452F-AAD4-E55C1DE222E8}">
+          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{9BCDAF4E-9B05-452F-AAD4-E55C1DE222E8}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10763,7 +11075,7 @@
           <xm:sqref>D86:D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{BC9E8D25-C466-4FEB-BF11-F046E3B42BC6}">
+          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{BC9E8D25-C466-4FEB-BF11-F046E3B42BC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10776,7 +11088,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{04D7F966-80DD-4B18-9651-0FD5A80C0A64}">
+          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{04D7F966-80DD-4B18-9651-0FD5A80C0A64}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10792,7 +11104,7 @@
           <xm:sqref>D88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{366E5125-3D4D-465E-BF3F-8DD214BD8B89}">
+          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{366E5125-3D4D-465E-BF3F-8DD214BD8B89}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10805,7 +11117,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{CF49C0E4-3118-4924-B043-D847AF46AFEF}">
+          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{CF49C0E4-3118-4924-B043-D847AF46AFEF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10821,7 +11133,7 @@
           <xm:sqref>D89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{19B18609-9029-42BF-A2B6-14B6F1D810E0}">
+          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{19B18609-9029-42BF-A2B6-14B6F1D810E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10834,7 +11146,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{55BDB94E-1508-44C6-9350-C27F5DB2C797}">
+          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{55BDB94E-1508-44C6-9350-C27F5DB2C797}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10850,7 +11162,7 @@
           <xm:sqref>D90:D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{B9E6181C-68F8-4D8A-81F1-0B6AA77EC2E6}">
+          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{B9E6181C-68F8-4D8A-81F1-0B6AA77EC2E6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10863,7 +11175,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{CC037CDA-1BF0-42ED-B51C-96DE251C92B6}">
+          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{CC037CDA-1BF0-42ED-B51C-96DE251C92B6}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10879,7 +11191,7 @@
           <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{8A6B1556-9FDF-482E-AAFD-16F64D0576D3}">
+          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{8A6B1556-9FDF-482E-AAFD-16F64D0576D3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10892,7 +11204,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{7E80D14E-E389-4F4B-A7E9-99F92ECD34CA}">
+          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{7E80D14E-E389-4F4B-A7E9-99F92ECD34CA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10908,7 +11220,7 @@
           <xm:sqref>D94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{8DC611AC-A16E-4BC8-B43E-BDAE3D1C24B3}">
+          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{8DC611AC-A16E-4BC8-B43E-BDAE3D1C24B3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10921,7 +11233,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{DA46BBCF-11DD-49D0-947E-C3882234C23B}">
+          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{DA46BBCF-11DD-49D0-947E-C3882234C23B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10937,7 +11249,7 @@
           <xm:sqref>D96:D97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{DB5EBB9E-5208-46D7-83D8-7CF0B0F674EB}">
+          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{DB5EBB9E-5208-46D7-83D8-7CF0B0F674EB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10950,7 +11262,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{A50CEC56-2FAC-4975-8891-F7B2B17A9149}">
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{A50CEC56-2FAC-4975-8891-F7B2B17A9149}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10966,7 +11278,7 @@
           <xm:sqref>D99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{60656A51-7C24-4AD8-949D-4FE7FE0F58D7}">
+          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{60656A51-7C24-4AD8-949D-4FE7FE0F58D7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10979,7 +11291,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{1CB165DD-9E5D-438A-8268-642FB6F1308B}">
+          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{1CB165DD-9E5D-438A-8268-642FB6F1308B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10995,7 +11307,7 @@
           <xm:sqref>D98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{0F794C4E-3DEB-4662-AA8F-03FAA42F3E7A}">
+          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{0F794C4E-3DEB-4662-AA8F-03FAA42F3E7A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11008,7 +11320,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{11FEB00F-DD32-40FE-8B2A-806A7DEE7DBF}">
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{11FEB00F-DD32-40FE-8B2A-806A7DEE7DBF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11024,7 +11336,7 @@
           <xm:sqref>D100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{DC9AD19F-D8F1-496B-B4C5-10EB18840734}">
+          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{DC9AD19F-D8F1-496B-B4C5-10EB18840734}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11037,7 +11349,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{6C79F05A-131F-45CE-816E-79C70A4B3356}">
+          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{6C79F05A-131F-45CE-816E-79C70A4B3356}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11053,7 +11365,7 @@
           <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{ABA7766A-A1F2-4FEB-9C17-1C366FE284D1}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{ABA7766A-A1F2-4FEB-9C17-1C366FE284D1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11066,7 +11378,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{B6BEA9C5-E0F5-412A-AC7B-ACEDA0E42249}">
+          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{B6BEA9C5-E0F5-412A-AC7B-ACEDA0E42249}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11082,7 +11394,7 @@
           <xm:sqref>D104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{FCC7DB0A-C437-4146-9DF9-D496EFE07667}">
+          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{FCC7DB0A-C437-4146-9DF9-D496EFE07667}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11095,7 +11407,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{B15EF4BA-D036-4341-B4B0-C304CE3D4E55}">
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{B15EF4BA-D036-4341-B4B0-C304CE3D4E55}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11111,7 +11423,7 @@
           <xm:sqref>D105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{D917A167-75CE-449D-9044-CF34D97E4FA8}">
+          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{D917A167-75CE-449D-9044-CF34D97E4FA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11124,7 +11436,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{BE18D215-D9F4-4EC9-94AF-839481CD8F1B}">
+          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{BE18D215-D9F4-4EC9-94AF-839481CD8F1B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11140,7 +11452,7 @@
           <xm:sqref>D106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{DB52687D-63A0-4412-A75B-5BCEE1552629}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{DB52687D-63A0-4412-A75B-5BCEE1552629}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11153,7 +11465,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{2EA1F822-998F-4D27-AA9D-E2BA517D6120}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{2EA1F822-998F-4D27-AA9D-E2BA517D6120}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11169,7 +11481,7 @@
           <xm:sqref>D109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{40FD8FC1-690F-4863-8E0A-6FF27B9B25EA}">
+          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{40FD8FC1-690F-4863-8E0A-6FF27B9B25EA}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11182,7 +11494,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{C775CD9D-A86C-402A-92C1-37BA2AE53642}">
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{C775CD9D-A86C-402A-92C1-37BA2AE53642}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11198,7 +11510,7 @@
           <xm:sqref>D110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{5B8086AC-EC4C-4FEF-BBE6-A24F6E984642}">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{5B8086AC-EC4C-4FEF-BBE6-A24F6E984642}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11211,7 +11523,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{1885A59A-4AF5-44F1-940D-293347795F84}">
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{1885A59A-4AF5-44F1-940D-293347795F84}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11227,7 +11539,7 @@
           <xm:sqref>D112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{5323166C-7BDA-4341-871D-67A52FE352B8}">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{5323166C-7BDA-4341-871D-67A52FE352B8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11240,7 +11552,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{4741F49C-1156-4441-A663-C9B9D2950007}">
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{4741F49C-1156-4441-A663-C9B9D2950007}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11256,7 +11568,7 @@
           <xm:sqref>D111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{0B912FCD-6227-4F52-BB42-8BEB988D94BC}">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{0B912FCD-6227-4F52-BB42-8BEB988D94BC}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11269,7 +11581,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{23870631-FA9A-4ECB-9F08-9751ED285DE9}">
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{23870631-FA9A-4ECB-9F08-9751ED285DE9}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11284,21 +11596,166 @@
           </x14:cfRule>
           <xm:sqref>D113:D114</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{AB9012F2-780B-4E85-BD5C-013D784FFF2A}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{C510E771-952E-4FC2-B1DB-BAE1347B2333}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D115:D116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{CF56448A-169A-4530-9E68-C58A80976325}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{2E817DF6-D2AB-40D1-9A49-A3224206A1C9}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D118</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{A93F3733-3E8B-4A00-B393-5729175A255D}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{A257CF25-76C9-4F49-961E-ACE8379668EF}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{7C9F906B-8E53-4555-8DA4-88240E120434}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{31932AB9-44CC-41B7-A499-DD4EF24F4FBB}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D119</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{3037ED53-A30F-4583-8182-929902047E0B}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{78FE1653-AFC2-46EB-9F45-D3D7DA233142}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D120</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$15:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D114</xm:sqref>
+          <xm:sqref>D2:D120</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$2:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B114</xm:sqref>
+          <xm:sqref>B2:B120</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="数据项" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$495</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$496</definedName>
     <definedName name="倒立撑">数据项!$G$2+数据项!$G$4:$G$13</definedName>
     <definedName name="俯卧撑">数据项!$B$4:$B$13</definedName>
     <definedName name="举腿">数据项!$E$4:$E$13</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="106">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,7 +533,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="160">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -556,6 +566,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -691,6 +711,146 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2271,11 +2431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I638"/>
+  <dimension ref="A1:I639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120:XFD120"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4236,7 +4396,7 @@
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H125" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
+        <f t="shared" ref="H67:H126" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
         <v>20</v>
       </c>
       <c r="I67" s="11">
@@ -5710,11 +5870,11 @@
       </c>
       <c r="G117" s="13"/>
       <c r="H117" s="11">
-        <f t="shared" ref="H117:H120" si="28">IF(E117*F117&gt;0,E117*F117,"")</f>
+        <f t="shared" ref="H117:H129" si="28">IF(E117*F117&gt;0,E117*F117,"")</f>
         <v>40</v>
       </c>
       <c r="I117" s="11">
-        <f t="shared" ref="I117:I120" si="29">IF(WEEKNUM(A117)&gt;0,WEEKNUM(A117),"")</f>
+        <f t="shared" ref="I117:I129" si="29">IF(WEEKNUM(A117)&gt;0,WEEKNUM(A117),"")</f>
         <v>49</v>
       </c>
     </row>
@@ -5809,3758 +5969,4018 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H121" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I121" s="11" t="str">
-        <f t="shared" ref="I121:I170" si="30">IF(WEEKNUM(A121)&gt;0,WEEKNUM(A121),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H122" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I122" s="11" t="str">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="9">
+        <v>41981</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="10">
+        <v>20</v>
+      </c>
+      <c r="F121" s="10">
+        <v>2</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="H121" s="11">
+        <f t="shared" si="28"/>
+        <v>40</v>
+      </c>
+      <c r="I121" s="11">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="9">
+        <v>41981</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="10">
+        <v>33</v>
+      </c>
+      <c r="F122" s="10">
+        <v>3</v>
+      </c>
+      <c r="G122" s="13"/>
+      <c r="H122" s="11">
+        <f t="shared" si="28"/>
+        <v>99</v>
+      </c>
+      <c r="I122" s="11">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="9">
+        <v>41981</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="10">
+        <v>20</v>
+      </c>
+      <c r="F123" s="10">
+        <v>2</v>
+      </c>
+      <c r="G123" s="13"/>
+      <c r="H123" s="11">
+        <f t="shared" si="28"/>
+        <v>40</v>
+      </c>
+      <c r="I123" s="11">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="9">
+        <v>41981</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="10">
+        <v>40</v>
+      </c>
+      <c r="F124" s="10">
+        <v>2</v>
+      </c>
+      <c r="G124" s="13"/>
+      <c r="H124" s="11">
+        <f t="shared" si="28"/>
+        <v>80</v>
+      </c>
+      <c r="I124" s="11">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125" s="9">
+        <v>41981</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="10">
+        <v>50</v>
+      </c>
+      <c r="F125" s="10">
+        <v>1</v>
+      </c>
+      <c r="G125" s="13"/>
+      <c r="H125" s="11">
+        <f t="shared" si="28"/>
+        <v>50</v>
+      </c>
+      <c r="I125" s="11">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126" s="9">
+        <v>41983</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" s="10">
+        <v>20</v>
+      </c>
+      <c r="F126" s="10">
+        <v>2</v>
+      </c>
+      <c r="G126" s="13"/>
+      <c r="H126" s="11">
+        <f t="shared" si="28"/>
+        <v>40</v>
+      </c>
+      <c r="I126" s="11">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127" s="9">
+        <v>41983</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="10">
+        <v>17</v>
+      </c>
+      <c r="F127" s="10">
+        <v>2</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H127" s="11">
+        <f t="shared" si="28"/>
+        <v>34</v>
+      </c>
+      <c r="I127" s="11">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128" s="9">
+        <v>41983</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" s="10">
+        <v>20</v>
+      </c>
+      <c r="F128" s="10">
+        <v>2</v>
+      </c>
+      <c r="G128" s="13"/>
+      <c r="H128" s="11">
+        <f t="shared" si="28"/>
+        <v>40</v>
+      </c>
+      <c r="I128" s="11">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="9">
+        <v>41983</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="10">
+        <v>23</v>
+      </c>
+      <c r="F129" s="10">
+        <v>2</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H129" s="11">
+        <f t="shared" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I129" s="11">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="9">
+        <v>41986</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" s="10">
+        <v>20</v>
+      </c>
+      <c r="F130" s="10">
+        <v>2</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="11">
+        <f>IF(E130*F130&gt;0,E130*F130,"")</f>
+        <v>40</v>
+      </c>
+      <c r="I130" s="11">
+        <f>IF(WEEKNUM(A130)&gt;0,WEEKNUM(A130),"")</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="9">
+        <v>41986</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="10">
+        <v>15</v>
+      </c>
+      <c r="F131" s="10">
+        <v>2</v>
+      </c>
+      <c r="G131" s="13"/>
+      <c r="H131" s="11">
+        <f>IF(E131*F131&gt;0,E131*F131,"")</f>
+        <v>30</v>
+      </c>
+      <c r="I131" s="11">
+        <f>IF(WEEKNUM(A131)&gt;0,WEEKNUM(A131),"")</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" s="9">
+        <v>41986</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="10">
+        <v>20</v>
+      </c>
+      <c r="F132" s="10">
+        <v>1</v>
+      </c>
+      <c r="G132" s="13"/>
+      <c r="H132" s="11">
+        <f t="shared" ref="H132:H133" si="30">IF(E132*F132&gt;0,E132*F132,"")</f>
+        <v>20</v>
+      </c>
+      <c r="I132" s="11">
+        <f t="shared" ref="I132:I133" si="31">IF(WEEKNUM(A132)&gt;0,WEEKNUM(A132),"")</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="9">
+        <v>41986</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="10">
+        <v>18</v>
+      </c>
+      <c r="F133" s="10">
+        <v>2</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H133" s="11">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H123" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I123" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H124" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I124" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H125" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I125" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H126" s="11" t="str">
-        <f t="shared" ref="H126:H189" si="31">IF(E126*F126&gt;0,E126*F126,"")</f>
-        <v/>
-      </c>
-      <c r="I126" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H127" s="11" t="str">
+        <v>36</v>
+      </c>
+      <c r="I133" s="11">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I127" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H128" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I128" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H129" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I129" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H130" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I130" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H131" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I131" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H132" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I132" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H133" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I133" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H134" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="H127:H190" si="32">IF(E134*F134&gt;0,E134*F134,"")</f>
         <v/>
       </c>
       <c r="I134" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I126:I171" si="33">IF(WEEKNUM(A134)&gt;0,WEEKNUM(A134),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H135" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I135" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H136" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I136" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H137" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I137" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H138" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I138" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H139" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I139" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H140" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I140" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I141" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I142" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I143" s="11" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I144" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I145" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I146" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I147" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I148" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I149" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I150" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I151" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I152" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I153" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I154" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I155" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I156" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I157" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I158" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I159" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I160" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I161" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I162" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I163" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I164" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I165" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I166" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I167" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I168" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I169" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I170" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I171" s="11" t="str">
-        <f t="shared" ref="I171:I234" si="32">IF(WEEKNUM(A171)&gt;0,WEEKNUM(A171),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I172" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="I172:I235" si="34">IF(WEEKNUM(A172)&gt;0,WEEKNUM(A172),"")</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I173" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I174" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I175" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I176" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I177" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I178" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I180" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I181" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I182" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I183" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I184" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I185" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I186" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I187" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I188" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I189" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
-        <f t="shared" ref="H190:H253" si="33">IF(E190*F190&gt;0,E190*F190,"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I190" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H191:H254" si="35">IF(E191*F191&gt;0,E191*F191,"")</f>
         <v/>
       </c>
       <c r="I191" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I192" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I193" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I194" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I195" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I196" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I197" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I198" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I199" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I200" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I201" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I203" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I204" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I205" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I206" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I207" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I208" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I209" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I210" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I211" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I212" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I213" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I214" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I215" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I216" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I217" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I218" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I219" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I220" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I221" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I222" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I223" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I224" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I225" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I226" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I227" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I228" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I229" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I230" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I231" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I232" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I233" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I234" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I235" s="11" t="str">
-        <f t="shared" ref="I235:I298" si="34">IF(WEEKNUM(A235)&gt;0,WEEKNUM(A235),"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I236" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="I236:I299" si="36">IF(WEEKNUM(A236)&gt;0,WEEKNUM(A236),"")</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I237" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I238" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I239" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I240" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I241" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I242" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I243" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I244" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I245" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I246" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I247" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I248" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I249" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I250" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I251" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I252" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I253" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
-        <f t="shared" ref="H254:H317" si="35">IF(E254*F254&gt;0,E254*F254,"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I254" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="H255:H318" si="37">IF(E255*F255&gt;0,E255*F255,"")</f>
         <v/>
       </c>
       <c r="I255" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I256" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I257" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I258" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I259" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I260" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I261" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I262" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I263" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I264" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I265" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I266" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I267" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I268" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I269" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I270" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I271" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I272" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I273" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I274" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I275" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I276" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I277" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I278" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I279" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I280" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I281" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I282" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I283" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I284" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I285" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I286" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I287" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I288" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I289" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I290" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I291" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I292" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I293" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I294" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I295" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I296" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I297" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I298" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I299" s="11" t="str">
-        <f t="shared" ref="I299:I362" si="36">IF(WEEKNUM(A299)&gt;0,WEEKNUM(A299),"")</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I300" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I300:I363" si="38">IF(WEEKNUM(A300)&gt;0,WEEKNUM(A300),"")</f>
         <v/>
       </c>
     </row>
     <row r="301" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I301" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I302" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I303" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I304" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I305" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I306" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I307" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I308" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I309" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I310" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I311" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I312" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I313" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I314" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I315" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I316" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I317" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
-        <f t="shared" ref="H318:H381" si="37">IF(E318*F318&gt;0,E318*F318,"")</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I318" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="H319:H382" si="39">IF(E319*F319&gt;0,E319*F319,"")</f>
         <v/>
       </c>
       <c r="I319" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I320" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I321" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I322" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I323" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I324" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I325" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I326" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I327" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I328" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I329" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I330" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I331" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I332" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I333" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I334" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I335" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I336" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I337" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I338" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I339" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I340" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I341" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I342" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I343" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I344" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I345" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I346" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I347" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I348" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I349" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I350" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I351" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I352" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I353" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I354" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I355" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I356" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I357" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I358" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I359" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I360" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I361" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I362" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I363" s="11" t="str">
-        <f t="shared" ref="I363:I426" si="38">IF(WEEKNUM(A363)&gt;0,WEEKNUM(A363),"")</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I364" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="I364:I427" si="40">IF(WEEKNUM(A364)&gt;0,WEEKNUM(A364),"")</f>
         <v/>
       </c>
     </row>
     <row r="365" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I365" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I366" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I367" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I368" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I369" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I370" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I371" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I372" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I373" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I374" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I375" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I376" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I377" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I378" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I379" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I380" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I381" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
-        <f t="shared" ref="H382:H445" si="39">IF(E382*F382&gt;0,E382*F382,"")</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I382" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="H383:H446" si="41">IF(E383*F383&gt;0,E383*F383,"")</f>
         <v/>
       </c>
       <c r="I383" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I384" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I385" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I386" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I387" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I388" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I389" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I390" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I391" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I392" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I393" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I394" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I395" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I396" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I397" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I398" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I399" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I400" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I401" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I402" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I403" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I404" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I405" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I406" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I407" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I408" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I409" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I410" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I411" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I412" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I413" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I414" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I415" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I416" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I417" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I418" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H419" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I419" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H420" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I420" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H421" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I421" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H422" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I422" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H423" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I423" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H424" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I424" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H425" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I425" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H426" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I426" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H427" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I427" s="11" t="str">
-        <f t="shared" ref="I427:I490" si="40">IF(WEEKNUM(A427)&gt;0,WEEKNUM(A427),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H428" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I428" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="I428:I491" si="42">IF(WEEKNUM(A428)&gt;0,WEEKNUM(A428),"")</f>
         <v/>
       </c>
     </row>
     <row r="429" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H429" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I429" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H430" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I430" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H431" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I431" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H432" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I432" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H433" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I433" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H434" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I434" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H435" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I435" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H436" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I436" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H437" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I437" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H438" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I438" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H439" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I439" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H440" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I440" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H441" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I441" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H442" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I442" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H443" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I443" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H444" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I444" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H445" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I445" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H446" s="11" t="str">
-        <f t="shared" ref="H446:H495" si="41">IF(E446*F446&gt;0,E446*F446,"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I446" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H447" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="H447:H496" si="43">IF(E447*F447&gt;0,E447*F447,"")</f>
         <v/>
       </c>
       <c r="I447" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H448" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I448" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H449" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I449" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H450" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I450" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H451" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I451" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H452" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I452" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H453" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I453" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H454" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I454" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H455" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I455" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H456" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I456" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H457" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I457" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H458" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I458" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H459" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I459" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H460" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I460" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H461" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I461" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H462" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I462" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H463" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I463" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H464" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I464" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H465" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I465" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H466" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I466" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H467" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I467" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H468" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I468" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H469" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I469" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I470" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H471" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I471" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H472" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I472" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H473" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I473" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H474" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I474" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H475" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I475" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H476" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I476" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H477" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I477" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H478" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I478" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H479" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I479" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H480" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I480" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H481" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I481" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H482" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I482" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H483" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I483" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H484" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I484" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I485" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I486" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H487" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I487" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I488" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I489" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I490" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I491" s="11" t="str">
-        <f t="shared" ref="I491:I495" si="42">IF(WEEKNUM(A491)&gt;0,WEEKNUM(A491),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I492" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="I492:I496" si="44">IF(WEEKNUM(A492)&gt;0,WEEKNUM(A492),"")</f>
         <v/>
       </c>
     </row>
     <row r="493" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I493" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I494" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I495" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I496" s="11"/>
+      <c r="H496" s="11" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I496" s="11" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
     </row>
     <row r="497" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I497" s="11"/>
@@ -9988,11 +10408,14 @@
     <row r="638" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I638" s="11"/>
     </row>
+    <row r="639" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I639" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I495"/>
+  <autoFilter ref="A1:I496"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C120">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C133">
       <formula1>INDIRECT(B2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10002,7 +10425,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10015,7 +10438,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="140" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="164" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10028,10 +10451,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D72 D95 D101:D102 D121:D1048576 D107:D108</xm:sqref>
+          <xm:sqref>D1:D19 D72 D95 D101:D102 D134:D1048576 D107:D108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10044,7 +10467,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="138" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="162" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10060,7 +10483,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10073,7 +10496,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="136" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="160" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10089,7 +10512,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10102,7 +10525,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="134" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="158" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10118,7 +10541,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10131,7 +10554,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="132" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="156" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10147,7 +10570,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10160,7 +10583,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="130" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="154" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10176,7 +10599,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10189,7 +10612,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="128" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="152" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10205,7 +10628,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10218,7 +10641,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="124" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="148" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10234,7 +10657,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10247,7 +10670,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="122" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="146" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10263,7 +10686,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10276,7 +10699,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="120" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="144" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10292,7 +10715,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10305,7 +10728,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="118" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="142" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10321,7 +10744,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10334,7 +10757,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="116" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="140" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10350,7 +10773,7 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+          <x14:cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10363,7 +10786,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="114" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+          <x14:cfRule type="cellIs" priority="138" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10379,7 +10802,7 @@
           <xm:sqref>D42:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+          <x14:cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10392,7 +10815,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="112" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+          <x14:cfRule type="cellIs" priority="136" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10408,7 +10831,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+          <x14:cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10421,7 +10844,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="110" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+          <x14:cfRule type="cellIs" priority="134" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10437,7 +10860,7 @@
           <xm:sqref>D45:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+          <x14:cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10450,7 +10873,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="108" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+          <x14:cfRule type="cellIs" priority="132" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10466,7 +10889,7 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
+          <x14:cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal" id="{D711696C-23F2-49A2-A05F-731EA2A1581E}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10479,7 +10902,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="106" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
+          <x14:cfRule type="cellIs" priority="130" stopIfTrue="1" operator="equal" id="{6E393FB2-6902-44BB-A3AF-088C90EDAA92}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10495,7 +10918,7 @@
           <xm:sqref>D49:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
+          <x14:cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal" id="{7B782DC4-3352-4F3A-BB5F-E61DA56D249F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10508,7 +10931,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="104" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
+          <x14:cfRule type="cellIs" priority="128" stopIfTrue="1" operator="equal" id="{7C10550F-5756-45D9-AB88-E0A75087BBFA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10524,7 +10947,7 @@
           <xm:sqref>D52:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
+          <x14:cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal" id="{F851C046-17BB-4E41-80A7-A784E283ECB3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10537,7 +10960,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="102" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
+          <x14:cfRule type="cellIs" priority="126" stopIfTrue="1" operator="equal" id="{A2A30B31-B9EC-43E9-85BF-89390F6E7533}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10553,7 +10976,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
+          <x14:cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal" id="{3519BC38-6991-4242-927C-AE3F9B26C125}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10566,7 +10989,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="100" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
+          <x14:cfRule type="cellIs" priority="124" stopIfTrue="1" operator="equal" id="{1FEC649D-9EF8-4A5D-AFA1-067866B49EA2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10582,7 +11005,7 @@
           <xm:sqref>D56:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
+          <x14:cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal" id="{83F3B584-1F7F-4C7B-A832-695AAFF2E461}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10595,7 +11018,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="98" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
+          <x14:cfRule type="cellIs" priority="122" stopIfTrue="1" operator="equal" id="{C6989929-F47C-400A-8EF7-1461BAA7D8CB}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10611,7 +11034,7 @@
           <xm:sqref>D59:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
+          <x14:cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal" id="{A53758A6-BDBF-4D58-966B-7E2DF864D9E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10624,7 +11047,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="96" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
+          <x14:cfRule type="cellIs" priority="120" stopIfTrue="1" operator="equal" id="{106439DC-537F-4876-A294-0300F499FDCD}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10640,7 +11063,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
+          <x14:cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal" id="{6B61045F-5A3A-4BCA-8971-6E2E33EE1772}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10653,7 +11076,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
+          <x14:cfRule type="cellIs" priority="118" stopIfTrue="1" operator="equal" id="{69612A47-48ED-42EF-8548-D45218FB41D3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10669,7 +11092,7 @@
           <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
+          <x14:cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal" id="{0CD88ADD-28FC-4AE3-9C84-65466748C965}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10682,7 +11105,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="92" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
+          <x14:cfRule type="cellIs" priority="116" stopIfTrue="1" operator="equal" id="{FB0DEED0-1742-4B63-9004-4C40F7581E6B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10698,7 +11121,7 @@
           <xm:sqref>D63:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
+          <x14:cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal" id="{0C804649-33A8-40A2-B428-281EF11E5804}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10711,7 +11134,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="90" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
+          <x14:cfRule type="cellIs" priority="114" stopIfTrue="1" operator="equal" id="{548CB362-835B-44DB-8759-E0552A45788F}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10727,7 +11150,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
+          <x14:cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal" id="{D9660CD4-9041-4D37-8DEC-3229BFC43EA4}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10740,7 +11163,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
+          <x14:cfRule type="cellIs" priority="112" stopIfTrue="1" operator="equal" id="{9E156427-92FC-4BE8-9542-665955F77BC4}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10756,7 +11179,7 @@
           <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
+          <x14:cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal" id="{B3D54167-D7ED-48A8-8906-65FC4BB2EE27}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10769,7 +11192,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
+          <x14:cfRule type="cellIs" priority="110" stopIfTrue="1" operator="equal" id="{11E47F35-CFCB-4943-833B-1BC6371446B2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10785,7 +11208,7 @@
           <xm:sqref>D67:D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
+          <x14:cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal" id="{57E968C0-F9A0-4017-98C7-819C1A6AF9F7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10798,7 +11221,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
+          <x14:cfRule type="cellIs" priority="108" stopIfTrue="1" operator="equal" id="{7BAF7A79-B9BC-4EA9-ABDC-B19D576BA277}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10814,7 +11237,7 @@
           <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
+          <x14:cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal" id="{82AC0AB5-2E3A-41E8-8059-9656E0033307}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10827,7 +11250,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
+          <x14:cfRule type="cellIs" priority="106" stopIfTrue="1" operator="equal" id="{D827B301-65EA-4311-8DE0-18B7FB96B0C3}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10843,7 +11266,7 @@
           <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
+          <x14:cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal" id="{E2394F9A-E452-4684-8868-831D84BD8C5F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10856,7 +11279,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="80" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
+          <x14:cfRule type="cellIs" priority="104" stopIfTrue="1" operator="equal" id="{22C3861A-EB9A-4907-81D7-E1385B93AA8B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10872,7 +11295,7 @@
           <xm:sqref>D73:D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
+          <x14:cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal" id="{6917BEC1-C47E-4A4A-8980-8AC10D2680CF}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10885,7 +11308,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="78" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
+          <x14:cfRule type="cellIs" priority="102" stopIfTrue="1" operator="equal" id="{AAC819E0-9883-48C9-ABA6-3420D9862A1A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10901,7 +11324,7 @@
           <xm:sqref>D75:D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
+          <x14:cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal" id="{427C7219-03E3-43E1-8D8B-AE900CCAAFC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10914,7 +11337,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
+          <x14:cfRule type="cellIs" priority="100" stopIfTrue="1" operator="equal" id="{17A02B83-B18E-4F98-AE64-94C0E9847999}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10930,7 +11353,7 @@
           <xm:sqref>D77:D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
+          <x14:cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal" id="{9421509B-2996-49B0-ABBB-1B39AE4C8B47}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10943,7 +11366,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
+          <x14:cfRule type="cellIs" priority="98" stopIfTrue="1" operator="equal" id="{8F86F9A5-1673-427B-84AC-C57AE00F161D}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10959,7 +11382,7 @@
           <xm:sqref>D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
+          <x14:cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal" id="{5934EC32-4D43-423C-8426-E0FBBC5C0FDA}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -10972,7 +11395,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
+          <x14:cfRule type="cellIs" priority="96" stopIfTrue="1" operator="equal" id="{668B919B-1739-4E13-A441-DEC76D1E7368}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -10988,7 +11411,7 @@
           <xm:sqref>D80:D82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
+          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{49B83EBD-800E-433D-ADB7-8D901F0A0AA1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11001,7 +11424,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
+          <x14:cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal" id="{0B457167-3C43-40DA-861D-6B36F861B100}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11017,7 +11440,7 @@
           <xm:sqref>D83:D84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
+          <x14:cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal" id="{CDEEC0B4-D467-4037-ACDD-CEFC13183683}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11030,7 +11453,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
+          <x14:cfRule type="cellIs" priority="90" stopIfTrue="1" operator="equal" id="{E9184F40-F6BA-495E-858B-75A0ED4AF850}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11046,7 +11469,7 @@
           <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{86CD94BF-6C84-472A-A9FE-61F117A6A97C}">
+          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{86CD94BF-6C84-472A-A9FE-61F117A6A97C}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11059,7 +11482,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{9BCDAF4E-9B05-452F-AAD4-E55C1DE222E8}">
+          <x14:cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal" id="{9BCDAF4E-9B05-452F-AAD4-E55C1DE222E8}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11075,7 +11498,7 @@
           <xm:sqref>D86:D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{BC9E8D25-C466-4FEB-BF11-F046E3B42BC6}">
+          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{BC9E8D25-C466-4FEB-BF11-F046E3B42BC6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11088,7 +11511,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{04D7F966-80DD-4B18-9651-0FD5A80C0A64}">
+          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{04D7F966-80DD-4B18-9651-0FD5A80C0A64}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11104,7 +11527,7 @@
           <xm:sqref>D88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{366E5125-3D4D-465E-BF3F-8DD214BD8B89}">
+          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{366E5125-3D4D-465E-BF3F-8DD214BD8B89}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11117,7 +11540,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{CF49C0E4-3118-4924-B043-D847AF46AFEF}">
+          <x14:cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal" id="{CF49C0E4-3118-4924-B043-D847AF46AFEF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11133,7 +11556,7 @@
           <xm:sqref>D89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{19B18609-9029-42BF-A2B6-14B6F1D810E0}">
+          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{19B18609-9029-42BF-A2B6-14B6F1D810E0}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11146,7 +11569,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{55BDB94E-1508-44C6-9350-C27F5DB2C797}">
+          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{55BDB94E-1508-44C6-9350-C27F5DB2C797}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11162,7 +11585,7 @@
           <xm:sqref>D90:D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{B9E6181C-68F8-4D8A-81F1-0B6AA77EC2E6}">
+          <x14:cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal" id="{B9E6181C-68F8-4D8A-81F1-0B6AA77EC2E6}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11175,7 +11598,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{CC037CDA-1BF0-42ED-B51C-96DE251C92B6}">
+          <x14:cfRule type="cellIs" priority="80" stopIfTrue="1" operator="equal" id="{CC037CDA-1BF0-42ED-B51C-96DE251C92B6}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11191,7 +11614,7 @@
           <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{8A6B1556-9FDF-482E-AAFD-16F64D0576D3}">
+          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{8A6B1556-9FDF-482E-AAFD-16F64D0576D3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11204,7 +11627,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{7E80D14E-E389-4F4B-A7E9-99F92ECD34CA}">
+          <x14:cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal" id="{7E80D14E-E389-4F4B-A7E9-99F92ECD34CA}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11220,7 +11643,7 @@
           <xm:sqref>D94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{8DC611AC-A16E-4BC8-B43E-BDAE3D1C24B3}">
+          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{8DC611AC-A16E-4BC8-B43E-BDAE3D1C24B3}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11233,7 +11656,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{DA46BBCF-11DD-49D0-947E-C3882234C23B}">
+          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{DA46BBCF-11DD-49D0-947E-C3882234C23B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11249,7 +11672,7 @@
           <xm:sqref>D96:D97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{DB5EBB9E-5208-46D7-83D8-7CF0B0F674EB}">
+          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{DB5EBB9E-5208-46D7-83D8-7CF0B0F674EB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11262,7 +11685,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{A50CEC56-2FAC-4975-8891-F7B2B17A9149}">
+          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{A50CEC56-2FAC-4975-8891-F7B2B17A9149}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11278,7 +11701,7 @@
           <xm:sqref>D99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{60656A51-7C24-4AD8-949D-4FE7FE0F58D7}">
+          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{60656A51-7C24-4AD8-949D-4FE7FE0F58D7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11291,7 +11714,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{1CB165DD-9E5D-438A-8268-642FB6F1308B}">
+          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{1CB165DD-9E5D-438A-8268-642FB6F1308B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11307,7 +11730,7 @@
           <xm:sqref>D98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{0F794C4E-3DEB-4662-AA8F-03FAA42F3E7A}">
+          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{0F794C4E-3DEB-4662-AA8F-03FAA42F3E7A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11320,7 +11743,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{11FEB00F-DD32-40FE-8B2A-806A7DEE7DBF}">
+          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{11FEB00F-DD32-40FE-8B2A-806A7DEE7DBF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11336,7 +11759,7 @@
           <xm:sqref>D100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{DC9AD19F-D8F1-496B-B4C5-10EB18840734}">
+          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{DC9AD19F-D8F1-496B-B4C5-10EB18840734}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11349,7 +11772,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{6C79F05A-131F-45CE-816E-79C70A4B3356}">
+          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{6C79F05A-131F-45CE-816E-79C70A4B3356}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11365,7 +11788,7 @@
           <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{ABA7766A-A1F2-4FEB-9C17-1C366FE284D1}">
+          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{ABA7766A-A1F2-4FEB-9C17-1C366FE284D1}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11378,7 +11801,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{B6BEA9C5-E0F5-412A-AC7B-ACEDA0E42249}">
+          <x14:cfRule type="cellIs" priority="60" stopIfTrue="1" operator="equal" id="{B6BEA9C5-E0F5-412A-AC7B-ACEDA0E42249}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11394,7 +11817,7 @@
           <xm:sqref>D104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{FCC7DB0A-C437-4146-9DF9-D496EFE07667}">
+          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{FCC7DB0A-C437-4146-9DF9-D496EFE07667}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11407,7 +11830,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{B15EF4BA-D036-4341-B4B0-C304CE3D4E55}">
+          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{B15EF4BA-D036-4341-B4B0-C304CE3D4E55}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11423,7 +11846,7 @@
           <xm:sqref>D105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{D917A167-75CE-449D-9044-CF34D97E4FA8}">
+          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{D917A167-75CE-449D-9044-CF34D97E4FA8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11436,7 +11859,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{BE18D215-D9F4-4EC9-94AF-839481CD8F1B}">
+          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{BE18D215-D9F4-4EC9-94AF-839481CD8F1B}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11452,7 +11875,7 @@
           <xm:sqref>D106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{DB52687D-63A0-4412-A75B-5BCEE1552629}">
+          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{DB52687D-63A0-4412-A75B-5BCEE1552629}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11465,7 +11888,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{2EA1F822-998F-4D27-AA9D-E2BA517D6120}">
+          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{2EA1F822-998F-4D27-AA9D-E2BA517D6120}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11481,7 +11904,7 @@
           <xm:sqref>D109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{40FD8FC1-690F-4863-8E0A-6FF27B9B25EA}">
+          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{40FD8FC1-690F-4863-8E0A-6FF27B9B25EA}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11494,7 +11917,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{C775CD9D-A86C-402A-92C1-37BA2AE53642}">
+          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{C775CD9D-A86C-402A-92C1-37BA2AE53642}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11510,7 +11933,7 @@
           <xm:sqref>D110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{5B8086AC-EC4C-4FEF-BBE6-A24F6E984642}">
+          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{5B8086AC-EC4C-4FEF-BBE6-A24F6E984642}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11523,7 +11946,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{1885A59A-4AF5-44F1-940D-293347795F84}">
+          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{1885A59A-4AF5-44F1-940D-293347795F84}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11539,7 +11962,7 @@
           <xm:sqref>D112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{5323166C-7BDA-4341-871D-67A52FE352B8}">
+          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{5323166C-7BDA-4341-871D-67A52FE352B8}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11552,7 +11975,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{4741F49C-1156-4441-A663-C9B9D2950007}">
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{4741F49C-1156-4441-A663-C9B9D2950007}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11568,7 +11991,7 @@
           <xm:sqref>D111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{0B912FCD-6227-4F52-BB42-8BEB988D94BC}">
+          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{0B912FCD-6227-4F52-BB42-8BEB988D94BC}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11581,7 +12004,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{23870631-FA9A-4ECB-9F08-9751ED285DE9}">
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{23870631-FA9A-4ECB-9F08-9751ED285DE9}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11597,7 +12020,7 @@
           <xm:sqref>D113:D114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{AB9012F2-780B-4E85-BD5C-013D784FFF2A}">
+          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{AB9012F2-780B-4E85-BD5C-013D784FFF2A}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11610,7 +12033,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{C510E771-952E-4FC2-B1DB-BAE1347B2333}">
+          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{C510E771-952E-4FC2-B1DB-BAE1347B2333}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11626,7 +12049,7 @@
           <xm:sqref>D115:D116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{CF56448A-169A-4530-9E68-C58A80976325}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{CF56448A-169A-4530-9E68-C58A80976325}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11639,7 +12062,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{2E817DF6-D2AB-40D1-9A49-A3224206A1C9}">
+          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{2E817DF6-D2AB-40D1-9A49-A3224206A1C9}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11655,7 +12078,7 @@
           <xm:sqref>D118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{A93F3733-3E8B-4A00-B393-5729175A255D}">
+          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{A93F3733-3E8B-4A00-B393-5729175A255D}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11668,7 +12091,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{A257CF25-76C9-4F49-961E-ACE8379668EF}">
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{A257CF25-76C9-4F49-961E-ACE8379668EF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11684,7 +12107,7 @@
           <xm:sqref>D117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{7C9F906B-8E53-4555-8DA4-88240E120434}">
+          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{7C9F906B-8E53-4555-8DA4-88240E120434}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11697,7 +12120,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{31932AB9-44CC-41B7-A499-DD4EF24F4FBB}">
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{31932AB9-44CC-41B7-A499-DD4EF24F4FBB}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11713,7 +12136,7 @@
           <xm:sqref>D119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{3037ED53-A30F-4583-8182-929902047E0B}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{3037ED53-A30F-4583-8182-929902047E0B}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -11726,7 +12149,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{78FE1653-AFC2-46EB-9F45-D3D7DA233142}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{78FE1653-AFC2-46EB-9F45-D3D7DA233142}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -11741,21 +12164,311 @@
           </x14:cfRule>
           <xm:sqref>D120</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{D9935CB4-E76D-45EC-884F-C728ECF10076}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{55AD77AF-3732-45B5-829B-CDA8924ABB66}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D123:D124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{6F920B6B-2792-4A85-A03A-E4134D90D2E2}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{36680107-673E-4DE1-B2EF-CE7A3B3741EF}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D125</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{C00B9CD5-861F-4E96-972F-051F381CB206}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{450C7BEC-A640-421B-BCDD-8334571606C1}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D121</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{8B9AC09A-2F2D-4274-9B8E-D852801F5F67}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{779BB091-99C6-42EC-B07D-729A53443543}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D122</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{84E58753-B8DF-4198-BB68-4F3F5399B13E}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{4EF22866-9522-4705-ACC1-A8831AA4BBF0}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D127</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{3A407B44-3E5A-4C6F-9E63-90DE3FB4BDE8}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{3D480F38-9C60-4E39-BB8E-E2027E8EC8BD}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D126</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{944C0551-FCC1-49E7-B84E-2C199641A0A6}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{40BEA342-54EE-49F1-8389-7312F21BD996}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D128:D129</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{24FAF69A-9D91-4EAA-BCC6-1A25BBBF4760}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{1F4689A5-1992-4AFC-A1B3-856459CA954C}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D130:D131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{5208D17E-4B97-4C3D-968B-B03CDAFF3550}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{6310697B-0E9D-493E-887E-EF88C56162CE}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{FE16D94E-5A0F-4581-A367-4934DBC40B3E}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{0B054CD0-CA48-40B2-99AE-CDBB35DBC535}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D132</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$15:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D120</xm:sqref>
+          <xm:sqref>D2:D133</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据项!$B$2:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B120</xm:sqref>
+          <xm:sqref>B2:B133</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WangQ健身记录.xlsx
+++ b/WangQ健身记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="数据项" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$496</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014囚徒'!$A$1:$I$497</definedName>
     <definedName name="倒立撑">数据项!$G$2+数据项!$G$4:$G$13</definedName>
     <definedName name="俯卧撑">数据项!$B$4:$B$13</definedName>
     <definedName name="举腿">数据项!$E$4:$E$13</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="108">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,14 @@
     <t>[隐藏式:窄距拇指相触]进阶标准45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>尽量将膝盖向胸部靠拢,使大腿与躯干夹角小于90度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意保持呼吸稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -533,7 +541,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
+  <dxfs count="170">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -736,6 +744,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -746,6 +764,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -836,6 +864,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -851,6 +889,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2431,11 +2539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I639"/>
+  <dimension ref="A1:I640"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4396,7 +4504,7 @@
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H126" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
+        <f t="shared" ref="H67:H76" si="11">IF(E67*F67&gt;0,E67*F67,"")</f>
         <v>20</v>
       </c>
       <c r="I67" s="11">
@@ -6313,11 +6421,11 @@
       </c>
       <c r="G132" s="13"/>
       <c r="H132" s="11">
-        <f t="shared" ref="H132:H133" si="30">IF(E132*F132&gt;0,E132*F132,"")</f>
+        <f t="shared" ref="H132:H136" si="30">IF(E132*F132&gt;0,E132*F132,"")</f>
         <v>20</v>
       </c>
       <c r="I132" s="11">
-        <f t="shared" ref="I132:I133" si="31">IF(WEEKNUM(A132)&gt;0,WEEKNUM(A132),"")</f>
+        <f t="shared" ref="I132:I136" si="31">IF(WEEKNUM(A132)&gt;0,WEEKNUM(A132),"")</f>
         <v>50</v>
       </c>
     </row>
@@ -6352,3682 +6460,3826 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H134" s="11" t="str">
-        <f t="shared" ref="H127:H190" si="32">IF(E134*F134&gt;0,E134*F134,"")</f>
-        <v/>
-      </c>
-      <c r="I134" s="11" t="str">
-        <f t="shared" ref="I126:I171" si="33">IF(WEEKNUM(A134)&gt;0,WEEKNUM(A134),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H135" s="11" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I135" s="11" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H136" s="11" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I136" s="11" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H137" s="11" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I137" s="11" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H138" s="11" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I138" s="11" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H139" s="11" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I139" s="11" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="11" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I140" s="11" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="9">
+        <v>41988</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" s="10">
+        <v>20</v>
+      </c>
+      <c r="F134" s="10">
+        <v>1</v>
+      </c>
+      <c r="G134" s="13"/>
+      <c r="H134" s="11">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="I134" s="11">
+        <f t="shared" si="31"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A135" s="9">
+        <v>41988</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" s="10">
+        <v>15</v>
+      </c>
+      <c r="F135" s="10">
+        <v>1</v>
+      </c>
+      <c r="G135" s="13"/>
+      <c r="H135" s="11">
+        <f t="shared" ref="H135" si="32">IF(E135*F135&gt;0,E135*F135,"")</f>
+        <v>15</v>
+      </c>
+      <c r="I135" s="11">
+        <f t="shared" ref="I135" si="33">IF(WEEKNUM(A135)&gt;0,WEEKNUM(A135),"")</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A136" s="9">
+        <v>41988</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="10">
+        <v>35</v>
+      </c>
+      <c r="F136" s="10">
+        <v>2</v>
+      </c>
+      <c r="G136" s="13"/>
+      <c r="H136" s="11">
+        <f t="shared" si="30"/>
+        <v>70</v>
+      </c>
+      <c r="I136" s="11">
+        <f t="shared" si="31"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137" s="9">
+        <v>41988</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="10">
+        <v>40</v>
+      </c>
+      <c r="F137" s="10">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13"/>
+      <c r="H137" s="11">
+        <f t="shared" ref="H137:H138" si="34">IF(E137*F137&gt;0,E137*F137,"")</f>
+        <v>40</v>
+      </c>
+      <c r="I137" s="11">
+        <f t="shared" ref="I137:I138" si="35">IF(WEEKNUM(A137)&gt;0,WEEKNUM(A137),"")</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138" s="9">
+        <v>41988</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138" s="10">
+        <v>20</v>
+      </c>
+      <c r="F138" s="10">
+        <v>2</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="11">
+        <f t="shared" si="34"/>
+        <v>40</v>
+      </c>
+      <c r="I138" s="11">
+        <f t="shared" si="35"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A139" s="9">
+        <v>41988</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="10">
+        <v>13</v>
+      </c>
+      <c r="F139" s="10">
+        <v>1</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H139" s="11">
+        <f t="shared" ref="H139" si="36">IF(E139*F139&gt;0,E139*F139,"")</f>
+        <v>13</v>
+      </c>
+      <c r="I139" s="11">
+        <f t="shared" ref="I139" si="37">IF(WEEKNUM(A139)&gt;0,WEEKNUM(A139),"")</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A140" s="9">
+        <v>41988</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="10">
+        <v>15</v>
+      </c>
+      <c r="F140" s="10">
+        <v>1</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H140" s="11">
+        <f t="shared" ref="H140" si="38">IF(E140*F140&gt;0,E140*F140,"")</f>
+        <v>15</v>
+      </c>
+      <c r="I140" s="11">
+        <f t="shared" ref="I140" si="39">IF(WEEKNUM(A140)&gt;0,WEEKNUM(A140),"")</f>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="H137:H191" si="40">IF(E141*F141&gt;0,E141*F141,"")</f>
         <v/>
       </c>
       <c r="I141" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="I137:I172" si="41">IF(WEEKNUM(A141)&gt;0,WEEKNUM(A141),"")</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H142" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I142" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H143" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I143" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H144" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I144" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H145" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I145" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H146" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I146" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H147" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I147" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H148" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I148" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H149" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I149" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H150" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I150" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H151" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I151" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I152" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H153" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I153" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H154" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I154" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H155" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I155" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H156" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I156" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H157" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I157" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H158" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I158" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H159" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I159" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H160" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I160" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H161" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I161" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H162" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I162" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H163" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I163" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H164" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I164" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H165" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I165" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H166" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I166" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H167" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I167" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H168" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I168" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H169" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I169" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H170" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I170" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H171" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I171" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H172" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I172" s="11" t="str">
-        <f t="shared" ref="I172:I235" si="34">IF(WEEKNUM(A172)&gt;0,WEEKNUM(A172),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H173" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I173" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="I173:I236" si="42">IF(WEEKNUM(A173)&gt;0,WEEKNUM(A173),"")</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H174" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I174" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H175" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I175" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H176" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I176" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H177" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I177" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H178" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I178" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H179" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H180" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I180" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H181" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I181" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H182" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I182" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H183" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I183" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H184" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I184" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H185" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I185" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H186" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I186" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H187" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I187" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H188" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I188" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H189" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I189" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H190" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I190" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H191" s="11" t="str">
-        <f t="shared" ref="H191:H254" si="35">IF(E191*F191&gt;0,E191*F191,"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I191" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H192" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="H192:H255" si="43">IF(E192*F192&gt;0,E192*F192,"")</f>
         <v/>
       </c>
       <c r="I192" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H193" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I193" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H194" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I194" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H195" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I195" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H196" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I196" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H197" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I197" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H198" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I198" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H199" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I199" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H200" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I200" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H201" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I201" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H202" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H203" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I203" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H204" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I204" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I205" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H206" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I206" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I207" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H208" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I208" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H209" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I209" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H210" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I210" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H211" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I211" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H212" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I212" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H213" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I213" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H214" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I214" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H215" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I215" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H216" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I216" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H217" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I217" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H218" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I218" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H219" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I219" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H220" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I220" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H221" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I221" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H222" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I222" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H223" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I223" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H224" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I224" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H225" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I225" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I226" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H227" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I227" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I228" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H229" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I229" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H230" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I230" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H231" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I231" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H232" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I232" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H233" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I233" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H234" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I234" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H235" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I235" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H236" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I236" s="11" t="str">
-        <f t="shared" ref="I236:I299" si="36">IF(WEEKNUM(A236)&gt;0,WEEKNUM(A236),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H237" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I237" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I237:I300" si="44">IF(WEEKNUM(A237)&gt;0,WEEKNUM(A237),"")</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H238" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I238" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H239" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I239" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H240" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I240" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H241" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I241" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H242" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I242" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H243" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I243" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H244" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I244" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H245" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I245" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H246" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I246" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H247" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I247" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H248" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I248" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H249" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I249" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H250" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I250" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H251" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I251" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H252" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I252" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H253" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I253" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H254" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I254" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H255" s="11" t="str">
-        <f t="shared" ref="H255:H318" si="37">IF(E255*F255&gt;0,E255*F255,"")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I255" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H256" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="H256:H319" si="45">IF(E256*F256&gt;0,E256*F256,"")</f>
         <v/>
       </c>
       <c r="I256" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H257" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I257" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H258" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I258" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H259" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I259" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H260" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I260" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H261" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I261" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H262" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I262" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H263" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I263" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H264" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I264" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H265" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I265" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H266" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I266" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H267" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I267" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H268" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I268" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H269" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I269" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H270" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I270" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H271" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I271" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H272" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I272" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H273" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I273" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H274" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I274" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H275" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I275" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H276" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I276" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H277" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I277" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H278" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I278" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H279" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I279" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H280" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I280" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H281" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I281" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H282" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I282" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H283" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I283" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H284" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I284" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H285" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I285" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H286" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I286" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H287" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I287" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H288" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I288" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H289" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I289" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H290" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I290" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H291" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I291" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H292" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I292" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H293" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I293" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H294" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I294" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H295" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I295" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H296" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I296" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H297" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I297" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H298" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I298" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H299" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I299" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H300" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I300" s="11" t="str">
-        <f t="shared" ref="I300:I363" si="38">IF(WEEKNUM(A300)&gt;0,WEEKNUM(A300),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H301" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I301" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="I301:I364" si="46">IF(WEEKNUM(A301)&gt;0,WEEKNUM(A301),"")</f>
         <v/>
       </c>
     </row>
     <row r="302" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H302" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I302" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H303" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I303" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H304" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I304" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H305" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I305" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H306" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I306" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H307" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I307" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H308" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I308" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H309" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I309" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H310" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I310" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H311" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I311" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H312" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I312" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H313" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I313" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H314" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I314" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H315" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I315" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H316" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I316" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H317" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I317" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H318" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I318" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H319" s="11" t="str">
-        <f t="shared" ref="H319:H382" si="39">IF(E319*F319&gt;0,E319*F319,"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I319" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H320" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="H320:H383" si="47">IF(E320*F320&gt;0,E320*F320,"")</f>
         <v/>
       </c>
       <c r="I320" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H321" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I321" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H322" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I322" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H323" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I323" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H324" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I324" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H325" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I325" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H326" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I326" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H327" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I327" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H328" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I328" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H329" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I329" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H330" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I330" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H331" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I331" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H332" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I332" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H333" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I333" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H334" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I334" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H335" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I335" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H336" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I336" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H337" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I337" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H338" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I338" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H339" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I339" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H340" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I340" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H341" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I341" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H342" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I342" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H343" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I343" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H344" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I344" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H345" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I345" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H346" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I346" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H347" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I347" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H348" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I348" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H349" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I349" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H350" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I350" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H351" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I351" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H352" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I352" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H353" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I353" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H354" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I354" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H355" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I355" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H356" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I356" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H357" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I357" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H358" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I358" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H359" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I359" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H360" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I360" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H361" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I361" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H362" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I362" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H363" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I363" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H364" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I364" s="11" t="str">
-        <f t="shared" ref="I364:I427" si="40">IF(WEEKNUM(A364)&gt;0,WEEKNUM(A364),"")</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H365" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I365" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="I365:I428" si="48">IF(WEEKNUM(A365)&gt;0,WEEKNUM(A365),"")</f>
         <v/>
       </c>
     </row>
     <row r="366" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H366" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I366" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H367" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I367" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H368" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I368" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H369" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I369" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H370" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I370" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H371" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I371" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H372" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I372" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H373" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I373" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H374" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I374" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H375" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I375" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H376" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I376" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H377" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I377" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H378" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I378" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H379" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I379" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H380" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I380" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H381" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I381" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H382" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I382" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H383" s="11" t="str">
-        <f t="shared" ref="H383:H446" si="41">IF(E383*F383&gt;0,E383*F383,"")</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I383" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H384" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="H384:H447" si="49">IF(E384*F384&gt;0,E384*F384,"")</f>
         <v/>
       </c>
       <c r="I384" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H385" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I385" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H386" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I386" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H387" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I387" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H388" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I388" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H389" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I389" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H390" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I390" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H391" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I391" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H392" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I392" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H393" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I393" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H394" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I394" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H395" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I395" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H396" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I396" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H397" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I397" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H398" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I398" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H399" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I399" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H400" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I400" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H401" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I401" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H402" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I402" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H403" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I403" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H404" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I404" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H405" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I405" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H406" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I406" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H407" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I407" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H408" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I408" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H409" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I409" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H410" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I410" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H411" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I411" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H412" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I412" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H413" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I413" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H414" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I414" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H415" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I415" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H416" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I416" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H417" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I417" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H418" s="11" t=